--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251466</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>80.68115942028986</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:40</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5567</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,66 +562,71 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251284</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>297.0909090909091</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16340</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -630,14 +635,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
         <v>39747</v>
@@ -652,53 +657,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251283</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>13.70909090909091</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:10:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:23:48</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>754</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -707,14 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -724,7 +732,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -736,41 +744,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244204</v>
+        <v>251519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>63.12727272727273</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:23:48</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:18</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:58:18</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:25</t>
+          <t>2025-05-12 11:29:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3472</v>
+        <v>13175</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -783,7 +791,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -796,7 +804,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -808,41 +816,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251809</v>
+        <v>251416</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>157.8363636363636</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:01:25</t>
+          <t>2025-05-12 11:29:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:55</t>
+          <t>2025-05-12 11:44:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:55</t>
+          <t>2025-05-12 11:44:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:45</t>
+          <t>2025-05-12 14:22:13</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8681</v>
+        <v>11222</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -855,11 +863,14 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
@@ -868,7 +879,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -880,41 +891,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251846</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>204.0363636363636</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:09:45</t>
+          <t>2025-05-12 14:22:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:15</t>
+          <t>2025-05-12 14:37:13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:44:15</t>
+          <t>2025-05-12 14:37:13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:18</t>
+          <t>2025-05-13 09:17:40</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>11392</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -932,9 +943,6 @@
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -943,7 +951,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -955,41 +963,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251462</v>
+        <v>251626</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>113.2</v>
+        <v>176.056338028169</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:18</t>
+          <t>2025-05-13 09:17:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:48</t>
+          <t>2025-05-13 09:34:40</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 14:38:48</t>
+          <t>2025-05-13 09:34:40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:00</t>
+          <t>2025-05-13 12:30:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1002,7 +1010,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1015,7 +1023,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1027,41 +1035,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251520</v>
+        <v>251373</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>297.0909090909091</v>
+        <v>240.7605633802817</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:32:00</t>
+          <t>2025-05-13 12:30:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:30</t>
+          <t>2025-05-13 12:49:43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:30</t>
+          <t>2025-05-13 12:49:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:35</t>
+          <t>2025-05-14 08:50:29</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16340</v>
+        <v>17094</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1070,11 +1078,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1099,61 +1107,61 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251706</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>50.79365079365079</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 08:50:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:07:29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:07:29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 13:31:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3200</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1162,11 +1170,11 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39764</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1178,41 +1186,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251455</v>
+        <v>251061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>82.765625</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 13:31:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 13:46:25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 13:46:25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 11:24:24</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5297</v>
+        <v>23997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1221,75 +1229,70 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251391</v>
+        <v>235572</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>91.640625</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 11:24:24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 11:41:24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 11:41:24</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-15 14:01:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5865</v>
+        <v>9958</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1298,7 +1301,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1307,66 +1310,61 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251395</v>
+        <v>251475</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>35.34375</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-15 14:01:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-15 14:18:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-15 14:18:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-16 08:20:55</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2262</v>
+        <v>8681</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1379,71 +1377,66 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251371</v>
+        <v>251809</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-16 08:20:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 08:35:55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 08:35:55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 10:38:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8681</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1461,68 +1454,61 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251453</v>
+        <v>251466</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>78.125</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-16 10:38:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-16 10:55:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-16 10:55:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-16 12:13:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>5567</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1540,68 +1526,61 @@
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39742 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39742</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251396</v>
+        <v>251465</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>35.34375</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-16 12:13:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-16 12:30:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-16 12:30:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-16 13:58:17</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2262</v>
+        <v>6226</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1614,71 +1593,66 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251548</v>
+        <v>251557</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>206.90625</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-16 13:58:17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-16 14:13:17</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-16 14:13:17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-19 07:47:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>13242</v>
+        <v>6705</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1691,71 +1665,66 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>250923</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>109.46875</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7006</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>39749</v>
@@ -1786,53 +1755,53 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1841,17 +1810,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1859,57 +1828,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:13:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1918,14 +1887,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
         <v>39746</v>
@@ -1940,53 +1909,53 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-2.611839708564815</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251421</v>
+        <v>251594</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>81.9375</v>
+        <v>106</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 14:41:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:06:02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-09 08:52:02</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5244</v>
+        <v>6466</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1995,77 +1964,70 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251782</v>
+        <v>251580</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>188.640625</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-09 08:52:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 09:12:02</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-09 09:12:02</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 11:09:18</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12073</v>
+        <v>7153</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2074,75 +2036,70 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251651</v>
+        <v>251743</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>731.71875</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-09 11:09:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-09 11:29:18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-09 11:29:18</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-09 14:25:58</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>46830</v>
+        <v>10776</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2151,17 +2108,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2171,7 +2125,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2183,41 +2137,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>245089</v>
+        <v>244204</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>1916.640625</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:25:53</t>
+          <t>2025-05-09 14:25:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-09 14:45:58</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:42:53</t>
+          <t>2025-05-09 14:45:58</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-12 07:42:53</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>122665</v>
+        <v>3472</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2226,14 +2180,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2243,7 +2197,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2255,41 +2209,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251594</v>
+        <v>251566</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>101.03125</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-16 14:39:31</t>
+          <t>2025-05-12 07:42:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-12 08:02:53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-19 07:09:31</t>
+          <t>2025-05-12 08:02:53</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-19 08:50:33</t>
+          <t>2025-05-12 09:55:49</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6466</v>
+        <v>6889</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2327,41 +2281,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244354</v>
+        <v>251424</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>67.34375</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-19 08:50:33</t>
+          <t>2025-05-12 09:55:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-19 09:05:33</t>
+          <t>2025-05-12 10:15:49</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-19 09:05:33</t>
+          <t>2025-05-12 10:15:49</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-19 10:12:54</t>
+          <t>2025-05-12 12:54:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4310</v>
+        <v>9662</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2387,7 +2341,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2399,41 +2353,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251397</v>
+        <v>244355</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>84.921875</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-19 10:12:54</t>
+          <t>2025-05-12 12:54:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-19 10:29:54</t>
+          <t>2025-05-12 13:14:12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-19 10:29:54</t>
+          <t>2025-05-12 13:14:12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:54:49</t>
+          <t>2025-05-12 14:24:52</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5435</v>
+        <v>4310</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2446,7 +2400,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2459,7 +2413,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2471,41 +2425,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251519</v>
+        <v>251761</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>205.859375</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-19 11:54:49</t>
+          <t>2025-05-12 14:24:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-19 12:11:49</t>
+          <t>2025-05-12 14:44:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-19 12:11:49</t>
+          <t>2025-05-12 14:44:52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-20 07:37:41</t>
+          <t>2025-05-13 10:22:33</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>13175</v>
+        <v>13279</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2518,7 +2472,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2531,7 +2485,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
@@ -2543,41 +2497,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251846</v>
+        <v>251505</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>178</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:37:41</t>
+          <t>2025-05-13 10:22:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:52:41</t>
+          <t>2025-05-13 10:47:33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:52:41</t>
+          <t>2025-05-13 10:47:33</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-20 10:50:41</t>
+          <t>2025-05-13 14:41:14</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11392</v>
+        <v>14255</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2590,7 +2544,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2603,7 +2557,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2615,41 +2569,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251562</v>
+        <v>251225</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>127.21875</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-20 10:50:41</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-20 11:05:41</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-20 11:05:41</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-20 13:12:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2658,70 +2612,75 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251475</v>
+        <v>251227</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>135.640625</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-20 13:12:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-20 13:31:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-20 13:31:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-21 07:47:32</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8681</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2730,70 +2689,75 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251561</v>
+        <v>251782</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>84.921875</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-21 07:47:32</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-21 08:04:32</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-21 08:04:32</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-21 09:29:28</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5435</v>
+        <v>12073</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2802,70 +2766,75 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251546</v>
+        <v>251651</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>101.03125</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-21 09:29:28</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-21 09:44:28</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-21 09:44:28</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-21 11:25:30</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6466</v>
+        <v>46830</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2874,14 +2843,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39755</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2891,7 +2863,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2903,41 +2875,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>250819</v>
+        <v>251987</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>133.234375</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-21 11:25:30</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-21 11:42:30</t>
+          <t>2025-05-12 11:16:37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-21 11:42:30</t>
+          <t>2025-05-12 11:16:37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-21 13:55:44</t>
+          <t>2025-05-20 12:41:46</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8527</v>
+        <v>210526</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2946,14 +2918,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2963,7 +2935,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2975,41 +2947,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251245</v>
+        <v>245089</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>11.78125</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-21 13:55:44</t>
+          <t>2025-05-20 12:41:46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-21 14:10:44</t>
+          <t>2025-05-20 13:00:46</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-21 14:10:44</t>
+          <t>2025-05-20 13:00:46</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-21 14:22:30</t>
+          <t>2025-05-26 09:48:27</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3018,14 +2990,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3035,7 +3007,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3047,41 +3019,41 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251247</v>
+        <v>250670</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>420.84375</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-21 14:22:30</t>
+          <t>2025-05-26 09:48:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-21 14:37:30</t>
+          <t>2025-05-26 10:03:27</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-21 14:37:30</t>
+          <t>2025-05-26 10:03:27</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-22 13:38:21</t>
+          <t>2025-05-26 10:25:27</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>26934</v>
+        <v>1563</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3090,14 +3062,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3107,7 +3079,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3119,41 +3091,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251062</v>
+        <v>251340</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>353.5</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-22 13:38:21</t>
+          <t>2025-05-26 10:25:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-22 13:53:21</t>
+          <t>2025-05-26 10:44:27</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-22 13:53:21</t>
+          <t>2025-05-26 10:44:27</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-23 11:46:51</t>
+          <t>2025-05-27 10:26:26</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>22624</v>
+        <v>32800</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3162,14 +3134,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3179,7 +3151,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3191,41 +3163,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245275</v>
+        <v>245623</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>379.59375</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-23 11:46:51</t>
+          <t>2025-05-27 10:26:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-23 12:17:51</t>
+          <t>2025-05-27 10:56:26</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-23 12:17:51</t>
+          <t>2025-05-27 10:56:26</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-26 10:37:27</t>
+          <t>2025-05-28 09:08:32</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>24294</v>
+        <v>26419</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3234,14 +3206,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3251,7 +3223,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3263,41 +3235,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251050</v>
+        <v>251750</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-28 09:08:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 09:25:32</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 09:25:32</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 10:20:20</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3891</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3306,75 +3278,70 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251054</v>
+        <v>243335</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-28 10:20:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-28 10:37:20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-28 10:37:20</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-29 10:22:10</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3383,75 +3350,70 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="N40" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D41" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3460,19 +3422,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N41" t="n">
+        <v>39749</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3480,57 +3440,57 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251109</v>
+        <v>245090</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
-        <v>266.5915492957747</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>18928</v>
+        <v>516718</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3539,14 +3499,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3556,7 +3516,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
@@ -3568,41 +3528,41 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251547</v>
+        <v>251467</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D43" t="n">
-        <v>184.9154929577465</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-03 12:39:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-03 13:25:47</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-03 13:25:47</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 07:07:51</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>13129</v>
+        <v>6226</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3615,71 +3575,66 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250759</v>
+        <v>251464</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>118.2816901408451</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-04 07:07:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:36:51</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-04 07:36:51</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 09:34:06</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8398</v>
+        <v>7153</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3688,75 +3643,70 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>250894</v>
+        <v>251485</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>623.4084507042254</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 09:34:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 10:01:06</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 10:01:06</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 11:19:56</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>44262</v>
+        <v>4808</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3765,17 +3715,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
         <v>5</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3785,7 +3732,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3797,41 +3744,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>235572</v>
+        <v>244023</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>140.2535211267606</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 11:19:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-06-04 11:46:56</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-06-04 11:46:56</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-06-04 12:03:16</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>9958</v>
+        <v>997</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3840,11 +3787,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3857,7 +3804,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3869,41 +3816,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251373</v>
+        <v>251283</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>240.7605633802817</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-06-04 12:03:16</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:51</t>
+          <t>2025-06-04 12:28:16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:52:51</t>
+          <t>2025-06-04 12:28:16</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:37</t>
+          <t>2025-06-04 12:40:38</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>17094</v>
+        <v>754</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3912,11 +3859,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
@@ -3929,7 +3876,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3941,41 +3888,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251463</v>
+        <v>251260</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D48" t="n">
-        <v>98.12676056338029</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:53:37</t>
+          <t>2025-06-04 12:40:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:37</t>
+          <t>2025-06-04 13:05:38</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:37</t>
+          <t>2025-06-04 13:05:38</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:44</t>
+          <t>2025-06-05 07:39:13</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6967</v>
+        <v>9369</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3984,11 +3931,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4001,7 +3948,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -4013,41 +3960,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251743</v>
+        <v>251249</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D49" t="n">
-        <v>151.7746478873239</v>
+        <v>78</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:44</t>
+          <t>2025-06-05 07:39:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:03:44</t>
+          <t>2025-06-05 08:04:13</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:03:44</t>
+          <t>2025-06-05 08:04:13</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:31</t>
+          <t>2025-06-05 09:22:13</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>10776</v>
+        <v>4758</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4056,11 +4003,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4073,7 +4020,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4085,41 +4032,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251564</v>
+        <v>251374</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>38.26760563380282</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:31</t>
+          <t>2025-06-05 09:22:13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:31</t>
+          <t>2025-06-05 09:49:13</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:31</t>
+          <t>2025-06-05 09:49:13</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:47</t>
+          <t>2025-06-06 09:17:28</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2717</v>
+        <v>27343</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4128,11 +4075,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4145,7 +4092,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
@@ -4157,41 +4104,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251626</v>
+        <v>251455</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>176.056338028169</v>
+        <v>82.765625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:47</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:47</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:47</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:41:50</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>12500</v>
+        <v>5297</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4204,66 +4151,71 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251229</v>
+        <v>251391</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>263.9295774647887</v>
+        <v>91.640625</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-14 07:41:50</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:50</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:50</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:46</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18739</v>
+        <v>5865</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4272,19 +4224,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>70</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N52" t="n">
+        <v>39749</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4292,57 +4242,57 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245350</v>
+        <v>251395</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>393.943661971831</v>
+        <v>35.34375</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:26:46</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:49:46</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 12:49:46</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-15 11:23:43</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>27970</v>
+        <v>2262</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4351,70 +4301,75 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
+      <c r="N53" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251485</v>
+        <v>251371</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>67.71830985915493</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:23:43</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:48:43</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-15 11:48:43</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-15 12:56:26</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4427,66 +4382,73 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251761</v>
+        <v>251396</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>187.0281690140845</v>
+        <v>35.34375</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-15 12:56:26</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-15 13:13:26</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-15 13:13:26</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-16 08:20:27</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13279</v>
+        <v>2262</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4499,66 +4461,71 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
+      <c r="N55" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251464</v>
+        <v>251548</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>100.7464788732394</v>
+        <v>206.90625</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:20:27</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:35:27</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-16 08:35:27</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-16 10:16:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7153</v>
+        <v>13242</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4576,61 +4543,66 @@
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
+      <c r="N56" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251467</v>
+        <v>250923</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>87.69014084507042</v>
+        <v>109.46875</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:16:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:35:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-16 10:35:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-16 12:02:54</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>6226</v>
+        <v>7006</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4639,70 +4611,75 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>94.43661971830986</v>
+        <v>468.734375</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:02:54</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:17:54</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-16 12:17:54</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-16 13:52:20</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4711,70 +4688,75 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251252</v>
+        <v>243569</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>212.4366197183099</v>
+        <v>40.640625</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-16 13:52:20</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-16 14:15:20</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-16 14:15:20</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-19 09:47:46</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>15083</v>
+        <v>2601</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4783,14 +4765,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4800,7 +4782,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4812,41 +4794,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251397</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>30</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>84.921875</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-19 09:47:46</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-19 10:17:46</t>
+          <t>2025-05-09 12:16:50</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-19 10:17:46</t>
+          <t>2025-05-09 12:16:50</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-27 11:42:55</t>
+          <t>2025-05-09 13:41:45</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>5435</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4855,14 +4837,14 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4872,7 +4854,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4884,41 +4866,41 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251742</v>
+        <v>251564</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>134.8524590163935</v>
+        <v>42.453125</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 13:41:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 13:56:45</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 13:56:45</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:39:13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8226</v>
+        <v>2717</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4931,71 +4913,66 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
-      <c r="N61" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251840</v>
+        <v>251561</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>93.67213114754098</v>
+        <v>84.921875</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 14:39:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 14:58:13</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 14:58:13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 08:23:08</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5714</v>
+        <v>5435</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5013,66 +4990,61 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251456</v>
+        <v>251546</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>147.5245901639344</v>
+        <v>101.03125</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 08:23:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 08:38:08</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-12 08:38:08</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 10:19:10</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8999</v>
+        <v>6466</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5085,71 +5057,66 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251465</v>
+        <v>251062</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>102.0655737704918</v>
+        <v>353.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 10:19:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 10:36:10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 10:36:10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-13 08:29:40</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6226</v>
+        <v>22624</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5158,11 +5125,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5175,7 +5142,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5187,41 +5154,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251566</v>
+        <v>251245</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>112.9344262295082</v>
+        <v>11.78125</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 08:48:06</t>
+          <t>2025-05-13 08:29:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:06</t>
+          <t>2025-05-13 08:44:40</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:06</t>
+          <t>2025-05-13 08:44:40</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:02</t>
+          <t>2025-05-13 08:56:27</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6889</v>
+        <v>754</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5230,11 +5197,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5247,7 +5214,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5259,41 +5226,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251424</v>
+        <v>251463</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>158.3934426229508</v>
+        <v>108.859375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:11:02</t>
+          <t>2025-05-13 08:56:27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:02</t>
+          <t>2025-05-13 09:15:27</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:02</t>
+          <t>2025-05-13 09:15:27</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:26</t>
+          <t>2025-05-13 11:04:18</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>9662</v>
+        <v>6967</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5319,7 +5286,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5331,41 +5298,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>244355</v>
+        <v>251462</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>70.65573770491804</v>
+        <v>97.28125</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:26</t>
+          <t>2025-05-13 11:04:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:29:26</t>
+          <t>2025-05-13 11:23:18</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 14:29:26</t>
+          <t>2025-05-13 11:23:18</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:05</t>
+          <t>2025-05-13 13:00:35</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>4310</v>
+        <v>6226</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5378,7 +5345,7 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
@@ -5391,7 +5358,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
@@ -5403,41 +5370,41 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251505</v>
+        <v>251562</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>233.6885245901639</v>
+        <v>127.21875</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:05</t>
+          <t>2025-05-13 13:00:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:05</t>
+          <t>2025-05-13 13:15:35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:05</t>
+          <t>2025-05-13 13:15:35</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:47</t>
+          <t>2025-05-14 07:22:48</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>14255</v>
+        <v>8142</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5450,7 +5417,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5463,7 +5430,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5475,41 +5442,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>250641</v>
+        <v>251251</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>83.8688524590164</v>
+        <v>247.8125</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-12 11:58:47</t>
+          <t>2025-05-14 07:22:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:47</t>
+          <t>2025-05-14 07:45:48</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-12 12:23:47</t>
+          <t>2025-05-14 07:45:48</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-14 11:53:37</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>5116</v>
+        <v>15860</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5518,7 +5485,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5535,7 +5502,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5547,41 +5514,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251259</v>
+        <v>251346</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>81.9672131147541</v>
+        <v>60.296875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 13:47:39</t>
+          <t>2025-05-14 11:53:37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-14 12:12:37</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:39</t>
+          <t>2025-05-14 12:12:37</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 07:44:37</t>
+          <t>2025-05-14 13:12:55</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>5000</v>
+        <v>3859</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5594,7 +5561,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5607,7 +5574,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5619,41 +5586,41 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251346</v>
+        <v>245275</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>63.26229508196721</v>
+        <v>379.59375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 07:44:37</t>
+          <t>2025-05-14 13:12:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:37</t>
+          <t>2025-05-14 13:39:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 08:09:37</t>
+          <t>2025-05-14 13:39:55</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:53</t>
+          <t>2025-05-15 11:59:30</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>3859</v>
+        <v>24294</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5662,11 +5629,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5679,7 +5646,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
@@ -5691,41 +5658,41 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244023</v>
+        <v>244354</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>16.34426229508197</v>
+        <v>62.46376811594203</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:53</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:53</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:42:53</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:13</t>
+          <t>2025-05-12 08:37:27</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>997</v>
+        <v>4310</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5738,7 +5705,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5751,7 +5718,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
@@ -5763,41 +5730,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251061</v>
+        <v>251259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D73" t="n">
-        <v>393.3934426229508</v>
+        <v>72.46376811594203</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 09:59:13</t>
+          <t>2025-05-12 08:37:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:13</t>
+          <t>2025-05-12 09:27:27</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:13</t>
+          <t>2025-05-12 09:27:27</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:37</t>
+          <t>2025-05-12 10:39:55</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>23997</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5806,11 +5773,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5823,7 +5790,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5835,41 +5802,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251260</v>
+        <v>245350</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>153.5901639344262</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:37</t>
+          <t>2025-05-12 10:39:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-12 11:09:55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-14 09:12:37</t>
+          <t>2025-05-12 11:09:55</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:46:12</t>
+          <t>2025-05-13 09:55:17</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>9369</v>
+        <v>27970</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5878,11 +5845,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5895,7 +5862,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5907,41 +5874,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251795</v>
+        <v>250641</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D75" t="n">
-        <v>307.1967213114754</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-14 11:46:12</t>
+          <t>2025-05-13 09:55:17</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:12</t>
+          <t>2025-05-13 10:40:17</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-14 12:06:12</t>
+          <t>2025-05-13 10:40:17</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-15 09:13:24</t>
+          <t>2025-05-13 11:54:26</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>18739</v>
+        <v>5116</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5950,7 +5917,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -5967,7 +5934,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5979,41 +5946,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>245090</v>
+        <v>251246</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D76" t="n">
-        <v>8470.786885245901</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 11:54:26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-14 07:13:22</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>516718</v>
+        <v>12002</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6022,14 +5989,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6039,7 +6006,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6051,41 +6018,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>250670</v>
+        <v>251252</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>25.62295081967213</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-14 07:13:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-06-03 13:06:47</t>
+          <t>2025-05-14 07:38:22</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-06-03 13:06:47</t>
+          <t>2025-05-14 07:38:22</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-06-03 13:32:24</t>
+          <t>2025-05-14 11:16:58</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1563</v>
+        <v>15083</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6094,14 +6061,14 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -6111,7 +6078,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6123,67 +6090,74 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>243335</v>
+        <v>251706</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>541.0491803278688</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-06-03 13:32:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-06-03 14:12:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-06-03 14:12:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:27</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>33004</v>
+        <v>3200</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>152</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6195,41 +6169,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251246</v>
+        <v>251050</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="D79" t="n">
-        <v>196.7540983606557</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-06-05 07:13:27</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-06-05 07:57:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-06-05 07:57:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-06-05 11:14:12</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>12002</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6238,70 +6212,75 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
+      <c r="N79" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251249</v>
+        <v>251054</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-06-05 11:14:12</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:12</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-06-05 11:39:12</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:12</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4758</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6310,70 +6289,75 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
+      <c r="N80" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D81" t="n">
-        <v>422.5211267605634</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6382,17 +6366,19 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6400,57 +6386,57 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-2.471889671365741</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>243569</v>
+        <v>251109</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D82" t="n">
-        <v>36.63380281690141</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:31</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:31</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:31</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2601</v>
+        <v>18928</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6459,14 +6445,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6476,7 +6462,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6488,41 +6474,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251340</v>
+        <v>251284</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D83" t="n">
-        <v>461.9718309859155</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:11:09</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:09</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:28:09</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:07</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>32800</v>
+        <v>16340</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6531,70 +6517,75 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N83" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>245623</v>
+        <v>251520</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D84" t="n">
-        <v>372.0985915492957</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:10:07</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:07</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 12:40:07</t>
+          <t>2025-05-09 13:08:05</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>26419</v>
+        <v>16340</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6603,14 +6594,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6620,7 +6611,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6632,41 +6623,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251750</v>
+        <v>250819</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D85" t="n">
-        <v>54.80281690140845</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-12 10:05:10</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:09:13</t>
+          <t>2025-05-12 10:37:40</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:09:13</t>
+          <t>2025-05-12 10:37:40</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 12:04:01</t>
+          <t>2025-05-12 13:12:43</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3891</v>
+        <v>8527</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6675,14 +6666,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6692,7 +6683,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6704,41 +6695,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251268</v>
+        <v>251247</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:12:43</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 13:43:13</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-12 13:43:13</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-13 13:52:55</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>26934</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6747,77 +6738,70 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>76</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-04-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-24.32430555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251164</v>
+        <v>251795</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>47</v>
+        <v>30.5</v>
       </c>
       <c r="D87" t="n">
-        <v>204.0816326530612</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 07:47:00</t>
+          <t>2025-05-13 13:52:55</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-13 14:23:25</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:00</t>
+          <t>2025-05-13 14:23:25</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-08 11:58:04</t>
+          <t>2025-05-14 12:04:08</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>10000</v>
+        <v>18739</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6826,7 +6810,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -6835,242 +6819,21 @@
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="N87" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>251251</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>35</v>
-      </c>
-      <c r="D88" t="n">
-        <v>323.6734693877551</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:33:04</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:33:04</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:56:45</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>15860</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>6</v>
-      </c>
-      <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>251374</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>40</v>
-      </c>
-      <c r="D89" t="n">
-        <v>558.0204081632653</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2025-05-09 09:56:45</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:36:45</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:36:45</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:54:46</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>27343</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>7</v>
-      </c>
-      <c r="M89" t="n">
-        <v>70</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>251580</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>50</v>
-      </c>
-      <c r="D90" t="n">
-        <v>145.9795918367347</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2025-05-12 11:54:46</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:44:46</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:44:46</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2025-05-13 07:10:45</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>7153</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
-        <v>70</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251467</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 09:24:03</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>6226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,71 +562,66 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 09:24:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 09:49:03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 09:49:03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 12:53:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>11222</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,75 +630,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251519</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 12:53:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:18:01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 13:18:01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 08:54:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>13175</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +705,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -732,7 +722,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -744,41 +734,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251519</v>
+        <v>251846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>185.5633802816901</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 08:54:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-12 09:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-12 09:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:10</t>
+          <t>2025-05-12 12:25:46</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13175</v>
+        <v>11392</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,7 +794,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -816,41 +806,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251416</v>
+        <v>251464</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>158.056338028169</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:29:10</t>
+          <t>2025-05-12 12:25:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:10</t>
+          <t>2025-05-12 12:54:46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:10</t>
+          <t>2025-05-12 12:54:46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:13</t>
+          <t>2025-05-12 14:52:01</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11222</v>
+        <v>7153</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -863,14 +853,11 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
@@ -879,7 +866,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -891,41 +878,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251846</v>
+        <v>251259</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>160.4507042253521</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:22:13</t>
+          <t>2025-05-12 14:52:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:13</t>
+          <t>2025-05-13 07:27:01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:13</t>
+          <t>2025-05-13 07:27:01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:40</t>
+          <t>2025-05-13 08:49:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11392</v>
+        <v>5000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -938,7 +925,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -951,7 +938,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -963,41 +950,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251626</v>
+        <v>251374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>176.056338028169</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:17:40</t>
+          <t>2025-05-13 08:49:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:40</t>
+          <t>2025-05-13 09:18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:40</t>
+          <t>2025-05-13 09:18:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:43</t>
+          <t>2025-05-14 08:46:14</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12500</v>
+        <v>27343</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1006,11 +993,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1023,7 +1010,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1035,41 +1022,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251373</v>
+        <v>251229</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>240.7605633802817</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 12:30:43</t>
+          <t>2025-05-14 08:46:14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:43</t>
+          <t>2025-05-14 09:13:14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 12:49:43</t>
+          <t>2025-05-14 09:13:14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:29</t>
+          <t>2025-05-14 14:20:26</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>17094</v>
+        <v>18739</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1078,24 +1065,31 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1107,41 +1101,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251260</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>263.9295774647887</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 08:50:29</t>
+          <t>2025-05-14 14:20:26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:29</t>
+          <t>2025-05-14 14:45:26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:29</t>
+          <t>2025-05-14 14:45:26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-14 13:31:25</t>
+          <t>2025-05-15 09:19:01</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>9369</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1159,22 +1153,15 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1186,41 +1173,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251061</v>
+        <v>251249</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>337.9859154929578</v>
+        <v>78</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:31:25</t>
+          <t>2025-05-15 09:19:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:46:25</t>
+          <t>2025-05-15 09:44:01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-14 13:46:25</t>
+          <t>2025-05-15 09:44:01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 11:24:24</t>
+          <t>2025-05-15 11:02:01</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>23997</v>
+        <v>4758</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,7 +1233,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1258,41 +1245,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>235572</v>
+        <v>251987</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>140.2535211267606</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:24:24</t>
+          <t>2025-05-15 11:02:01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:41:24</t>
+          <t>2025-05-15 11:42:01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:41:24</t>
+          <t>2025-05-15 11:42:01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-15 14:01:39</t>
+          <t>2025-05-26 13:13:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9958</v>
+        <v>210526</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1301,14 +1288,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1318,7 +1305,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1330,41 +1317,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251475</v>
+        <v>245090</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2676056338028</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:01:39</t>
+          <t>2025-05-26 13:13:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:18:39</t>
+          <t>2025-05-26 13:40:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-15 14:18:39</t>
+          <t>2025-05-26 13:40:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-16 08:20:55</t>
+          <t>2025-06-19 10:51:03</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8681</v>
+        <v>516718</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1373,14 +1360,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1390,7 +1377,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1402,41 +1389,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251809</v>
+        <v>251742</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>122.2676056338028</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:20:55</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:35:55</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-16 08:35:55</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-16 10:38:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8681</v>
+        <v>8226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1454,61 +1441,66 @@
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251466</v>
+        <v>251840</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>78.40845070422536</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:38:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:55:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:55:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-16 12:13:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5567</v>
+        <v>5714</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1521,16 +1513,21 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
+      <c r="N15" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1538,49 +1535,49 @@
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251465</v>
+        <v>251485</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>87.69014084507042</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:13:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:30:36</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-16 12:30:36</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 13:58:17</t>
+          <t>2025-05-08 13:22:20</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6226</v>
+        <v>4808</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1593,7 +1590,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1606,7 +1603,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1618,41 +1615,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251557</v>
+        <v>251505</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43661971830986</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-16 13:58:17</t>
+          <t>2025-05-08 13:22:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:13:17</t>
+          <t>2025-05-08 13:42:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:13:17</t>
+          <t>2025-05-08 13:42:20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-19 07:47:43</t>
+          <t>2025-05-09 09:36:01</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>6705</v>
+        <v>14255</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1665,7 +1662,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1678,7 +1675,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1690,7 +1687,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>244204</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1698,33 +1695,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:36:01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:01:01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:01:01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:57:57</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>3472</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1742,32 +1739,27 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251594</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1775,33 +1767,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>106</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:57:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:17:57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:17:57</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 13:03:57</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>6466</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1814,37 +1806,32 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251580</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1852,33 +1839,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>147.5245901639344</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 13:03:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:23:57</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:23:57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 07:21:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>7153</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1891,37 +1878,32 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251594</v>
+        <v>251566</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1929,33 +1911,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>106</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-12 07:21:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 07:41:12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:06:02</t>
+          <t>2025-05-12 07:41:12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:02</t>
+          <t>2025-05-12 09:34:08</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6466</v>
+        <v>6889</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1993,7 +1975,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251580</v>
+        <v>251424</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2004,30 +1986,30 @@
         <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>117.2622950819672</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:52:02</t>
+          <t>2025-05-12 09:34:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:12:02</t>
+          <t>2025-05-12 09:54:08</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:12:02</t>
+          <t>2025-05-12 09:54:08</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:18</t>
+          <t>2025-05-12 12:32:32</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7153</v>
+        <v>9662</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2053,7 +2035,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2065,7 +2047,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251743</v>
+        <v>244355</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2076,30 +2058,30 @@
         <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>176.655737704918</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:18</t>
+          <t>2025-05-12 12:32:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:18</t>
+          <t>2025-05-12 12:52:32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:29:18</t>
+          <t>2025-05-12 12:52:32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:58</t>
+          <t>2025-05-12 14:03:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>10776</v>
+        <v>4310</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2125,7 +2107,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2137,7 +2119,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>244204</v>
+        <v>251761</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2148,30 +2130,30 @@
         <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>56.91803278688525</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:25:58</t>
+          <t>2025-05-12 14:03:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:58</t>
+          <t>2025-05-12 14:23:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:45:58</t>
+          <t>2025-05-12 14:23:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:53</t>
+          <t>2025-05-13 10:00:53</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3472</v>
+        <v>13279</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2197,7 +2179,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2209,7 +2191,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251566</v>
+        <v>251626</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2217,33 +2199,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>112.9344262295082</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:53</t>
+          <t>2025-05-13 10:00:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:53</t>
+          <t>2025-05-13 10:25:53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:53</t>
+          <t>2025-05-13 10:25:53</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:49</t>
+          <t>2025-05-13 13:50:48</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>6889</v>
+        <v>12500</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2256,7 +2238,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2269,7 +2251,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2281,41 +2263,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251424</v>
+        <v>251252</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D26" t="n">
-        <v>158.3934426229508</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 09:55:49</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:49</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:15:49</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:12</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>9662</v>
+        <v>15083</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2324,11 +2306,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2341,7 +2323,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2353,41 +2335,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>244355</v>
+        <v>251225</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>70.65573770491804</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:12</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:12</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:12</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4310</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2396,70 +2378,75 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251761</v>
+        <v>251227</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>217.6885245901639</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:52</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:33</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>13279</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2468,70 +2455,75 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>70</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N28" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251505</v>
+        <v>251782</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>233.6885245901639</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:22:33</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:33</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:33</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>14255</v>
+        <v>12073</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2540,36 +2532,41 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>70</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N29" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251225</v>
+        <v>250670</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2577,33 +2574,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:20:03</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2612,7 +2609,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -2621,32 +2618,27 @@
       <c r="M30" t="n">
         <v>76</v>
       </c>
-      <c r="N30" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251227</v>
+        <v>251651</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2654,33 +2646,33 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 08:20:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 08:37:03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 08:37:03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:36:38</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2689,41 +2681,39 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>76</v>
       </c>
       <c r="N31" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251782</v>
+        <v>245089</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2734,30 +2724,30 @@
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>170.0422535211268</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:36:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 11:53:38</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 11:53:38</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-16 08:41:18</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12073</v>
+        <v>122665</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2766,41 +2756,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
         <v>76</v>
       </c>
-      <c r="N32" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251651</v>
+        <v>251340</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2811,30 +2796,30 @@
         <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>659.5774647887324</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-16 08:41:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-16 09:00:18</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-16 09:00:18</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-19 08:42:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>46830</v>
+        <v>32800</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2847,14 +2832,11 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>76</v>
       </c>
-      <c r="N33" t="n">
-        <v>39755</v>
-      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -2863,7 +2845,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2875,7 +2857,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251987</v>
+        <v>245623</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2883,33 +2865,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>2965.154929577465</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-19 08:42:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:16:37</t>
+          <t>2025-05-19 09:12:16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 11:16:37</t>
+          <t>2025-05-19 09:12:16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-20 12:41:46</t>
+          <t>2025-05-20 07:24:22</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>210526</v>
+        <v>26419</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2918,14 +2900,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2935,7 +2917,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2947,7 +2929,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>245089</v>
+        <v>251750</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2955,33 +2937,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>1727.676056338028</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-20 12:41:46</t>
+          <t>2025-05-20 07:24:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-20 13:00:46</t>
+          <t>2025-05-20 07:41:22</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-20 13:00:46</t>
+          <t>2025-05-20 07:41:22</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-26 09:48:27</t>
+          <t>2025-05-20 08:36:10</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>122665</v>
+        <v>3891</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2994,10 +2976,10 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3007,7 +2989,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -3019,7 +3001,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>250670</v>
+        <v>243335</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3027,33 +3009,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>22.01408450704225</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-26 09:48:27</t>
+          <t>2025-05-20 08:36:10</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:03:27</t>
+          <t>2025-05-20 08:53:10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:03:27</t>
+          <t>2025-05-20 08:53:10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-26 10:25:27</t>
+          <t>2025-05-21 08:38:01</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1563</v>
+        <v>33004</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3062,14 +3044,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3079,7 +3061,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3091,41 +3073,41 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251340</v>
+        <v>251050</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D37" t="n">
-        <v>461.9718309859155</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:25:27</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:44:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-26 10:44:27</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-27 10:26:26</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3134,70 +3116,75 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>245623</v>
+        <v>251054</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-27 10:26:26</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-27 10:56:26</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-27 10:56:26</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-28 09:08:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3206,70 +3193,75 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M38" t="n">
-        <v>152</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251750</v>
+        <v>251081</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D39" t="n">
-        <v>54.80281690140845</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:08:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:25:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-28 09:25:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-28 10:20:20</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3891</v>
+        <v>3012</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3278,70 +3270,77 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>243335</v>
+        <v>251109</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>464.8450704225352</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-28 10:20:20</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-28 10:37:20</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-28 10:37:20</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-29 10:22:10</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>33004</v>
+        <v>18928</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3350,14 +3349,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M40" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3367,7 +3366,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
@@ -3379,41 +3378,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251164</v>
+        <v>251520</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>204.0816326530612</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3422,52 +3421,47 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245090</v>
+        <v>251284</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D42" t="n">
-        <v>8470.786885245901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3476,21 +3470,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>516718</v>
+        <v>16340</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3499,70 +3493,75 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251467</v>
+        <v>251373</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>46</v>
+        <v>34.5</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0655737704918</v>
+        <v>310.8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-06-03 12:39:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-06-03 13:25:47</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-06-03 13:25:47</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-06-04 07:07:51</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6226</v>
+        <v>17094</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3575,7 +3574,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3588,7 +3587,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3600,41 +3599,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251464</v>
+        <v>251397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>117.2622950819672</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-04 07:07:51</t>
+          <t>2025-05-12 10:22:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-04 07:36:51</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-06-04 07:36:51</t>
+          <t>2025-05-12 10:57:23</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-04 09:34:06</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>7153</v>
+        <v>5435</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3647,7 +3646,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3660,7 +3659,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3672,41 +3671,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251485</v>
+        <v>244354</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D45" t="n">
-        <v>78.81967213114754</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-04 09:34:06</t>
+          <t>2025-05-12 12:36:12</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:06</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-04 10:01:06</t>
+          <t>2025-05-12 13:08:42</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:56</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4808</v>
+        <v>4310</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3719,7 +3718,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3732,7 +3731,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3744,41 +3743,41 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>244023</v>
+        <v>250819</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>34.5</v>
       </c>
       <c r="D46" t="n">
-        <v>16.34426229508197</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:56</t>
+          <t>2025-05-12 14:27:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-04 11:46:56</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-04 11:46:56</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-04 12:03:16</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>997</v>
+        <v>8527</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3804,7 +3803,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3816,41 +3815,41 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251283</v>
+        <v>251247</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.36065573770492</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-04 12:03:16</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-04 12:28:16</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-04 12:28:16</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-04 12:40:38</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>754</v>
+        <v>26934</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3888,41 +3887,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251260</v>
+        <v>251795</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D48" t="n">
-        <v>153.5901639344262</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-04 12:40:38</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-04 13:05:38</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-04 13:05:38</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-05 07:39:13</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>9369</v>
+        <v>18739</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3960,41 +3959,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251249</v>
+        <v>245275</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>46.5</v>
       </c>
       <c r="D49" t="n">
-        <v>78</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-05 07:39:13</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-05 08:04:13</t>
+          <t>2025-05-15 09:14:31</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-05 08:04:13</t>
+          <t>2025-05-15 09:14:31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-05 09:22:13</t>
+          <t>2025-05-16 08:36:14</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>4758</v>
+        <v>24294</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4003,11 +4002,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4020,7 +4019,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4032,41 +4031,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251374</v>
+        <v>251547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>448.2459016393443</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-06-05 09:22:13</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:13</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-06-05 09:49:13</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-06-06 09:17:28</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>27343</v>
+        <v>13129</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4075,70 +4074,75 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251455</v>
+        <v>250759</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>82.765625</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>5297</v>
+        <v>8398</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4147,17 +4151,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N51" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4165,57 +4169,57 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251391</v>
+        <v>250894</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>91.640625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5865</v>
+        <v>44262</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4224,75 +4228,73 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N52" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251395</v>
+        <v>251062</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>35.34375</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 13:38:15</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2262</v>
+        <v>22624</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4301,7 +4303,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -4310,66 +4312,61 @@
       <c r="M53" t="n">
         <v>70</v>
       </c>
-      <c r="N53" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251371</v>
+        <v>250641</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 13:38:15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 13:53:15</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 13:53:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:05:18</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4382,73 +4379,66 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251396</v>
+        <v>251061</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>35.34375</v>
+        <v>337.9859154929578</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:05:18</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 07:20:18</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 07:20:18</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 12:58:17</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2262</v>
+        <v>23997</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4457,7 +4447,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -4466,66 +4456,61 @@
       <c r="M55" t="n">
         <v>70</v>
       </c>
-      <c r="N55" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251548</v>
+        <v>244023</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>206.90625</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 12:58:17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 13:13:17</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 13:13:17</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 13:27:20</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>13242</v>
+        <v>997</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4538,71 +4523,66 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
       </c>
-      <c r="N56" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250923</v>
+        <v>235572</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>109.46875</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 13:27:20</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 13:44:20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 13:44:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 08:04:35</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7006</v>
+        <v>9958</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4611,75 +4591,70 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251477</v>
+        <v>251561</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>468.734375</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 08:04:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 08:19:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 08:19:35</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:36:08</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>29999</v>
+        <v>5435</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4688,75 +4663,70 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
-      </c>
-      <c r="N58" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>243569</v>
+        <v>251809</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>40.640625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:36:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-14 09:53:08</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-14 09:53:08</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-14 11:55:24</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2601</v>
+        <v>8681</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4765,14 +4735,14 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4782,7 +4752,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4794,41 +4764,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251397</v>
+        <v>251475</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>84.921875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-14 11:55:24</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:50</t>
+          <t>2025-05-14 12:10:24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-09 12:16:50</t>
+          <t>2025-05-14 12:10:24</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:45</t>
+          <t>2025-05-14 14:12:40</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4841,7 +4811,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4854,7 +4824,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4870,33 +4840,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>42.453125</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:41:45</t>
+          <t>2025-05-14 14:12:40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:45</t>
+          <t>2025-05-14 14:29:40</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 13:56:45</t>
+          <t>2025-05-14 14:29:40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:13</t>
+          <t>2025-05-15 07:07:56</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4938,41 +4908,41 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251561</v>
+        <v>251466</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>84.921875</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:13</t>
+          <t>2025-05-15 07:07:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:13</t>
+          <t>2025-05-15 07:22:56</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:13</t>
+          <t>2025-05-15 07:22:56</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:08</t>
+          <t>2025-05-15 08:41:21</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5435</v>
+        <v>5567</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4985,7 +4955,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -4998,7 +4968,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
@@ -5010,41 +4980,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251546</v>
+        <v>251557</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>101.03125</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:08</t>
+          <t>2025-05-15 08:41:21</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:38:08</t>
+          <t>2025-05-15 08:58:21</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:38:08</t>
+          <t>2025-05-15 08:58:21</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:10</t>
+          <t>2025-05-15 10:32:47</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6466</v>
+        <v>6705</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5057,7 +5027,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5070,7 +5040,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5082,41 +5052,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251062</v>
+        <v>251465</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>353.5</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:19:10</t>
+          <t>2025-05-15 10:32:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:10</t>
+          <t>2025-05-15 10:47:47</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:10</t>
+          <t>2025-05-15 10:47:47</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:40</t>
+          <t>2025-05-15 12:15:28</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>22624</v>
+        <v>6226</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5125,11 +5095,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5142,7 +5112,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
@@ -5154,7 +5124,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251245</v>
+        <v>251455</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5162,33 +5132,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>11.78125</v>
+        <v>82.765625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:40</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:40</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:40</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:27</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>754</v>
+        <v>5297</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5197,36 +5167,41 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251463</v>
+        <v>251391</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5234,33 +5209,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>108.859375</v>
+        <v>91.640625</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:27</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:27</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:27</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:18</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6967</v>
+        <v>5865</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5273,32 +5248,37 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251462</v>
+        <v>251395</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5306,33 +5286,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>97.28125</v>
+        <v>35.34375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:04:18</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:18</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 11:23:18</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:35</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5345,32 +5325,37 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251562</v>
+        <v>251371</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5378,33 +5363,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>127.21875</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 13:00:35</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:35</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:35</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 07:22:48</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8142</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5417,32 +5402,39 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251251</v>
+        <v>251396</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5450,33 +5442,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>247.8125</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 07:22:48</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:48</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 07:45:48</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:53:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>15860</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5485,7 +5477,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -5494,27 +5486,32 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251346</v>
+        <v>251548</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5525,30 +5522,30 @@
         <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>60.296875</v>
+        <v>206.90625</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-14 11:53:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 13:12:55</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3859</v>
+        <v>13242</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5561,32 +5558,37 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>245275</v>
+        <v>250923</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5594,33 +5596,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>379.59375</v>
+        <v>109.46875</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:12:55</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:39:55</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 13:39:55</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-15 11:59:30</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>24294</v>
+        <v>7006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5629,70 +5631,75 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>244354</v>
+        <v>251477</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>62.46376811594203</v>
+        <v>468.734375</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:27</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4310</v>
+        <v>29999</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5701,70 +5708,75 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251259</v>
+        <v>243569</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>72.46376811594203</v>
+        <v>40.640625</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:27</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:27</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:27:27</t>
+          <t>2025-05-09 11:06:12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:55</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>2601</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5773,14 +5785,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5790,7 +5802,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5802,41 +5814,41 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245350</v>
+        <v>251546</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>405.3623188405797</v>
+        <v>101.03125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:55</t>
+          <t>2025-05-09 11:46:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:55</t>
+          <t>2025-05-09 12:20:50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:55</t>
+          <t>2025-05-09 12:20:50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:17</t>
+          <t>2025-05-09 14:01:52</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>27970</v>
+        <v>6466</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5845,11 +5857,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5862,7 +5874,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5874,41 +5886,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>250641</v>
+        <v>251251</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>74.14492753623189</v>
+        <v>247.8125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 09:55:17</t>
+          <t>2025-05-09 14:01:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 10:40:17</t>
+          <t>2025-05-09 14:18:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 10:40:17</t>
+          <t>2025-05-09 14:18:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:26</t>
+          <t>2025-05-12 10:26:41</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5116</v>
+        <v>15860</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5917,7 +5929,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -5934,7 +5946,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5946,41 +5958,41 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251246</v>
+        <v>245350</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>173.9420289855072</v>
+        <v>437.03125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 11:54:26</t>
+          <t>2025-05-12 10:26:41</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-05-12 10:49:41</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-05-12 10:49:41</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:22</t>
+          <t>2025-05-13 10:06:43</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>12002</v>
+        <v>27970</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -5989,11 +6001,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6006,7 +6018,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6018,41 +6030,41 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251252</v>
+        <v>251346</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>218.5942028985507</v>
+        <v>60.296875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:22</t>
+          <t>2025-05-13 10:06:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:22</t>
+          <t>2025-05-13 10:25:43</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:22</t>
+          <t>2025-05-13 10:25:43</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 11:16:58</t>
+          <t>2025-05-13 11:26:00</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15083</v>
+        <v>3859</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6061,11 +6073,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6078,7 +6090,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6090,74 +6102,67 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251706</v>
+        <v>251246</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>50.79365079365079</v>
+        <v>187.53125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:26:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:45:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:45:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-13 14:52:32</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3200</v>
+        <v>12002</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6169,41 +6174,41 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251050</v>
+        <v>251283</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>11.78125</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 14:52:32</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:07:32</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:07:32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:19:19</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6212,75 +6217,70 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
       </c>
-      <c r="N79" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251054</v>
+        <v>251245</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>11.78125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 07:19:19</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:34:19</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:34:19</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:46:06</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6289,75 +6289,70 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="N80" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251081</v>
+        <v>251463</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>42.42253521126761</v>
+        <v>108.859375</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 07:46:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-14 08:05:06</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-14 08:05:06</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-14 09:53:58</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3012</v>
+        <v>6967</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6366,77 +6361,70 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251109</v>
+        <v>251743</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>266.5915492957747</v>
+        <v>168.375</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-14 09:53:58</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-14 10:08:58</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-14 10:08:58</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-14 12:57:20</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>18928</v>
+        <v>10776</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6445,11 +6433,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6462,7 +6450,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
@@ -6474,41 +6462,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251284</v>
+        <v>251562</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>297.0909090909091</v>
+        <v>127.21875</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 12:57:20</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 13:16:20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 13:16:20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-15 07:23:33</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>16340</v>
+        <v>8142</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6517,75 +6505,70 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
       </c>
-      <c r="N83" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251520</v>
+        <v>251462</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>30.5</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>297.0909090909091</v>
+        <v>97.28125</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-15 07:23:33</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-15 07:38:33</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-09 13:08:05</t>
+          <t>2025-05-15 07:38:33</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-15 09:15:50</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>16340</v>
+        <v>6226</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6594,11 +6577,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6611,7 +6594,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6623,67 +6606,74 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>250819</v>
+        <v>251706</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>155.0363636363636</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:10</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:43</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8527</v>
+        <v>3200</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6695,41 +6685,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251247</v>
+        <v>251164</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>55</v>
       </c>
       <c r="D86" t="n">
-        <v>489.7090909090909</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:43</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:13</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:13</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>26934</v>
+        <v>10000</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6738,7 +6728,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -6747,61 +6737,66 @@
       <c r="M86" t="n">
         <v>70</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
+      <c r="N86" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251795</v>
+        <v>251456</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>30.5</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
-        <v>340.7090909090909</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:55</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:25</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:23:25</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 12:04:08</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>18739</v>
+        <v>8999</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6810,31 +6805,36 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
+      <c r="N87" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251467</v>
+        <v>251252</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>102.0655737704918</v>
+        <v>218.5942028985507</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:03</t>
+          <t>2025-05-12 11:23:35</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6226</v>
+        <v>15083</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,11 +558,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -583,45 +583,48 @@
       </c>
       <c r="S2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251456</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>183.9672131147541</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:24:03</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:03</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:03</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:01</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>8999</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -634,69 +637,74 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-2.411475409837963</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251519</v>
+        <v>251742</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>215.983606557377</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:01</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:01</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:01</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:00</t>
+          <t>2025-05-08 12:32:22</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13175</v>
+        <v>8226</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -709,66 +717,74 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-1.52248406193287</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-1.52248406193287</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251846</v>
+        <v>251840</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>186.7540983606557</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:00</t>
+          <t>2025-05-08 12:32:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:00</t>
+          <t>2025-05-08 12:57:22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:00</t>
+          <t>2025-05-08 12:57:22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:46</t>
+          <t>2025-05-08 14:31:02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11392</v>
+        <v>5714</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -781,62 +797,70 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.6048952641203703</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.6048952641203703</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251464</v>
+        <v>251580</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
         <v>117.2622950819672</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:25:46</t>
+          <t>2025-05-08 14:31:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:46</t>
+          <t>2025-05-08 14:56:02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:54:46</t>
+          <t>2025-05-08 14:56:02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 14:52:01</t>
+          <t>2025-05-09 08:53:18</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -866,7 +890,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -874,45 +898,48 @@
       </c>
       <c r="S6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251259</v>
+        <v>251561</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>81.9672131147541</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 14:52:01</t>
+          <t>2025-05-09 08:53:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:01</t>
+          <t>2025-05-09 09:18:18</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:01</t>
+          <t>2025-05-09 09:18:18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:00</t>
+          <t>2025-05-09 10:47:24</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5000</v>
+        <v>5435</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -925,7 +952,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -938,7 +965,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -946,45 +973,48 @@
       </c>
       <c r="S7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251374</v>
+        <v>251743</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>448.2459016393443</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:00</t>
+          <t>2025-05-09 10:47:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:18:00</t>
+          <t>2025-05-09 11:12:24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 09:18:00</t>
+          <t>2025-05-09 11:12:24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-14 08:46:14</t>
+          <t>2025-05-09 14:09:03</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>27343</v>
+        <v>10776</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,11 +1023,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1010,7 +1040,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1018,45 +1048,48 @@
       </c>
       <c r="S8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251229</v>
+        <v>251566</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>307.1967213114754</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-14 08:46:14</t>
+          <t>2025-05-09 14:09:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:13:14</t>
+          <t>2025-05-09 14:29:03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-14 09:13:14</t>
+          <t>2025-05-09 14:29:03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:26</t>
+          <t>2025-05-12 08:22:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>18739</v>
+        <v>6889</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1065,31 +1098,24 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1097,45 +1123,48 @@
       </c>
       <c r="S9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251260</v>
+        <v>251424</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>153.5901639344262</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:26</t>
+          <t>2025-05-12 08:22:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:45:26</t>
+          <t>2025-05-12 08:42:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-14 14:45:26</t>
+          <t>2025-05-12 08:42:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-15 09:19:01</t>
+          <t>2025-05-12 11:20:23</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9369</v>
+        <v>9662</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1144,11 +1173,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1161,7 +1190,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1169,45 +1198,48 @@
       </c>
       <c r="S10" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251249</v>
+        <v>244355</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:19:01</t>
+          <t>2025-05-12 11:20:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:44:01</t>
+          <t>2025-05-12 11:40:23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-15 09:44:01</t>
+          <t>2025-05-12 11:40:23</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-15 11:02:01</t>
+          <t>2025-05-12 12:51:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4758</v>
+        <v>4310</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1216,11 +1248,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1233,7 +1265,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
@@ -1241,45 +1273,48 @@
       </c>
       <c r="S11" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251987</v>
+        <v>251761</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>3451.245901639344</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:02:01</t>
+          <t>2025-05-12 12:51:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:01</t>
+          <t>2025-05-12 13:11:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:01</t>
+          <t>2025-05-12 13:11:02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-26 13:13:16</t>
+          <t>2025-05-13 08:48:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>210526</v>
+        <v>13279</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1288,14 +1323,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1305,7 +1340,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1313,45 +1348,48 @@
       </c>
       <c r="S12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>245090</v>
+        <v>251846</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>8470.786885245901</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-26 13:13:16</t>
+          <t>2025-05-13 08:48:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-26 13:40:16</t>
+          <t>2025-05-13 09:18:44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-26 13:40:16</t>
+          <t>2025-05-13 09:18:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-19 10:51:03</t>
+          <t>2025-05-13 12:25:29</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>516718</v>
+        <v>11392</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1360,14 +1398,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1377,7 +1415,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1385,11 +1423,14 @@
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251742</v>
+        <v>251467</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1397,33 +1438,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>134.8524590163935</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:25:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 12:45:29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 12:45:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 14:27:33</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8226</v>
+        <v>6226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1436,71 +1477,69 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="N14" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1513,13 +1552,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1527,57 +1566,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251485</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>78.81967213114754</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:20</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4808</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1595,11 +1637,16 @@
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1607,49 +1654,52 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251505</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>233.6885245901639</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:20</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:42:20</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:42:20</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:36:01</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>14255</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1662,66 +1712,74 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="N17" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="T17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>244204</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>56.91803278688525</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 09:36:01</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:01</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:01:01</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:57:57</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1739,61 +1797,71 @@
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251594</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>106</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 10:57:57</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:57</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:57</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:03:57</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6466</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1806,66 +1874,74 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251580</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>117.2622950819672</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 13:03:57</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 13:23:57</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 13:23:57</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7153</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1883,61 +1959,69 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251566</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>112.9344262295082</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:41:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6889</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1946,70 +2030,78 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251424</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>158.3934426229508</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:54:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:54:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:32</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9662</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2018,20 +2110,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2039,49 +2136,52 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>244355</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>70.65573770491804</v>
+        <v>175.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:32</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:52:32</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 12:52:32</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:03:11</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4310</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2094,11 +2194,14 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -2107,7 +2210,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2115,45 +2218,48 @@
       </c>
       <c r="S23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251761</v>
+        <v>251519</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>217.6885245901639</v>
+        <v>205.859375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:03:11</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:11</t>
+          <t>2025-05-09 14:33:32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 14:23:11</t>
+          <t>2025-05-09 14:33:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:53</t>
+          <t>2025-05-12 09:59:24</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13279</v>
+        <v>13175</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2166,7 +2272,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2179,7 +2285,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2187,45 +2293,48 @@
       </c>
       <c r="S24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251626</v>
+        <v>251340</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>204.9180327868852</v>
+        <v>512.5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:00:53</t>
+          <t>2025-05-12 09:59:24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:53</t>
+          <t>2025-05-12 10:29:24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:53</t>
+          <t>2025-05-12 10:29:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 13:50:48</t>
+          <t>2025-05-13 11:01:54</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>12500</v>
+        <v>32800</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2234,14 +2343,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2251,7 +2360,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
@@ -2259,45 +2368,48 @@
       </c>
       <c r="S25" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251252</v>
+        <v>245089</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>218.5942028985507</v>
+        <v>1916.640625</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 11:01:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 11:20:54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 11:20:54</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-19 11:17:32</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15083</v>
+        <v>122665</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2306,14 +2418,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2323,7 +2435,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
@@ -2331,45 +2443,48 @@
       </c>
       <c r="S26" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251225</v>
+        <v>251245</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>11.78125</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-19 11:17:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 11:51:32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 11:51:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 12:03:19</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2378,75 +2493,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251227</v>
+        <v>250641</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>79.9375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-19 12:03:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 12:18:19</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 12:18:19</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 13:38:15</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2455,75 +2568,73 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251782</v>
+        <v>251485</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>17</v>
       </c>
       <c r="D29" t="n">
-        <v>170.0422535211268</v>
+        <v>75.125</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-19 13:38:15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-19 13:55:15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-19 13:55:15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-20 07:10:23</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12073</v>
+        <v>4808</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2532,75 +2643,73 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>250670</v>
+        <v>251546</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>22.01408450704225</v>
+        <v>101.03125</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-20 07:10:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-20 07:25:23</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-20 07:25:23</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:03</t>
+          <t>2025-05-20 09:06:25</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1563</v>
+        <v>6466</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2609,14 +2718,14 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2626,7 +2735,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
@@ -2634,45 +2743,48 @@
       </c>
       <c r="S30" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251651</v>
+        <v>251463</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>659.5774647887324</v>
+        <v>108.859375</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:20:03</t>
+          <t>2025-05-20 09:06:25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:03</t>
+          <t>2025-05-20 09:23:25</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 08:37:03</t>
+          <t>2025-05-20 09:23:25</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:38</t>
+          <t>2025-05-20 11:12:16</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>46830</v>
+        <v>6967</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2681,17 +2793,14 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2701,7 +2810,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2709,45 +2818,48 @@
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245089</v>
+        <v>251564</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>17</v>
       </c>
       <c r="D32" t="n">
-        <v>1727.676056338028</v>
+        <v>42.453125</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:36:38</t>
+          <t>2025-05-20 11:12:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:38</t>
+          <t>2025-05-20 11:29:16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 11:53:38</t>
+          <t>2025-05-20 11:29:16</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-16 08:41:18</t>
+          <t>2025-05-20 12:11:44</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>122665</v>
+        <v>2717</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2756,14 +2868,14 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2773,7 +2885,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2781,45 +2893,48 @@
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251340</v>
+        <v>251462</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D33" t="n">
-        <v>461.9718309859155</v>
+        <v>97.28125</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-16 08:41:18</t>
+          <t>2025-05-20 12:11:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:18</t>
+          <t>2025-05-20 12:28:44</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-16 09:00:18</t>
+          <t>2025-05-20 12:28:44</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-19 08:42:16</t>
+          <t>2025-05-20 14:06:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>32800</v>
+        <v>6226</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2828,14 +2943,14 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2845,7 +2960,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2853,45 +2968,48 @@
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>245623</v>
+        <v>251562</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0985915492957</v>
+        <v>127.21875</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-19 08:42:16</t>
+          <t>2025-05-20 14:06:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:16</t>
+          <t>2025-05-20 14:21:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:16</t>
+          <t>2025-05-20 14:21:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:22</t>
+          <t>2025-05-21 08:28:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>26419</v>
+        <v>8142</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2900,14 +3018,14 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
         <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2917,7 +3035,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -2925,45 +3043,48 @@
       </c>
       <c r="S34" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251750</v>
+        <v>251251</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>54.80281690140845</v>
+        <v>247.8125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:22</t>
+          <t>2025-05-21 08:28:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:41:22</t>
+          <t>2025-05-21 08:51:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-20 07:41:22</t>
+          <t>2025-05-21 08:51:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-20 08:36:10</t>
+          <t>2025-05-21 12:59:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3891</v>
+        <v>15860</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2972,14 +3093,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2989,7 +3110,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
@@ -2997,45 +3118,48 @@
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243335</v>
+        <v>245275</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
-        <v>464.8450704225352</v>
+        <v>379.59375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-20 08:36:10</t>
+          <t>2025-05-21 12:59:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-20 08:53:10</t>
+          <t>2025-05-21 13:30:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-20 08:53:10</t>
+          <t>2025-05-21 13:30:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-21 08:38:01</t>
+          <t>2025-05-22 11:49:38</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>33004</v>
+        <v>24294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3044,14 +3168,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M36" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3061,7 +3185,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
@@ -3069,11 +3193,14 @@
       </c>
       <c r="S36" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3081,10 +3208,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3093,21 +3220,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:07:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3120,13 +3247,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="n">
-        <v>39747</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3134,23 +3263,26 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.40932120501157</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251054</v>
+        <v>251050</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3158,29 +3290,29 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 09:49:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3219,15 +3351,18 @@
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.49612676056713</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.49612676056713</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251081</v>
+        <v>251054</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3235,33 +3370,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 11:54:25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3274,15 +3409,13 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N39" t="n">
+        <v>39747</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3290,18 +3423,21 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.520432316122685</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.520432316122685</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3314,14 +3450,14 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D40" t="n">
         <v>266.5915492957747</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:29:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3374,6 +3510,9 @@
       </c>
       <c r="S40" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3447,21 +3586,24 @@
       <c r="S41" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="T41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251284</v>
+        <v>251626</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>297.0909090909091</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3470,21 +3612,21 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:40:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:04:55</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>16340</v>
+        <v>12500</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3493,75 +3635,73 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251373</v>
+        <v>251594</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34.5</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>310.8</v>
+        <v>106</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:04:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 11:31:55</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 11:31:55</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-05-09 13:17:55</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>17094</v>
+        <v>6466</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3574,7 +3714,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3587,7 +3727,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3595,45 +3735,48 @@
       </c>
       <c r="S43" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251397</v>
+        <v>244204</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>98.81818181818181</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:22:53</t>
+          <t>2025-05-09 13:17:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-05-09 13:42:55</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 10:57:23</t>
+          <t>2025-05-09 13:42:55</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-05-09 14:39:50</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5435</v>
+        <v>3472</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3646,7 +3789,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3659,7 +3802,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
@@ -3667,45 +3810,48 @@
       </c>
       <c r="S44" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244354</v>
+        <v>251464</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>32.5</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>78.36363636363636</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:36:12</t>
+          <t>2025-05-09 14:39:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:04:50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:08:42</t>
+          <t>2025-05-12 07:04:50</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-12 09:02:05</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3731,7 +3877,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
@@ -3739,45 +3885,48 @@
       </c>
       <c r="S45" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>250819</v>
+        <v>251283</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>155.0363636363636</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:27:04</t>
+          <t>2025-05-12 09:02:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-12 09:31:05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-12 09:31:05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-12 09:43:27</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>8527</v>
+        <v>754</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3786,7 +3935,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -3803,7 +3952,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3811,45 +3960,48 @@
       </c>
       <c r="S46" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251247</v>
+        <v>244023</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30.5</v>
+        <v>25</v>
       </c>
       <c r="D47" t="n">
-        <v>489.7090909090909</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-12 09:43:27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-12 10:08:27</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-12 10:08:27</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-12 10:24:48</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>26934</v>
+        <v>997</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3858,7 +4010,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -3875,7 +4027,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
@@ -3883,45 +4035,48 @@
       </c>
       <c r="S47" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251795</v>
+        <v>251346</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30.5</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>340.7090909090909</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-12 10:24:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-12 10:53:48</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-12 10:53:48</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-12 11:57:03</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>18739</v>
+        <v>3859</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3930,11 +4085,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -3947,7 +4102,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
@@ -3955,45 +4110,48 @@
       </c>
       <c r="S48" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>245275</v>
+        <v>251374</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46.5</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>441.7090909090909</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-12 11:57:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-15 09:14:31</t>
+          <t>2025-05-12 12:24:03</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-15 09:14:31</t>
+          <t>2025-05-12 12:24:03</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-16 08:36:14</t>
+          <t>2025-05-13 11:52:18</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>24294</v>
+        <v>27343</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4002,11 +4160,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4019,7 +4177,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
@@ -4027,45 +4185,48 @@
       </c>
       <c r="S49" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251547</v>
+        <v>251260</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>184.9154929577465</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 11:52:18</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 12:19:18</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-13 12:19:18</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 14:52:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13129</v>
+        <v>9369</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4074,75 +4235,73 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>250759</v>
+        <v>251249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>118.2816901408451</v>
+        <v>78</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-13 14:52:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 07:17:54</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 07:17:54</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 08:35:54</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>8398</v>
+        <v>4758</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4151,75 +4310,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>250894</v>
+        <v>251987</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D52" t="n">
-        <v>623.4084507042254</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-14 08:35:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 09:15:54</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-14 09:15:54</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-23 10:47:08</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>44262</v>
+        <v>210526</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4228,18 +4385,15 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="N52" t="n">
-        <v>39755</v>
-      </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
@@ -4248,7 +4402,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4256,45 +4410,48 @@
       </c>
       <c r="S52" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251062</v>
+        <v>245090</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" t="n">
-        <v>318.6478873239437</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-23 10:47:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-23 11:14:08</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-23 11:14:08</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 13:38:15</t>
+          <t>2025-06-18 08:24:56</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>22624</v>
+        <v>516718</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4303,14 +4460,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4320,7 +4477,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4328,45 +4485,48 @@
       </c>
       <c r="S53" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>250641</v>
+        <v>251284</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D54" t="n">
-        <v>72.05633802816901</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:38:15</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:15</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:15</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:18</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>5116</v>
+        <v>16340</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4375,70 +4535,78 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
+      <c r="N54" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251061</v>
+        <v>251397</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>38.5</v>
       </c>
       <c r="D55" t="n">
-        <v>337.9859154929578</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:18</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:18</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:20:18</t>
+          <t>2025-05-09 13:16:05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 12:58:17</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>23997</v>
+        <v>5435</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4447,11 +4615,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4464,7 +4632,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4472,45 +4640,48 @@
       </c>
       <c r="S55" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244023</v>
+        <v>244354</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D56" t="n">
-        <v>14.04225352112676</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 12:58:17</t>
+          <t>2025-05-09 14:54:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:13:17</t>
+          <t>2025-05-12 07:27:24</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:13:17</t>
+          <t>2025-05-12 07:27:24</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:20</t>
+          <t>2025-05-12 08:45:46</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>997</v>
+        <v>4310</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4523,7 +4694,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4536,7 +4707,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4544,45 +4715,48 @@
       </c>
       <c r="S56" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>235572</v>
+        <v>251373</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D57" t="n">
-        <v>140.2535211267606</v>
+        <v>310.8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:20</t>
+          <t>2025-05-12 08:45:46</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:20</t>
+          <t>2025-05-12 09:18:16</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 13:44:20</t>
+          <t>2025-05-12 09:18:16</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:35</t>
+          <t>2025-05-12 14:29:04</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>9958</v>
+        <v>17094</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4591,7 +4765,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -4608,7 +4782,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4616,45 +4790,48 @@
       </c>
       <c r="S57" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251561</v>
+        <v>250819</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D58" t="n">
-        <v>76.54929577464789</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:04:35</t>
+          <t>2025-05-12 14:29:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:35</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:35</t>
+          <t>2025-05-13 07:01:34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:08</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5435</v>
+        <v>8527</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4667,7 +4844,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4680,7 +4857,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4688,45 +4865,48 @@
       </c>
       <c r="S58" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251809</v>
+        <v>251247</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>30.5</v>
       </c>
       <c r="D59" t="n">
-        <v>122.2676056338028</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:36:08</t>
+          <t>2025-05-13 09:36:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:08</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:08</t>
+          <t>2025-05-13 10:07:06</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 11:55:24</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8681</v>
+        <v>26934</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4735,11 +4915,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4752,7 +4932,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
@@ -4760,45 +4940,48 @@
       </c>
       <c r="S59" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251475</v>
+        <v>251795</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>30.5</v>
       </c>
       <c r="D60" t="n">
-        <v>122.2676056338028</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:55:24</t>
+          <t>2025-05-14 10:16:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:10:24</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:10:24</t>
+          <t>2025-05-14 10:47:19</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-14 14:12:40</t>
+          <t>2025-05-15 08:28:01</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8681</v>
+        <v>18739</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4807,11 +4990,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4824,7 +5007,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -4832,71 +5015,81 @@
       </c>
       <c r="S60" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251564</v>
+        <v>251706</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>38.26760563380282</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:12:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:29:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-14 14:29:40</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:56</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2717</v>
+        <v>3200</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -4904,11 +5097,14 @@
       </c>
       <c r="S61" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251466</v>
+        <v>250759</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4916,33 +5112,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>78.40845070422536</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-15 07:07:56</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-15 07:22:56</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-15 07:22:56</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-15 08:41:21</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5567</v>
+        <v>8398</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4951,36 +5147,44 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>0</v>
+        <v>-0.3870011737037037</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251557</v>
+        <v>250670</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4988,33 +5192,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>94.43661971830986</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-15 08:41:21</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-15 08:58:21</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-15 08:58:21</t>
+          <t>2025-05-08 09:32:16</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:47</t>
+          <t>2025-05-08 09:54:17</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>6705</v>
+        <v>1563</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5023,36 +5227,39 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
+        <v>4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>76</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>2</v>
-      </c>
-      <c r="M63" t="n">
-        <v>70</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251465</v>
+        <v>251547</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5060,33 +5267,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>87.69014084507042</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:47</t>
+          <t>2025-05-08 09:54:17</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-15 10:47:47</t>
+          <t>2025-05-08 10:24:17</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-15 10:47:47</t>
+          <t>2025-05-08 10:24:17</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-15 12:15:28</t>
+          <t>2025-05-08 13:29:12</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6226</v>
+        <v>13129</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5099,66 +5306,74 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
+        <v>-1.561952269166667</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>0</v>
+        <v>-1.561952269166667</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:29:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 14:01:12</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:24:37</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5167,75 +5382,76 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
+        <v>5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>76</v>
+      </c>
+      <c r="N65" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
         <v>4</v>
-      </c>
-      <c r="M65" t="n">
-        <v>70</v>
-      </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R65" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251391</v>
+        <v>251505</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
-        <v>91.640625</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:24:37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:54:37</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:54:37</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 12:15:23</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5865</v>
+        <v>14255</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5253,66 +5469,64 @@
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251395</v>
+        <v>251229</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>35.34375</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 12:15:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 12:32:23</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 12:32:23</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-13 08:56:19</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5321,7 +5535,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5330,8 +5544,10 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5339,57 +5555,60 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251371</v>
+        <v>251246</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-13 08:56:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 09:11:19</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 09:11:19</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 12:00:21</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5398,77 +5617,73 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251396</v>
+        <v>235572</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>35.34375</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 12:00:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 12:17:21</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 12:17:21</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2262</v>
+        <v>9958</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5477,75 +5692,73 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251548</v>
+        <v>251475</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>206.90625</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-13 14:37:37</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 14:54:37</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-13 14:54:37</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-14 08:56:53</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>13242</v>
+        <v>8681</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5563,66 +5776,64 @@
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="N70" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>250923</v>
+        <v>251809</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>109.46875</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-14 08:56:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-14 09:11:53</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-14 09:11:53</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 11:14:09</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7006</v>
+        <v>8681</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5631,75 +5842,73 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
-      </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251477</v>
+        <v>245350</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D72" t="n">
-        <v>468.734375</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-14 11:14:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 11:41:09</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-14 11:41:09</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-15 10:15:05</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>29999</v>
+        <v>27970</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5708,75 +5917,73 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>243569</v>
+        <v>251259</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>40.640625</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-15 10:15:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-15 10:32:05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:06:12</t>
+          <t>2025-05-15 10:32:05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-15 11:42:31</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2601</v>
+        <v>5000</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5785,14 +5992,14 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5802,7 +6009,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -5810,45 +6017,48 @@
       </c>
       <c r="S73" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251546</v>
+        <v>251466</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D74" t="n">
-        <v>101.03125</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:46:50</t>
+          <t>2025-05-15 11:42:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:20:50</t>
+          <t>2025-05-15 12:09:31</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:20:50</t>
+          <t>2025-05-15 12:09:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:52</t>
+          <t>2025-05-15 13:27:55</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6466</v>
+        <v>5567</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5861,7 +6071,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5874,7 +6084,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -5882,45 +6092,48 @@
       </c>
       <c r="S74" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251251</v>
+        <v>251465</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>247.8125</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:52</t>
+          <t>2025-05-15 13:27:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:52</t>
+          <t>2025-05-15 13:44:55</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:52</t>
+          <t>2025-05-15 13:44:55</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:41</t>
+          <t>2025-05-16 07:12:37</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>15860</v>
+        <v>6226</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5929,11 +6142,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -5946,7 +6159,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -5954,45 +6167,48 @@
       </c>
       <c r="S75" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>245350</v>
+        <v>251557</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>437.03125</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:41</t>
+          <t>2025-05-16 07:12:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:41</t>
+          <t>2025-05-16 07:27:37</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:41</t>
+          <t>2025-05-16 07:27:37</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 10:06:43</t>
+          <t>2025-05-16 09:02:03</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>27970</v>
+        <v>6705</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6001,11 +6217,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6018,7 +6234,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6026,45 +6242,48 @@
       </c>
       <c r="S76" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251346</v>
+        <v>251062</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>60.296875</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 10:06:43</t>
+          <t>2025-05-16 09:02:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:43</t>
+          <t>2025-05-16 09:25:03</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:43</t>
+          <t>2025-05-16 09:25:03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 11:26:00</t>
+          <t>2025-05-16 14:43:42</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3859</v>
+        <v>22624</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6073,11 +6292,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6090,7 +6309,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6098,45 +6317,48 @@
       </c>
       <c r="S77" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251246</v>
+        <v>251164</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>187.53125</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 11:26:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 11:45:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-13 14:52:32</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>12002</v>
+        <v>10000</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6145,7 +6367,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -6154,61 +6376,69 @@
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
+      <c r="N78" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251283</v>
+        <v>251061</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>11.78125</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-13 14:52:32</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:32</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:07:32</t>
+          <t>2025-05-08 11:54:04</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:19</t>
+          <t>2025-05-09 12:03:48</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>754</v>
+        <v>23997</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6234,7 +6464,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6242,45 +6472,48 @@
       </c>
       <c r="S79" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251245</v>
+        <v>251227</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>11.78125</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:19:19</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:19</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:19</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:06</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6289,70 +6522,78 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-2.513194444444444</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251463</v>
+        <v>251782</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>108.859375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-14 07:46:06</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:06</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-14 08:05:06</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:58</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>6967</v>
+        <v>12073</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6361,70 +6602,78 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251743</v>
+        <v>251225</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>168.375</v>
+        <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-14 09:53:58</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:58</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-14 10:08:58</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-14 12:57:20</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>10776</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6433,70 +6682,78 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N82" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-1.321557120497685</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>0</v>
+        <v>-1.321557120497685</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251562</v>
+        <v>251651</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>127.21875</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-14 12:57:20</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-14 13:16:20</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-14 13:16:20</t>
+          <t>2025-05-09 08:00:02</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-15 07:23:33</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>8142</v>
+        <v>46830</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6505,14 +6762,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N83" t="n">
+        <v>39755</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6522,7 +6782,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
@@ -6530,45 +6790,48 @@
       </c>
       <c r="S83" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251462</v>
+        <v>243569</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>97.28125</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-15 07:23:33</t>
+          <t>2025-05-12 10:59:37</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-15 07:38:33</t>
+          <t>2025-05-12 11:18:37</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-15 07:38:33</t>
+          <t>2025-05-12 11:18:37</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-15 09:15:50</t>
+          <t>2025-05-12 11:55:15</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6226</v>
+        <v>2601</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6577,103 +6840,99 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>76</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
         <v>2</v>
-      </c>
-      <c r="M84" t="n">
-        <v>70</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251706</v>
+        <v>245623</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
-        <v>50.79365079365079</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 11:55:15</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 12:27:15</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 12:27:15</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-13 10:39:21</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3200</v>
+        <v>26419</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6681,45 +6940,48 @@
       </c>
       <c r="S85" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251164</v>
+        <v>243335</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>204.0816326530612</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 10:39:21</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 10:58:21</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-13 10:58:21</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 10:43:11</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>10000</v>
+        <v>33004</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6728,75 +6990,73 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
-      </c>
-      <c r="N86" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251456</v>
+        <v>251750</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>183.6530612244898</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 10:43:11</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 11:00:11</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 11:00:11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-14 11:55:00</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>8999</v>
+        <v>3891</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6805,36 +7065,34 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
         <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
-      </c>
-      <c r="N87" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251252</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>218.5942028985507</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 11:23:35</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15083</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,39 +558,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251456</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -601,30 +606,30 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>147.5245901639344</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8999</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,7 +656,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39746</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -659,10 +664,10 @@
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-2.411475409837963</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -670,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251742</v>
+        <v>251561</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -678,33 +683,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>134.8524590163935</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:22</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8226</v>
+        <v>5435</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -717,40 +722,35 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.52248406193287</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.52248406193287</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251840</v>
+        <v>244204</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -761,30 +761,30 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>93.67213114754098</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:22</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:57:22</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:57:22</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:02</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5714</v>
+        <v>3472</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -797,40 +797,35 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.6048952641203703</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6048952641203703</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251580</v>
+        <v>251566</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -838,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>117.2622950819672</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:02</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:02</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:56:02</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:53:18</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7153</v>
+        <v>6889</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -890,22 +885,22 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0</v>
+        <v>-2.380191256828704</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251561</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,33 +908,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>89.09836065573771</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:53:18</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:18</t>
+          <t>2025-05-09 09:37:28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:18</t>
+          <t>2025-05-09 09:37:28</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:24</t>
+          <t>2025-05-09 12:41:26</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5435</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -952,11 +947,14 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
+      <c r="N7" t="n">
+        <v>39755</v>
+      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -965,7 +963,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -975,12 +973,12 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251743</v>
+        <v>251519</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -988,33 +986,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>176.655737704918</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:47:24</t>
+          <t>2025-05-09 12:41:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:24</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:24</t>
+          <t>2025-05-09 13:01:26</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:03</t>
+          <t>2025-05-12 08:37:25</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10776</v>
+        <v>13175</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1027,7 +1025,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1040,7 +1038,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1050,12 +1048,12 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251566</v>
+        <v>251424</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1063,33 +1061,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>112.9344262295082</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:03</t>
+          <t>2025-05-12 08:37:25</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:29:03</t>
+          <t>2025-05-12 09:07:25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:29:03</t>
+          <t>2025-05-12 09:07:25</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:00</t>
+          <t>2025-05-12 11:45:49</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6889</v>
+        <v>9662</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1115,22 +1113,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>-14.49015255009259</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251424</v>
+        <v>244355</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1141,30 +1139,30 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>158.3934426229508</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:22:00</t>
+          <t>2025-05-12 11:45:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:42:00</t>
+          <t>2025-05-12 12:05:49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:42:00</t>
+          <t>2025-05-12 12:05:49</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:23</t>
+          <t>2025-05-12 13:16:28</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9662</v>
+        <v>4310</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1190,14 +1188,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-4.553107923495371</v>
       </c>
       <c r="T10" t="n">
         <v>4</v>
@@ -1205,7 +1203,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244355</v>
+        <v>251485</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1213,33 +1211,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>70.65573770491804</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:20:23</t>
+          <t>2025-05-12 13:16:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:23</t>
+          <t>2025-05-12 13:41:28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 11:40:23</t>
+          <t>2025-05-12 13:41:28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:02</t>
+          <t>2025-05-13 07:00:17</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4310</v>
+        <v>4808</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1252,7 +1250,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1265,22 +1263,22 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-20.29187158469907</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251761</v>
+        <v>251245</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1288,33 +1286,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>217.6885245901639</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:51:02</t>
+          <t>2025-05-13 07:00:17</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:02</t>
+          <t>2025-05-13 07:25:17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:02</t>
+          <t>2025-05-13 07:25:17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:44</t>
+          <t>2025-05-13 07:37:39</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>13279</v>
+        <v>754</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1323,11 +1321,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1340,22 +1338,22 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-46.31781648451389</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251846</v>
+        <v>251246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1363,33 +1361,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>186.7540983606557</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:48:44</t>
+          <t>2025-05-13 07:37:39</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:18:44</t>
+          <t>2025-05-13 07:57:39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 09:18:44</t>
+          <t>2025-05-13 07:57:39</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:25:29</t>
+          <t>2025-05-13 11:14:24</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11392</v>
+        <v>12002</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1398,11 +1396,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1415,22 +1413,22 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-4.468340163935185</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251467</v>
+        <v>251374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1438,33 +1436,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0655737704918</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:25:29</t>
+          <t>2025-05-13 11:14:24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:29</t>
+          <t>2025-05-13 11:39:24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:45:29</t>
+          <t>2025-05-13 11:39:24</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 14:27:33</t>
+          <t>2025-05-14 11:07:39</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6226</v>
+        <v>27343</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1473,11 +1471,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1490,7 +1488,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1505,41 +1503,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>251795</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 11:07:39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 11:32:39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-14 11:32:39</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 08:39:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>18739</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1548,78 +1546,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251062</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-15 08:39:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 08:59:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-15 08:59:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-16 07:10:44</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>22624</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1628,78 +1621,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251164</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1730,56 +1718,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,15 +1780,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39746</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1808,60 +1794,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39746</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251626</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>12500</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1874,32 +1860,27 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-9.501969954652777</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1907,41 +1888,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251594</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>131.9591836734694</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 12:42:50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-09 12:42:50</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 14:54:47</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>6466</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1959,69 +1940,64 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-2.621386054421296</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>250670</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-09 14:54:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-12 07:31:47</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-12 07:31:47</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 08:03:41</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>1563</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2030,36 +2006,31 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
-      <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-7.335898526076388</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2067,41 +2038,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>251373</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-12 08:03:41</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-12 08:45:41</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 14:34:33</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>17094</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2110,25 +2081,20 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2136,52 +2102,52 @@
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-14.6073270975</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251061</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D23" t="n">
-        <v>175.34375</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 14:34:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-13 07:14:33</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-13 07:14:33</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-14 07:24:17</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>23997</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2190,18 +2156,15 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -2210,56 +2173,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-9.308531746030093</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251519</v>
+        <v>251252</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>205.859375</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-14 07:24:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:32</t>
+          <t>2025-05-14 07:59:17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:33:32</t>
+          <t>2025-05-14 07:59:17</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:59:24</t>
+          <t>2025-05-14 13:07:06</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13175</v>
+        <v>15083</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2268,11 +2231,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2285,7 +2248,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2295,46 +2258,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251340</v>
+        <v>251050</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D25" t="n">
-        <v>512.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:59:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:29:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:29:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>32800</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2343,73 +2306,78 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="T25" t="n">
         <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>245089</v>
+        <v>251054</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>1916.640625</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:01:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 11:20:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-19 11:17:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2418,73 +2386,78 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251245</v>
+        <v>251081</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D27" t="n">
-        <v>11.78125</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:17:32</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:51:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-19 11:51:32</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-19 12:03:19</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>754</v>
+        <v>3012</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2493,73 +2466,80 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>250641</v>
+        <v>251109</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>79.9375</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-19 12:03:19</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-19 12:18:19</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-19 12:18:19</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-19 13:38:15</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5116</v>
+        <v>18928</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2568,11 +2548,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2585,14 +2565,14 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -2600,41 +2580,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251485</v>
+        <v>245275</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D29" t="n">
-        <v>75.125</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:38:15</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:55:15</t>
+          <t>2025-05-12 12:06:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-19 13:55:15</t>
+          <t>2025-05-12 12:06:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-20 07:10:23</t>
+          <t>2025-05-13 09:48:10</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4808</v>
+        <v>24294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2643,11 +2623,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2660,7 +2640,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
@@ -2670,46 +2650,46 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251546</v>
+        <v>251520</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D30" t="n">
-        <v>101.03125</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-20 07:10:23</t>
+          <t>2025-05-13 09:48:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-20 07:25:23</t>
+          <t>2025-05-13 10:58:10</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-20 07:25:23</t>
+          <t>2025-05-13 10:58:10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-20 09:06:25</t>
+          <t>2025-05-13 14:48:19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6466</v>
+        <v>16340</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2718,11 +2698,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2735,56 +2715,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>-1.616891627546296</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251463</v>
+        <v>245350</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>108.859375</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-20 09:06:25</t>
+          <t>2025-05-13 14:48:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-20 09:23:25</t>
+          <t>2025-05-14 07:38:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-20 09:23:25</t>
+          <t>2025-05-14 07:38:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-20 11:12:16</t>
+          <t>2025-05-14 14:12:16</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6967</v>
+        <v>27970</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2793,11 +2773,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2810,7 +2790,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2820,46 +2800,46 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251564</v>
+        <v>251225</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D32" t="n">
-        <v>42.453125</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-20 11:12:16</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-20 11:29:16</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-20 11:29:16</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-20 12:11:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2868,73 +2848,78 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>70</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N32" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251462</v>
+        <v>251227</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>97.28125</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:11:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:28:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-20 12:28:44</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-20 14:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2943,31 +2928,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N33" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2975,41 +2965,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251562</v>
+        <v>251782</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" t="n">
-        <v>127.21875</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:21:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-20 14:21:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-21 08:28:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8142</v>
+        <v>12073</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3018,31 +3008,36 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>70</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N34" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T34" t="n">
         <v>1</v>
@@ -3050,41 +3045,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251251</v>
+        <v>251340</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>247.8125</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-21 08:28:14</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-21 08:51:14</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-21 08:51:14</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-21 12:59:02</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>15860</v>
+        <v>32800</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3093,14 +3088,14 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3110,56 +3105,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>245275</v>
+        <v>243569</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>379.59375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-21 12:59:02</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-21 13:30:02</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-21 13:30:02</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-22 11:49:38</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>24294</v>
+        <v>2601</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3168,14 +3163,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3185,56 +3180,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251081</v>
+        <v>245623</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="D37" t="n">
-        <v>42.42253521126761</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3012</v>
+        <v>26419</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3243,38 +3238,31 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-16.40932120501157</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3282,41 +3270,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251050</v>
+        <v>243335</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 09:49:25</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>33004</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3325,78 +3313,73 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="N38" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-1.49612676056713</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251054</v>
+        <v>251750</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 11:54:25</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3891</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3405,78 +3388,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.520432316122685</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251109</v>
+        <v>251284</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>145</v>
+        <v>40.5</v>
       </c>
       <c r="D40" t="n">
-        <v>266.5915492957747</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>18928</v>
+        <v>16340</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3485,73 +3463,78 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
+      <c r="N40" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251520</v>
+        <v>251505</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>34.5</v>
       </c>
       <c r="D41" t="n">
-        <v>230.1408450704225</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>16340</v>
+        <v>14255</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3560,11 +3543,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3577,56 +3560,56 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251626</v>
+        <v>251397</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>34.5</v>
       </c>
       <c r="D42" t="n">
-        <v>204.9180327868852</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:00</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:55</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>12500</v>
+        <v>5435</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3652,56 +3635,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251594</v>
+        <v>244354</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>32.5</v>
       </c>
       <c r="D43" t="n">
-        <v>106</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:04:55</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:55</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:31:55</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:55</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6466</v>
+        <v>4310</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3727,14 +3710,14 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="T43" t="n">
         <v>4</v>
@@ -3742,41 +3725,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>244204</v>
+        <v>250819</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
-        <v>56.91803278688525</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:55</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:55</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:55</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:50</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3472</v>
+        <v>8527</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3789,7 +3772,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
@@ -3802,56 +3785,56 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251464</v>
+        <v>251247</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D45" t="n">
-        <v>117.2622950819672</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 14:39:50</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:50</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 07:04:50</t>
+          <t>2025-05-13 09:15:29</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:05</t>
+          <t>2025-05-14 09:25:12</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7153</v>
+        <v>26934</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3860,11 +3843,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3881,10 +3864,10 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -3892,7 +3875,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251283</v>
+        <v>251651</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3903,30 +3886,30 @@
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>12.36065573770492</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:02:05</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:05</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:43:27</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>754</v>
+        <v>46830</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3935,14 +3918,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N46" t="n">
+        <v>39755</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3952,7 +3938,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
@@ -3962,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -3975,29 +3961,29 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D47" t="n">
         <v>16.34426229508197</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 09:43:27</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:27</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:27</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:48</t>
+          <t>2025-05-12 13:15:02</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -4031,10 +4017,10 @@
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-224.5521174863426</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4057,22 +4043,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:48</t>
+          <t>2025-05-12 13:15:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:48</t>
+          <t>2025-05-12 13:44:02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 10:53:48</t>
+          <t>2025-05-12 13:44:02</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:03</t>
+          <t>2025-05-12 14:47:18</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -4106,10 +4092,10 @@
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-14.61618852459491</v>
       </c>
       <c r="T48" t="n">
         <v>2</v>
@@ -4117,7 +4103,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251374</v>
+        <v>251283</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4125,33 +4111,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>448.2459016393443</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:03</t>
+          <t>2025-05-12 14:47:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:03</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:03</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:18</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>27343</v>
+        <v>754</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4164,7 +4150,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4177,14 +4163,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-56.31157786885417</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4192,7 +4178,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251260</v>
+        <v>251464</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4200,33 +4186,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
-        <v>153.5901639344262</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:52:18</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:18</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:18</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 14:52:54</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>9369</v>
+        <v>7153</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4235,11 +4221,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4252,14 +4238,14 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-4.413148907106482</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4267,7 +4253,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251249</v>
+        <v>251467</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4275,33 +4261,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D51" t="n">
-        <v>78</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:52:54</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:54</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-14 07:17:54</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:54</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>4758</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4310,11 +4296,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4327,14 +4313,14 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-4.504166666666666</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4342,7 +4328,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251987</v>
+        <v>251229</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4350,33 +4336,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>3451.245901639344</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:54</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:15:54</t>
+          <t>2025-05-13 12:39:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:15:54</t>
+          <t>2025-05-13 12:39:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-23 10:47:08</t>
+          <t>2025-05-14 09:46:11</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>210526</v>
+        <v>18739</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4385,24 +4371,31 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>6</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4417,7 +4410,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245090</v>
+        <v>251249</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4425,33 +4418,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>8470.786885245901</v>
+        <v>78</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-23 10:47:08</t>
+          <t>2025-05-14 09:46:11</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-23 11:14:08</t>
+          <t>2025-05-14 10:11:11</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-23 11:14:08</t>
+          <t>2025-05-14 10:11:11</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-18 08:24:56</t>
+          <t>2025-05-14 11:29:11</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>516718</v>
+        <v>4758</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4460,14 +4453,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4477,7 +4470,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
@@ -4492,41 +4485,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251284</v>
+        <v>251987</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>297.0909090909091</v>
+        <v>3451.245901639344</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 11:29:11</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 12:09:11</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-14 12:09:11</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-23 13:40:26</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>16340</v>
+        <v>210526</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4535,36 +4528,31 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>70</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4572,41 +4560,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251397</v>
+        <v>245090</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>38.5</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>98.81818181818181</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-23 13:40:26</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-05-23 14:07:26</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:05</t>
+          <t>2025-05-23 14:07:26</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-06-18 11:18:13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>5435</v>
+        <v>516718</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4615,14 +4603,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4632,7 +4620,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4642,46 +4630,46 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244354</v>
+        <v>245089</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32.5</v>
+        <v>27</v>
       </c>
       <c r="D56" t="n">
-        <v>78.36363636363636</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:54</t>
+          <t>2025-06-18 11:18:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:27:24</t>
+          <t>2025-06-18 11:45:13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:27:24</t>
+          <t>2025-06-18 11:45:13</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:46</t>
+          <t>2025-06-24 13:16:07</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>4310</v>
+        <v>122665</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4690,14 +4678,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4707,7 +4695,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4717,46 +4705,46 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251373</v>
+        <v>250641</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32.5</v>
+        <v>45</v>
       </c>
       <c r="D57" t="n">
-        <v>310.8</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:46</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 09:18:16</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 09:18:16</t>
+          <t>2025-05-12 07:45:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:04</t>
+          <t>2025-05-12 08:59:08</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>17094</v>
+        <v>5116</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4769,7 +4757,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
@@ -4786,52 +4774,52 @@
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-14.37440619967592</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>250819</v>
+        <v>251547</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
-        <v>155.0363636363636</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 14:29:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:34</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>8527</v>
+        <v>13129</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4844,69 +4832,74 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251247</v>
+        <v>250759</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
-        <v>489.7090909090909</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:36</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:06</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>26934</v>
+        <v>8398</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4915,31 +4908,36 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -4947,41 +4945,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251795</v>
+        <v>250894</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>340.7090909090909</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:16:49</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 10:47:19</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-15 08:28:01</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4990,14 +4988,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39755</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5007,7 +5008,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5017,94 +5018,87 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251706</v>
+        <v>235572</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>50.79365079365079</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3200</v>
+        <v>9958</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>250759</v>
+        <v>251475</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5112,33 +5106,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>118.2816901408451</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8398</v>
+        <v>8681</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5147,44 +5141,39 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>76</v>
-      </c>
-      <c r="N62" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.3870011737037037</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>250670</v>
+        <v>251809</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5195,30 +5184,30 @@
         <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>22.01408450704225</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 09:32:16</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-08 09:54:17</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1563</v>
+        <v>8681</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5227,14 +5216,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5244,7 +5233,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
@@ -5254,12 +5243,12 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251547</v>
+        <v>251259</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5267,33 +5256,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D64" t="n">
-        <v>184.9154929577465</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-08 09:54:17</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:17</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:17</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-08 13:29:12</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>13129</v>
+        <v>5000</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5306,21 +5295,16 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5328,18 +5312,18 @@
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-1.561952269166667</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-1.561952269166667</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>250894</v>
+        <v>251466</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5347,33 +5331,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" t="n">
-        <v>623.4084507042254</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-08 13:29:12</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-08 14:01:12</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:37</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>44262</v>
+        <v>5567</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5382,17 +5366,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>76</v>
-      </c>
-      <c r="N65" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -5402,22 +5383,22 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251505</v>
+        <v>251465</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5425,33 +5406,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>200.7746478873239</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:24:37</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:37</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 08:54:37</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:23</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>14255</v>
+        <v>6226</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5464,7 +5445,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5477,22 +5458,22 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>0</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251229</v>
+        <v>251562</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5500,33 +5481,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>263.9295774647887</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:15:23</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:23</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:23</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:19</t>
+          <t>2025-05-13 14:29:35</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>18739</v>
+        <v>8142</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5535,27 +5516,20 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5574,7 +5548,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251246</v>
+        <v>251846</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5585,30 +5559,30 @@
         <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>169.0422535211268</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:56:19</t>
+          <t>2025-05-13 14:29:35</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:19</t>
+          <t>2025-05-13 14:44:35</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 09:11:19</t>
+          <t>2025-05-13 14:44:35</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:21</t>
+          <t>2025-05-14 09:25:02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>12002</v>
+        <v>11392</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5617,11 +5591,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5634,7 +5608,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5644,12 +5618,12 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>235572</v>
+        <v>251557</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5657,33 +5631,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>140.2535211267606</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:21</t>
+          <t>2025-05-14 09:25:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:21</t>
+          <t>2025-05-14 09:40:02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 12:17:21</t>
+          <t>2025-05-14 09:40:02</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-14 11:14:28</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>9958</v>
+        <v>6705</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5692,11 +5666,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5709,7 +5683,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
@@ -5719,72 +5693,79 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251475</v>
+        <v>251706</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>122.2676056338028</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:37:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 14:54:37</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:53</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8681</v>
+        <v>3200</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
@@ -5794,46 +5775,46 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251809</v>
+        <v>251455</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>122.2676056338028</v>
+        <v>82.765625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 08:56:53</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:53</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 09:11:53</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:09</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>8681</v>
+        <v>5297</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5851,64 +5832,69 @@
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>245350</v>
+        <v>251391</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>393.943661971831</v>
+        <v>91.640625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:09</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:09</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:09</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-15 10:15:05</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>27970</v>
+        <v>5865</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5917,31 +5903,36 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T72" t="n">
         <v>7</v>
@@ -5949,41 +5940,41 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251259</v>
+        <v>251395</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:15:05</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-15 10:32:05</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:31</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5996,69 +5987,74 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
+      <c r="N73" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251466</v>
+        <v>251371</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>78.40845070422536</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-15 11:42:31</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:09:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-15 12:09:31</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-15 13:27:55</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6071,69 +6067,76 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251465</v>
+        <v>251396</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>87.69014084507042</v>
+        <v>35.34375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:27:55</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:44:55</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-15 13:44:55</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-16 07:12:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6146,69 +6149,74 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251557</v>
+        <v>251548</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>94.43661971830986</v>
+        <v>206.90625</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:12:37</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:27:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-16 07:27:37</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-16 09:02:03</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6705</v>
+        <v>13242</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6221,69 +6229,74 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251062</v>
+        <v>250923</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
-        <v>318.6478873239437</v>
+        <v>109.46875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:02:03</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:25:03</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-16 09:25:03</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-16 14:43:42</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>22624</v>
+        <v>7006</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6292,73 +6305,78 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N77" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251164</v>
+        <v>251477</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>204.0816326530612</v>
+        <v>468.734375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>10000</v>
+        <v>29999</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6367,17 +6385,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N78" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6385,60 +6403,60 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251061</v>
+        <v>251564</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>489.734693877551</v>
+        <v>42.453125</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-08 11:54:04</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:48</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>23997</v>
+        <v>2717</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6447,11 +6465,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6464,56 +6482,56 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251227</v>
+        <v>251546</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>101.03125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6522,78 +6540,73 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251782</v>
+        <v>251743</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>170.0422535211268</v>
+        <v>168.375</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-12 09:09:03</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>12073</v>
+        <v>10776</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6602,25 +6615,20 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6628,52 +6636,52 @@
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251225</v>
+        <v>251463</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>108.859375</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-12 09:09:03</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-12 09:24:03</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-12 09:24:03</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-12 11:12:55</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6682,36 +6690,31 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
-      </c>
-      <c r="N82" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.321557120497685</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-1.321557120497685</v>
+        <v>-3.467306857638889</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -6719,41 +6722,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251651</v>
+        <v>251462</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>659.5774647887324</v>
+        <v>97.28125</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-12 11:12:55</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-12 11:31:55</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 08:00:02</t>
+          <t>2025-05-12 11:31:55</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-12 13:09:12</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>46830</v>
+        <v>6226</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6762,17 +6765,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
-      </c>
-      <c r="N83" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6782,56 +6782,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-3.548057725694445</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>243569</v>
+        <v>251761</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>19</v>
       </c>
       <c r="D84" t="n">
-        <v>36.63380281690141</v>
+        <v>207.484375</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:59:37</t>
+          <t>2025-05-12 13:09:12</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:37</t>
+          <t>2025-05-12 13:28:12</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:18:37</t>
+          <t>2025-05-12 13:28:12</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:15</t>
+          <t>2025-05-13 08:55:41</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2601</v>
+        <v>13279</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6840,14 +6840,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6872,41 +6872,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>245623</v>
+        <v>251580</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>372.0985915492957</v>
+        <v>111.765625</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:55:15</t>
+          <t>2025-05-13 08:55:41</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:15</t>
+          <t>2025-05-13 09:10:41</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:15</t>
+          <t>2025-05-13 09:10:41</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:21</t>
+          <t>2025-05-13 11:02:27</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>26419</v>
+        <v>7153</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6915,14 +6915,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6942,46 +6942,46 @@
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>243335</v>
+        <v>251251</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>19</v>
       </c>
       <c r="D86" t="n">
-        <v>464.8450704225352</v>
+        <v>247.8125</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:21</t>
+          <t>2025-05-13 11:02:27</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:21</t>
+          <t>2025-05-13 11:21:27</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:21</t>
+          <t>2025-05-13 11:21:27</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:11</t>
+          <t>2025-05-14 07:29:15</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>33004</v>
+        <v>15860</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,14 +6990,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -7022,41 +7022,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251750</v>
+        <v>251260</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>54.80281690140845</v>
+        <v>146.390625</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:43:11</t>
+          <t>2025-05-14 07:29:15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:00:11</t>
+          <t>2025-05-14 07:44:15</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:00:11</t>
+          <t>2025-05-14 07:44:15</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:55:00</t>
+          <t>2025-05-14 10:10:39</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3891</v>
+        <v>9369</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,14 +7065,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251561</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>89.09836065573771</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5435</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,14 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -735,56 +738,56 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>244204</v>
+        <v>235572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>56.91803278688525</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3472</v>
+        <v>9958</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -793,11 +796,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -810,14 +813,14 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T5" t="n">
         <v>4</v>
@@ -825,41 +828,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251566</v>
+        <v>251475</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>112.9344262295082</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6889</v>
+        <v>8681</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -885,56 +888,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-2.380191256828704</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251809</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>183.9672131147541</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:28</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:28</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:26</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>8681</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,14 +950,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -973,46 +973,46 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251519</v>
+        <v>251259</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>215.983606557377</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 12:41:26</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:01:26</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:25</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>13175</v>
+        <v>5000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1038,56 +1038,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251424</v>
+        <v>251466</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3934426229508</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 08:37:25</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:25</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:25</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 11:45:49</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9662</v>
+        <v>5567</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1113,56 +1113,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-14.49015255009259</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244355</v>
+        <v>251465</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>70.65573770491804</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 11:45:49</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:49</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:05:49</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:28</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4310</v>
+        <v>6226</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1188,56 +1188,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-4.553107923495371</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251485</v>
+        <v>251557</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>78.81967213114754</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:16:28</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:28</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:28</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:00:17</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4808</v>
+        <v>6705</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1263,56 +1263,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-20.29187158469907</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251245</v>
+        <v>251252</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>12.36065573770492</v>
+        <v>212.4366197183099</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:00:17</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:17</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:25:17</t>
+          <t>2025-05-13 14:32:21</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 07:37:39</t>
+          <t>2025-05-14 10:04:47</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>754</v>
+        <v>15083</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-46.31781648451389</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1353,41 +1353,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251246</v>
+        <v>251229</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>196.7540983606557</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:37:39</t>
+          <t>2025-05-14 10:04:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:39</t>
+          <t>2025-05-14 10:19:47</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:39</t>
+          <t>2025-05-14 10:19:47</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:14:24</t>
+          <t>2025-05-14 14:43:43</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12002</v>
+        <v>18739</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1405,22 +1405,29 @@
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-4.468340163935185</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1428,41 +1435,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251374</v>
+        <v>251795</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>448.2459016393443</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:14:24</t>
+          <t>2025-05-14 14:43:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:24</t>
+          <t>2025-05-14 14:58:43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:39:24</t>
+          <t>2025-05-14 14:58:43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:07:39</t>
+          <t>2025-05-15 11:22:38</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>27343</v>
+        <v>18739</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1471,11 +1478,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1488,7 +1495,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
@@ -1503,41 +1510,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251795</v>
+        <v>245350</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>307.1967213114754</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:07:39</t>
+          <t>2025-05-15 11:22:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:32:39</t>
+          <t>2025-05-15 11:45:38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:32:39</t>
+          <t>2025-05-15 11:45:38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-15 08:39:51</t>
+          <t>2025-05-16 10:19:35</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18739</v>
+        <v>27970</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1546,11 +1553,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1563,7 +1570,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1573,46 +1580,46 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251062</v>
+        <v>251519</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>370.8852459016393</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-15 08:39:51</t>
+          <t>2025-05-16 10:19:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-15 08:59:51</t>
+          <t>2025-05-16 10:50:35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-15 08:59:51</t>
+          <t>2025-05-16 10:50:35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 07:10:44</t>
+          <t>2025-05-16 13:56:09</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>22624</v>
+        <v>13175</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1621,11 +1628,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1638,7 +1645,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1648,46 +1655,46 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251164</v>
+        <v>251846</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>204.0816326530612</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-16 13:56:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-16 14:11:09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-16 14:11:09</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-19 08:51:36</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10000</v>
+        <v>11392</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1700,74 +1707,69 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6530612244898</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1780,13 +1782,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1794,60 +1796,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251626</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>255.1020408163265</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12500</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1860,69 +1862,74 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-9.501969954652777</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251594</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>131.9591836734694</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:50</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-09 12:42:50</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:47</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>6466</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1935,7 +1942,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1952,52 +1959,52 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-2.621386054421296</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250670</v>
+        <v>244204</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>31.89795918367347</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:47</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:47</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:47</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 08:03:41</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1563</v>
+        <v>3472</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2006,14 +2013,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2023,56 +2030,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-7.335898526076388</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251373</v>
+        <v>251761</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>348.8571428571428</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 08:03:41</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 08:45:41</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:33</t>
+          <t>2025-05-09 10:52:13</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17094</v>
+        <v>13279</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2085,7 +2092,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2098,56 +2105,56 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-14.6073270975</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251061</v>
+        <v>251566</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>489.734693877551</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:33</t>
+          <t>2025-05-09 10:52:13</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:33</t>
+          <t>2025-05-09 11:12:13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:33</t>
+          <t>2025-05-09 11:12:13</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 07:24:17</t>
+          <t>2025-05-09 13:05:09</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>23997</v>
+        <v>6889</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2156,11 +2163,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2173,56 +2180,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-9.308531746030093</v>
+        <v>-2.54525273224537</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251252</v>
+        <v>251416</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>307.8163265306122</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-14 07:24:17</t>
+          <t>2025-05-09 13:05:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:17</t>
+          <t>2025-05-09 13:35:09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:17</t>
+          <t>2025-05-09 13:35:09</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-14 13:07:06</t>
+          <t>2025-05-12 08:39:07</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15083</v>
+        <v>11222</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2231,15 +2238,18 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -2248,7 +2258,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2258,46 +2268,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251050</v>
+        <v>251424</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 08:39:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:09:07</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 09:09:07</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 11:47:31</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9662</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2306,78 +2316,73 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-14.49133652094907</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251054</v>
+        <v>244355</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 11:47:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:07:31</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:07:31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:18:10</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2386,78 +2391,73 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-4.554291894351852</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251081</v>
+        <v>251485</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>42.42253521126761</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 13:18:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:43:10</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-12 13:43:10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 07:02:00</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3012</v>
+        <v>4808</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2466,27 +2466,20 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2494,10 +2487,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-20.29305555555555</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -2505,41 +2498,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251109</v>
+        <v>251247</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>266.5915492957747</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-13 07:02:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-13 07:27:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-13 07:27:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-13 14:48:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>18928</v>
+        <v>26934</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2548,11 +2541,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2565,56 +2558,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-5.3925</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-4.617042349722222</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>245275</v>
+        <v>251594</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>342.1690140845071</v>
+        <v>93.71014492753623</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 12:06:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:10</t>
+          <t>2025-05-12 09:08:42</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>24294</v>
+        <v>6466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2623,11 +2616,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2640,56 +2633,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-5.381048711759259</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251520</v>
+        <v>251373</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>230.1408450704225</v>
+        <v>247.7391304347826</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 09:48:10</t>
+          <t>2025-05-12 09:08:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:10</t>
+          <t>2025-05-12 09:38:42</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:58:10</t>
+          <t>2025-05-12 09:38:42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:19</t>
+          <t>2025-05-12 13:46:26</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>16340</v>
+        <v>17094</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2698,11 +2691,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2715,56 +2708,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.616891627546296</v>
+        <v>-14.57392310789352</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>393.943661971831</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:19</t>
+          <t>2025-05-12 13:46:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:19</t>
+          <t>2025-05-12 14:16:26</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:19</t>
+          <t>2025-05-12 14:16:26</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-14 14:12:16</t>
+          <t>2025-05-13 07:30:35</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2773,11 +2766,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2790,56 +2783,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-15.31291264090278</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251225</v>
+        <v>251246</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-13 07:30:35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 07:55:35</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 07:55:35</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 10:49:32</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2848,36 +2841,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
-        <v>76</v>
-      </c>
-      <c r="N32" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-4.451066827696759</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -2885,41 +2873,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251227</v>
+        <v>251580</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>103.6666666666667</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-13 10:49:32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 11:24:32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 11:24:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-13 13:08:12</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2928,36 +2916,31 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>76</v>
-      </c>
-      <c r="N33" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -2965,41 +2948,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251782</v>
+        <v>251164</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>170.0422535211268</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12073</v>
+        <v>10000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3008,17 +2991,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N34" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3026,60 +3009,60 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251340</v>
+        <v>251456</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
-        <v>461.9718309859155</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>32800</v>
+        <v>8999</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3088,73 +3071,78 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>76</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N35" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243569</v>
+        <v>251626</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>36.63380281690141</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-09 07:47:44</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2601</v>
+        <v>12500</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3163,14 +3151,14 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3180,56 +3168,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>-9.501969954652777</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>245623</v>
+        <v>250670</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D37" t="n">
-        <v>372.0985915492957</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-09 12:02:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-09 12:44:50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-09 12:44:50</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-09 13:16:44</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>26419</v>
+        <v>1563</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3238,14 +3226,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3255,14 +3243,14 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-4.553287981863426</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3270,41 +3258,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>243335</v>
+        <v>251061</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8450704225352</v>
+        <v>489.734693877551</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-09 13:16:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-09 14:03:44</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-09 14:03:44</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-12 14:13:28</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>33004</v>
+        <v>23997</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3313,14 +3301,14 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3330,14 +3318,14 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-7.592687074826388</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -3345,41 +3333,41 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251750</v>
+        <v>251050</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D39" t="n">
-        <v>54.80281690140845</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3891</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3388,73 +3376,78 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M39" t="n">
-        <v>152</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251284</v>
+        <v>251054</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3463,11 +3456,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3485,56 +3478,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251505</v>
+        <v>251081</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>259.1818181818182</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>14255</v>
+        <v>3012</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3543,73 +3536,80 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251397</v>
+        <v>251109</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34.5</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
-        <v>98.81818181818181</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>5435</v>
+        <v>18928</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3618,11 +3618,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3635,56 +3635,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>244354</v>
+        <v>251520</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>32.5</v>
+        <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>78.36363636363636</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4310</v>
+        <v>16340</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3693,11 +3693,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
@@ -3710,56 +3710,56 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>-1.354968701099537</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>250819</v>
+        <v>251651</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34.5</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
-        <v>155.0363636363636</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>8527</v>
+        <v>46830</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3768,14 +3768,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39755</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3785,56 +3788,56 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251247</v>
+        <v>244023</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>30.5</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>489.7090909090909</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:29</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:12</t>
+          <t>2025-05-12 13:15:02</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>26934</v>
+        <v>997</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3843,7 +3846,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -3860,14 +3863,14 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-225.3452982695833</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-224.5521174863426</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -3875,7 +3878,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251651</v>
+        <v>251346</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3886,30 +3889,30 @@
         <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>767.7049180327868</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:15:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 13:44:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-12 13:44:02</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 14:47:18</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>46830</v>
+        <v>3859</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3918,17 +3921,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
-      </c>
-      <c r="N46" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3938,22 +3938,22 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-14.61618852459491</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>244023</v>
+        <v>251283</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3961,33 +3961,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
-        <v>16.34426229508197</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 14:47:18</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 07:16:18</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:02</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>997</v>
+        <v>754</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>-56.37124316939815</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-224.5521174863426</v>
+        <v>-56.31157786885417</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251346</v>
+        <v>251464</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4039,30 +4039,30 @@
         <v>29</v>
       </c>
       <c r="D48" t="n">
-        <v>63.26229508196721</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:02</t>
+          <t>2025-05-13 07:28:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:02</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:02</t>
+          <t>2025-05-13 07:57:40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:18</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3859</v>
+        <v>7153</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
@@ -4088,22 +4088,22 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>-4.472814207650463</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-14.61618852459491</v>
+        <v>-4.413148907106482</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251283</v>
+        <v>251467</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4114,30 +4114,30 @@
         <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>12.36065573770492</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:18</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-13 10:23:56</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4146,11 +4146,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4163,14 +4163,14 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>-4.563831967210648</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-56.31157786885417</v>
+        <v>-4.504166666666666</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251464</v>
+        <v>245089</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4186,33 +4186,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>117.2622950819672</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-13 12:06:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-13 12:50:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-13 12:50:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-19 14:20:54</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>7153</v>
+        <v>122665</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4221,14 +4221,14 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4238,14 +4238,14 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-4.413148907106482</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4253,41 +4253,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251467</v>
+        <v>251225</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4296,31 +4296,36 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-4.504166666666666</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T51" t="n">
         <v>1</v>
@@ -4328,41 +4333,41 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251229</v>
+        <v>251227</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 12:39:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4371,19 +4376,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39746</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -4391,18 +4394,18 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T52" t="n">
         <v>1</v>
@@ -4410,41 +4413,41 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251249</v>
+        <v>251782</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>78</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 10:11:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4758</v>
+        <v>12073</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4453,31 +4456,36 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4485,41 +4493,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251987</v>
+        <v>251340</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>3451.245901639344</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-14 11:29:11</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:11</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:11</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-23 13:40:26</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>210526</v>
+        <v>32800</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4528,11 +4536,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>76</v>
@@ -4545,56 +4553,56 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>245090</v>
+        <v>243569</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>8470.786885245901</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-23 13:40:26</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-23 14:07:26</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-23 14:07:26</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-06-18 11:18:13</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>516718</v>
+        <v>2601</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4607,7 +4615,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
         <v>76</v>
@@ -4620,56 +4628,56 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245089</v>
+        <v>245623</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
-        <v>2010.901639344262</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-06-18 11:18:13</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-06-18 11:45:13</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-06-18 11:45:13</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-06-24 13:16:07</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>122665</v>
+        <v>26419</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4682,10 +4690,10 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4695,56 +4703,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250641</v>
+        <v>243335</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>74.14492753623189</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 07:45:00</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:59:08</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>5116</v>
+        <v>33004</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4753,14 +4761,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4770,56 +4778,56 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-14.37440619967592</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251547</v>
+        <v>251750</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>184.9154929577465</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>13129</v>
+        <v>3891</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4828,78 +4836,73 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
-      </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>250759</v>
+        <v>245090</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>118.2816901408451</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 09:07:23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-14 09:07:23</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 10:25:06</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8398</v>
+        <v>516718</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4908,36 +4911,31 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
         <v>76</v>
       </c>
-      <c r="N59" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
         <v>1</v>
@@ -4945,41 +4943,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>250894</v>
+        <v>251987</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>623.4084507042254</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 10:25:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 10:42:06</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 10:42:06</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-12 12:07:16</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>44262</v>
+        <v>210526</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4988,18 +4986,15 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>76</v>
       </c>
-      <c r="N60" t="n">
-        <v>39755</v>
-      </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
@@ -5008,7 +5003,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
@@ -5018,121 +5013,128 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>235572</v>
+        <v>251706</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>140.2535211267606</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>9958</v>
+        <v>3200</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251475</v>
+        <v>251455</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>122.2676056338028</v>
+        <v>82.765625</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8681</v>
+        <v>5297</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5150,64 +5152,69 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251809</v>
+        <v>251391</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>122.2676056338028</v>
+        <v>91.640625</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8681</v>
+        <v>5865</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5220,69 +5227,74 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
+      <c r="N63" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251259</v>
+        <v>251395</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>70.4225352112676</v>
+        <v>35.34375</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5000</v>
+        <v>2262</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5295,69 +5307,74 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
+      <c r="N64" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251466</v>
+        <v>251371</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>78.40845070422536</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5567</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5370,69 +5387,76 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251465</v>
+        <v>251396</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>87.69014084507042</v>
+        <v>35.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6226</v>
+        <v>2262</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5445,69 +5469,74 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
+      <c r="N66" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251562</v>
+        <v>251548</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>114.6760563380282</v>
+        <v>206.90625</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:35</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>8142</v>
+        <v>13242</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5520,69 +5549,74 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251846</v>
+        <v>250923</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
-        <v>160.4507042253521</v>
+        <v>109.46875</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:29:35</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:44:35</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 14:44:35</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:02</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>11392</v>
+        <v>7006</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5591,73 +5625,78 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>76</v>
+      </c>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T68" t="n">
         <v>2</v>
-      </c>
-      <c r="M68" t="n">
-        <v>70</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2025-05-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>94.43661971830986</v>
+        <v>468.734375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:02</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:02</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-14 09:40:02</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:28</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5666,31 +5705,36 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>70</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N69" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T69" t="n">
         <v>1</v>
@@ -5698,89 +5742,82 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251706</v>
+        <v>251564</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>50.79365079365079</v>
+        <v>42.453125</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3200</v>
+        <v>2717</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>0</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251455</v>
+        <v>251546</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5791,30 +5828,30 @@
         <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>82.765625</v>
+        <v>101.03125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>5297</v>
+        <v>6466</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5827,32 +5864,27 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -5860,7 +5892,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251391</v>
+        <v>251245</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5871,30 +5903,30 @@
         <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>91.640625</v>
+        <v>11.78125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 14:20:41</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 14:32:28</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5865</v>
+        <v>754</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5903,44 +5935,39 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-42.60588107638889</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251395</v>
+        <v>251743</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5948,33 +5975,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>35.34375</v>
+        <v>168.375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 14:32:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 14:51:28</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 14:51:28</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 09:39:50</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2262</v>
+        <v>10776</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5987,40 +6014,35 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
       </c>
-      <c r="N73" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251371</v>
+        <v>251397</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6028,33 +6050,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>84.921875</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 09:39:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 09:56:50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 09:56:50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:21:45</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6067,42 +6089,35 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-14.48929924241898</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-14.47344835069444</v>
       </c>
       <c r="T74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251396</v>
+        <v>251562</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6110,33 +6125,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>35.34375</v>
+        <v>127.21875</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-12 11:21:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 11:38:45</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-12 11:38:45</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-12 13:45:59</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2262</v>
+        <v>8142</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6149,40 +6164,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251548</v>
+        <v>251462</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6190,33 +6200,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>206.90625</v>
+        <v>97.28125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-12 13:45:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-12 14:00:59</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-12 14:00:59</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 07:38:15</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>13242</v>
+        <v>6226</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6229,40 +6239,35 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-4.318240017361111</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>250923</v>
+        <v>251463</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6270,33 +6275,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>109.46875</v>
+        <v>108.859375</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-13 07:38:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 07:57:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-13 07:57:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 09:46:07</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>7006</v>
+        <v>6967</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6305,44 +6310,39 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>76</v>
-      </c>
-      <c r="N77" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-4.40703125</v>
       </c>
       <c r="T77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251477</v>
+        <v>251374</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6350,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>468.734375</v>
+        <v>427.234375</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-13 09:46:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 10:07:07</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-13 10:07:07</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:14:21</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>29999</v>
+        <v>27343</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,36 +6385,31 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
-      </c>
-      <c r="N78" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
         <v>1</v>
@@ -6422,7 +6417,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251564</v>
+        <v>251260</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6430,33 +6425,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>42.453125</v>
+        <v>146.390625</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-14 09:14:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-14 09:31:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-14 09:31:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-14 11:57:45</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2717</v>
+        <v>9369</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6465,11 +6460,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6482,22 +6477,22 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251546</v>
+        <v>251251</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6505,33 +6500,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>101.03125</v>
+        <v>247.8125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-14 11:57:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-14 12:12:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-14 12:12:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-15 08:20:33</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>6466</v>
+        <v>15860</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6540,11 +6535,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
@@ -6557,22 +6552,22 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251743</v>
+        <v>251062</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6580,33 +6575,33 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>168.375</v>
+        <v>353.5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-15 08:20:33</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-15 08:35:33</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-15 08:35:33</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:03</t>
+          <t>2025-05-15 14:29:03</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>10776</v>
+        <v>22624</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6615,11 +6610,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6632,7 +6627,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6642,46 +6637,46 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251463</v>
+        <v>251284</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="D82" t="n">
-        <v>108.859375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:03</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:03</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:03</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:55</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>6967</v>
+        <v>16340</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6690,31 +6685,36 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
+      <c r="N82" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-3.467306857638889</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T82" t="n">
         <v>1</v>
@@ -6722,41 +6722,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251462</v>
+        <v>251505</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D83" t="n">
-        <v>97.28125</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:12:55</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:55</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:55</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:12</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>6226</v>
+        <v>14255</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6782,56 +6782,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-3.548057725694445</v>
+        <v>-7.396717171712963</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251761</v>
+        <v>244354</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="D84" t="n">
-        <v>207.484375</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:09:12</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:12</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:28:12</t>
+          <t>2025-05-12 10:03:46</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:41</t>
+          <t>2025-05-12 11:22:08</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>13279</v>
+        <v>4310</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6857,56 +6857,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-4.566287878784722</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-4.473705808078703</v>
       </c>
       <c r="T84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251580</v>
+        <v>250819</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D85" t="n">
-        <v>111.765625</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:41</t>
+          <t>2025-05-12 11:22:08</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:41</t>
+          <t>2025-05-12 11:56:38</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:10:41</t>
+          <t>2025-05-12 11:56:38</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:27</t>
+          <t>2025-05-12 14:31:40</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7153</v>
+        <v>8527</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6932,56 +6932,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
+        <v>-25.36457702019676</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>0</v>
+        <v>-24.60532828282408</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251251</v>
+        <v>251249</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>247.8125</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:27</t>
+          <t>2025-05-12 14:31:40</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:27</t>
+          <t>2025-05-13 07:02:10</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:21:27</t>
+          <t>2025-05-13 07:02:10</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:15</t>
+          <t>2025-05-13 08:28:40</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>15860</v>
+        <v>4758</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -7022,41 +7022,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251260</v>
+        <v>245275</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="D87" t="n">
-        <v>146.390625</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:15</t>
+          <t>2025-05-13 08:28:40</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:15</t>
+          <t>2025-05-13 09:15:10</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:44:15</t>
+          <t>2025-05-13 09:15:10</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 10:10:39</t>
+          <t>2025-05-14 08:36:53</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>9369</v>
+        <v>24294</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>250670</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-12 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:57:39</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>1563</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-8.350425170069444</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-7.331702898553242</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251594</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.71014492753623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 07:57:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 08:27:39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 08:27:39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 10:01:21</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>6466</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,78 +633,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-5.559761345856481</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-5.417612721412037</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 10:01:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:36:21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 10:36:21</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-13 07:07:56</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,27 +708,31 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -748,46 +742,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>235572</v>
+        <v>250641</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>140.2535211267606</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-13 07:07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-13 07:32:56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-13 07:32:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-13 08:47:05</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>9958</v>
+        <v>5116</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,11 +790,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -813,56 +807,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>-15.36771336554398</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>-15.36603260869213</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251475</v>
+        <v>251246</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>122.2676056338028</v>
+        <v>173.9420289855072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-13 08:47:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-13 09:12:05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-13 09:12:05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 12:06:01</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8681</v>
+        <v>12002</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -871,11 +865,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -888,56 +882,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-4.505867552337963</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>-4.504186795486111</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251809</v>
+        <v>245350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>122.2676056338028</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 12:06:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 12:51:01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 12:51:01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-14 11:36:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8681</v>
+        <v>27970</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -946,11 +940,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -963,7 +957,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
@@ -973,46 +967,46 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251259</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>70.4225352112676</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1025,69 +1019,74 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251466</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>78.40845070422536</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5567</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1100,16 +1099,21 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
+      <c r="N9" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1117,10 +1121,10 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
@@ -1128,41 +1132,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251465</v>
+        <v>251561</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>87.69014084507042</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-08 12:03:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6226</v>
+        <v>5435</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,7 +1179,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1188,56 +1192,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-2.465152550092593</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>-1.564321493622685</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251557</v>
+        <v>244204</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>94.43661971830986</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-08 13:32:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-08 13:57:37</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6705</v>
+        <v>3472</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1250,7 +1254,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1263,56 +1267,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-4.580293715844907</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-0.6212090163888889</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251252</v>
+        <v>251566</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>212.4366197183099</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-08 14:54:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:32:21</t>
+          <t>2025-05-09 07:14:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:47</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15083</v>
+        <v>6889</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1321,11 +1325,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1338,56 +1342,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.560940346087963</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-2.380191256828704</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251229</v>
+        <v>251424</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>263.9295774647887</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:04:47</t>
+          <t>2025-05-09 09:07:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:47</t>
+          <t>2025-05-09 09:27:28</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-14 10:19:47</t>
+          <t>2025-05-09 09:27:28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 14:43:43</t>
+          <t>2025-05-09 12:05:52</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18739</v>
+        <v>9662</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1396,80 +1400,73 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-14.50895947177083</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-11.50407559199074</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251795</v>
+        <v>244355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>263.9295774647887</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 14:43:43</t>
+          <t>2025-05-09 12:05:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:43</t>
+          <t>2025-05-09 12:25:52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:43</t>
+          <t>2025-05-09 12:25:52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-15 11:22:38</t>
+          <t>2025-05-09 13:36:31</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1478,11 +1475,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1495,56 +1492,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-4.571914845173612</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-1.567030965393519</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>245350</v>
+        <v>251062</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>393.943661971831</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-15 11:22:38</t>
+          <t>2025-05-09 13:36:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-15 11:45:38</t>
+          <t>2025-05-09 14:06:31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-15 11:45:38</t>
+          <t>2025-05-09 14:06:31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-16 10:19:35</t>
+          <t>2025-05-12 12:17:24</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>27970</v>
+        <v>22624</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1553,11 +1550,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1570,7 +1567,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1580,46 +1577,46 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251519</v>
+        <v>251485</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>185.5633802816901</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-16 10:19:35</t>
+          <t>2025-05-12 12:17:24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-16 10:50:35</t>
+          <t>2025-05-12 12:42:24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-16 10:50:35</t>
+          <t>2025-05-12 12:42:24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-16 13:56:09</t>
+          <t>2025-05-12 14:01:13</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>13175</v>
+        <v>4808</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1632,7 +1629,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1645,56 +1642,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-20.31067850637731</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-19.58418715847222</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251846</v>
+        <v>251061</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>160.4507042253521</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-16 13:56:09</t>
+          <t>2025-05-12 14:01:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:11:09</t>
+          <t>2025-05-12 14:26:13</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-16 14:11:09</t>
+          <t>2025-05-12 14:26:13</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-19 08:51:36</t>
+          <t>2025-05-13 12:59:37</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>11392</v>
+        <v>23997</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1703,11 +1700,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1720,22 +1717,22 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-9.389824263043982</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-8.541404826956018</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251795</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1743,33 +1740,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 12:59:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 13:19:37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-13 13:19:37</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 10:26:49</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>18739</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1778,44 +1775,39 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251743</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1823,33 +1815,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-14 10:26:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 10:56:49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-14 10:56:49</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 13:53:28</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>10776</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1862,40 +1854,35 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251761</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1906,30 +1893,30 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>89.09836065573771</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-14 13:53:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-14 14:13:28</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-14 14:13:28</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-15 09:51:09</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>13279</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,7 +1929,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1955,22 +1942,22 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>244204</v>
+        <v>251519</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1978,33 +1965,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>56.91803278688525</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-15 09:51:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-15 10:21:09</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-15 10:21:09</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-15 13:57:08</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3472</v>
+        <v>13175</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2017,7 +2004,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2030,56 +2017,56 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251761</v>
+        <v>251547</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>217.6885245901639</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:13</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13279</v>
+        <v>13129</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2097,64 +2084,69 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251566</v>
+        <v>250759</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>112.9344262295082</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:13</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:13</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:13</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:09</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>6889</v>
+        <v>8398</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2163,73 +2155,78 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-2.54525273224537</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251416</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>183.9672131147541</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:05:09</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:09</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 13:35:09</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:07</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>11222</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2238,14 +2235,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39755</v>
@@ -2258,7 +2255,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2268,46 +2265,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251424</v>
+        <v>235572</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>158.3934426229508</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:07</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:07</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:09:07</t>
+          <t>2025-05-12 08:17:36</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:31</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9662</v>
+        <v>9958</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2316,11 +2313,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2333,14 +2330,14 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-14.49133652094907</v>
+        <v>-553.4429577464815</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
@@ -2348,41 +2345,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244355</v>
+        <v>251475</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>70.65573770491804</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 11:47:31</t>
+          <t>2025-05-12 10:37:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:31</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:07:31</t>
+          <t>2025-05-12 10:54:51</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:10</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4310</v>
+        <v>8681</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,14 +2405,14 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-4.554291894351852</v>
+        <v>-12.53967136150463</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -2423,41 +2420,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251485</v>
+        <v>251809</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>78.81967213114754</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:18:10</t>
+          <t>2025-05-12 12:57:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:10</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:10</t>
+          <t>2025-05-12 13:12:07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:00</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>4808</v>
+        <v>8681</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2470,7 +2467,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2483,56 +2480,56 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-20.29305555555555</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251247</v>
+        <v>251259</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>441.5409836065574</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:00</t>
+          <t>2025-05-13 07:14:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:00</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:00</t>
+          <t>2025-05-13 07:39:23</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:32</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>26934</v>
+        <v>5000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2541,11 +2538,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2558,56 +2555,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-5.3925</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-4.617042349722222</v>
+        <v>-7.367928403761574</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251594</v>
+        <v>251466</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>93.71014492753623</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 08:49:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-13 09:16:49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 09:08:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6466</v>
+        <v>5567</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2620,7 +2617,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2633,56 +2630,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-5.381048711759259</v>
+        <v>-4.441128716747685</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251373</v>
+        <v>251465</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>247.7391304347826</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:08:42</t>
+          <t>2025-05-13 10:35:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:42</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:42</t>
+          <t>2025-05-13 10:52:13</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:26</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>17094</v>
+        <v>6226</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2695,7 +2692,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2708,56 +2705,56 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-14.57392310789352</v>
+        <v>-4.513830203437499</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>250641</v>
+        <v>251557</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>74.14492753623189</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:26</t>
+          <t>2025-05-13 12:19:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:26</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:26</t>
+          <t>2025-05-13 12:34:54</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:35</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>5116</v>
+        <v>6705</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2770,7 +2767,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2783,56 +2780,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-15.31291264090278</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251246</v>
+        <v>251846</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>173.9420289855072</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:35</t>
+          <t>2025-05-13 14:09:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:35</t>
+          <t>2025-05-13 14:24:21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:55:35</t>
+          <t>2025-05-13 14:24:21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:32</t>
+          <t>2025-05-14 09:04:48</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12002</v>
+        <v>11392</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2841,11 +2838,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2858,56 +2855,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-4.451066827696759</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251580</v>
+        <v>251260</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>103.6666666666667</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 10:49:32</t>
+          <t>2025-05-14 09:04:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:32</t>
+          <t>2025-05-14 09:27:48</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:24:32</t>
+          <t>2025-05-14 09:27:48</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:08:12</t>
+          <t>2025-05-14 11:39:45</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>7153</v>
+        <v>9369</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2916,11 +2913,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2933,7 +2930,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2948,41 +2945,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251164</v>
+        <v>251249</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>204.0816326530612</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 11:39:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 11:54:45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 11:54:45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 13:01:46</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10000</v>
+        <v>4758</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2991,7 +2988,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -3000,69 +2997,64 @@
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251456</v>
+        <v>251050</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="D35" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3071,17 +3063,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
       <c r="N35" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3089,60 +3081,60 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251626</v>
+        <v>251054</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>255.1020408163265</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3151,73 +3143,78 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
+      <c r="N36" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-9.501969954652777</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>250670</v>
+        <v>251081</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>31.89795918367347</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:02:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 12:44:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1563</v>
+        <v>3012</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3226,31 +3223,38 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-4.553287981863426</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T37" t="n">
         <v>2</v>
@@ -3258,41 +3262,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251061</v>
+        <v>251109</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D38" t="n">
-        <v>489.734693877551</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:16:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:44</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:44</t>
+          <t>2025-05-09 14:54:25</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:28</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>23997</v>
+        <v>18928</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3301,11 +3305,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3318,22 +3322,22 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>-25.47753325508102</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-7.592687074826388</v>
+        <v>-24.47292644756944</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251050</v>
+        <v>251520</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3341,33 +3345,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 11:21:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 12:41:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-13 08:31:09</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3376,78 +3380,73 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
       </c>
-      <c r="N39" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.359575508611111</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.354968701099537</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251054</v>
+        <v>251346</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:50:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:50:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:53:15</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3456,36 +3455,31 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
       </c>
-      <c r="N40" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-15.31380919854167</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-11.37032103825231</v>
       </c>
       <c r="T40" t="n">
         <v>2</v>
@@ -3493,41 +3487,41 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251081</v>
+        <v>251467</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D41" t="n">
-        <v>42.42253521126761</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 08:53:15</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 09:30:15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 09:30:15</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:12:19</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3012</v>
+        <v>6226</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3536,80 +3530,73 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4668943533680556</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4668943533680556</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251109</v>
+        <v>244023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>266.5915492957747</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 11:12:19</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 11:45:19</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 11:45:19</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:01:40</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>18928</v>
+        <v>997</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3618,11 +3605,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3635,56 +3622,56 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-221.5011612021875</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-221.5011612021875</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251520</v>
+        <v>251651</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>230.1408450704225</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 12:01:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 12:43:40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 12:43:40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-13 09:31:22</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3693,14 +3680,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N43" t="n">
+        <v>39755</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3714,18 +3704,18 @@
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>-0.3967896174884259</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-1.354968701099537</v>
+        <v>-0.3967896174884259</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251651</v>
+        <v>251283</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3733,33 +3723,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>767.7049180327868</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 09:31:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 10:13:22</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 10:13:22</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 10:25:44</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>46830</v>
+        <v>754</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3768,17 +3758,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3788,22 +3775,22 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-56.4345400728588</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-56.4345400728588</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>244023</v>
+        <v>251464</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3811,33 +3798,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
-        <v>16.34426229508197</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 10:25:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 10:54:44</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 10:54:44</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:02</t>
+          <t>2025-05-13 12:52:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>997</v>
+        <v>7153</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3850,7 +3837,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3863,14 +3850,14 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-225.3452982695833</v>
+        <v>-4.536111111111111</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-224.5521174863426</v>
+        <v>-4.536111111111111</v>
       </c>
       <c r="T45" t="n">
         <v>1</v>
@@ -3878,7 +3865,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251346</v>
+        <v>251374</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3886,33 +3873,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>63.26229508196721</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:15:02</t>
+          <t>2025-05-13 12:52:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:02</t>
+          <t>2025-05-13 13:23:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 13:44:02</t>
+          <t>2025-05-13 13:23:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:18</t>
+          <t>2025-05-14 12:51:14</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3859</v>
+        <v>27343</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3921,11 +3908,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
@@ -3938,22 +3925,22 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-14.61618852459491</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251283</v>
+        <v>245089</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3961,33 +3948,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>12.36065573770492</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 14:47:18</t>
+          <t>2025-05-14 12:51:14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-14 13:37:14</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:16:18</t>
+          <t>2025-05-14 13:37:14</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-21 07:08:08</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3996,14 +3983,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4013,14 +4000,14 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-56.37124316939815</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-56.31157786885417</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4028,41 +4015,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251464</v>
+        <v>251225</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>117.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:28:40</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:40</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4071,31 +4058,36 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-4.472814207650463</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-4.413148907106482</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T48" t="n">
         <v>1</v>
@@ -4103,41 +4095,41 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251467</v>
+        <v>251227</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>102.0655737704918</v>
+        <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 10:23:56</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>6226</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4146,31 +4138,36 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-4.563831967210648</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-4.504166666666666</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4178,41 +4175,41 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>245089</v>
+        <v>251782</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>2010.901639344262</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 12:50:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-19 14:20:54</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>122665</v>
+        <v>12073</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4221,31 +4218,36 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>76</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T50" t="n">
         <v>1</v>
@@ -4253,7 +4255,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251225</v>
+        <v>251340</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4261,33 +4263,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>32800</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4296,44 +4298,39 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>76</v>
       </c>
-      <c r="N51" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-14.31945422534722</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251227</v>
+        <v>243569</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4341,33 +4338,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4380,40 +4377,35 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
-      <c r="N52" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-238.3566999217477</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4421,33 +4413,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D53" t="n">
-        <v>170.0422535211268</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4456,44 +4448,39 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
-      </c>
-      <c r="N53" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-108.3039906103241</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251340</v>
+        <v>243335</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4501,33 +4488,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>461.9718309859155</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>32800</v>
+        <v>33004</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4536,14 +4523,14 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4553,22 +4540,22 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-14.31945422534722</v>
+        <v>-285.306660798125</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>243569</v>
+        <v>251750</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4579,30 +4566,30 @@
         <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>36.63380281690141</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2601</v>
+        <v>3891</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4618,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4628,22 +4615,22 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>245623</v>
+        <v>251987</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4651,33 +4638,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
-        <v>372.0985915492957</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>26419</v>
+        <v>210526</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4686,14 +4673,14 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4703,22 +4690,22 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>243335</v>
+        <v>245090</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4726,33 +4713,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>464.8450704225352</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-22 10:51:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-06-12 12:09:16</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>33004</v>
+        <v>516718</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4765,10 +4752,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4778,14 +4765,14 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
@@ -4793,67 +4780,74 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251750</v>
+        <v>251706</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>54.80281690140845</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3891</v>
+        <v>3200</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4863,46 +4857,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>245090</v>
+        <v>251164</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>7277.718309859155</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:23</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:07:23</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-06-04 10:25:06</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>516718</v>
+        <v>10000</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4911,73 +4905,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
-        <v>76</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251456</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-06-04 10:25:06</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-06-04 10:42:06</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-06-04 10:42:06</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-06-12 12:07:16</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>8999</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4986,31 +4985,36 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5018,74 +5022,70 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251706</v>
+        <v>251416</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>50.79365079365079</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:52:44</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3200</v>
+        <v>11222</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N61" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
@@ -5095,46 +5095,46 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251455</v>
+        <v>251626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>82.765625</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 12:21:45</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>5297</v>
+        <v>12500</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5147,32 +5147,27 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-12.35892857142361</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5180,41 +5175,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251391</v>
+        <v>251373</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>91.640625</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 08:36:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 09:21:51</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-13 07:10:42</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5865</v>
+        <v>17094</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5232,35 +5227,30 @@
       <c r="M63" t="n">
         <v>70</v>
       </c>
-      <c r="N63" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-15.2991071428588</v>
       </c>
       <c r="T63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251395</v>
+        <v>251455</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5268,33 +5258,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5307,7 +5297,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5325,14 +5315,14 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -5340,7 +5330,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251371</v>
+        <v>251391</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5348,33 +5338,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5387,15 +5377,13 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N65" t="n">
+        <v>39749</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5403,18 +5391,18 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
@@ -5422,7 +5410,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5430,29 +5418,29 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
         <v>35.34375</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5487,14 +5475,14 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T66" t="n">
         <v>7</v>
@@ -5502,7 +5490,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251548</v>
+        <v>251371</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5513,30 +5501,30 @@
         <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5554,8 +5542,10 @@
       <c r="M67" t="n">
         <v>70</v>
       </c>
-      <c r="N67" t="n">
-        <v>39749</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5563,18 +5553,18 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
@@ -5582,7 +5572,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>250923</v>
+        <v>251396</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5590,33 +5580,33 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>109.46875</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>7006</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5625,14 +5615,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N68" t="n">
         <v>39749</v>
@@ -5647,22 +5637,22 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5673,30 +5663,30 @@
         <v>19</v>
       </c>
       <c r="D69" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5705,17 +5695,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N69" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5723,26 +5713,26 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251564</v>
+        <v>250923</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5750,33 +5740,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D70" t="n">
-        <v>42.453125</v>
+        <v>109.46875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2717</v>
+        <v>7006</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5785,39 +5775,44 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N70" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251546</v>
+        <v>251477</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5828,30 +5823,30 @@
         <v>19</v>
       </c>
       <c r="D71" t="n">
-        <v>101.03125</v>
+        <v>468.734375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6466</v>
+        <v>29999</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5860,39 +5855,44 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>70</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N71" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251245</v>
+        <v>251564</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5900,33 +5900,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>11.78125</v>
+        <v>42.453125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:20:41</t>
+          <t>2025-05-09 11:21:12</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:28</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>754</v>
+        <v>2717</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5935,11 +5935,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5952,22 +5952,22 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-42.60588107638889</v>
+        <v>-2.5025390625</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251743</v>
+        <v>251546</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5978,30 +5978,30 @@
         <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>168.375</v>
+        <v>101.03125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 14:32:28</t>
+          <t>2025-05-09 12:03:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 14:51:28</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 14:51:28</t>
+          <t>2025-05-09 12:22:39</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:50</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>10776</v>
+        <v>6466</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6027,17 +6027,17 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>-9.585894097222223</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -6050,29 +6050,29 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
         <v>84.921875</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:50</t>
+          <t>2025-05-09 14:03:41</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-12 09:56:50</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-12 09:56:50</t>
+          <t>2025-05-09 14:22:41</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6109,7 +6109,7 @@
         <v>-14.48929924241898</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-14.47344835069444</v>
+        <v>-14.32472873263889</v>
       </c>
       <c r="T74" t="n">
         <v>4</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251562</v>
+        <v>251245</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6125,33 +6125,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>127.21875</v>
+        <v>11.78125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:45</t>
+          <t>2025-05-12 08:08:36</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:38:45</t>
+          <t>2025-05-12 08:08:36</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:59</t>
+          <t>2025-05-12 08:20:23</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8142</v>
+        <v>754</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6160,11 +6160,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6177,14 +6177,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-46.368359375</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-45.34749348958334</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251462</v>
+        <v>251463</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6200,33 +6200,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>97.28125</v>
+        <v>108.859375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:59</t>
+          <t>2025-05-12 08:20:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 14:00:59</t>
+          <t>2025-05-12 08:39:23</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 14:00:59</t>
+          <t>2025-05-12 08:39:23</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:15</t>
+          <t>2025-05-12 10:28:15</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6226</v>
+        <v>6967</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>-4.457150607638889</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-4.318240017361111</v>
+        <v>-3.436284722222222</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6278,30 +6278,30 @@
         <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>108.859375</v>
+        <v>97.28125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:15</t>
+          <t>2025-05-12 10:28:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:15</t>
+          <t>2025-05-12 10:47:15</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:15</t>
+          <t>2025-05-12 10:47:15</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 09:46:07</t>
+          <t>2025-05-12 12:24:31</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>-4.537901475694444</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-4.40703125</v>
+        <v>-3.517035590277778</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251374</v>
+        <v>251562</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6350,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>427.234375</v>
+        <v>127.21875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 09:46:07</t>
+          <t>2025-05-12 12:24:31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:07</t>
+          <t>2025-05-12 12:39:31</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:07</t>
+          <t>2025-05-12 12:39:31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:14:21</t>
+          <t>2025-05-12 14:46:45</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>27343</v>
+        <v>8142</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,11 +6385,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251260</v>
+        <v>251580</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6425,33 +6425,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>146.390625</v>
+        <v>111.765625</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:14:21</t>
+          <t>2025-05-12 14:46:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:21</t>
+          <t>2025-05-13 07:05:45</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:31:21</t>
+          <t>2025-05-13 07:05:45</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-14 11:57:45</t>
+          <t>2025-05-13 08:57:30</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9369</v>
+        <v>7153</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6460,11 +6460,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>70</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6500,29 +6500,29 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
         <v>247.8125</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-14 11:57:45</t>
+          <t>2025-05-13 08:57:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:45</t>
+          <t>2025-05-13 09:16:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-14 12:12:45</t>
+          <t>2025-05-13 09:16:30</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-15 08:20:33</t>
+          <t>2025-05-13 13:24:19</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -6567,7 +6567,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251062</v>
+        <v>251252</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6578,30 +6578,30 @@
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>353.5</v>
+        <v>235.671875</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:20:33</t>
+          <t>2025-05-13 13:24:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:35:33</t>
+          <t>2025-05-13 13:39:19</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-15 08:35:33</t>
+          <t>2025-05-13 13:39:19</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-15 14:29:03</t>
+          <t>2025-05-14 09:35:00</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>22624</v>
+        <v>15083</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251249</v>
+        <v>251247</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>30.5</v>
       </c>
       <c r="D86" t="n">
-        <v>86.50909090909092</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6977,11 +6977,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:40</t>
+          <t>2025-05-14 07:11:52</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4758</v>
+        <v>26934</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -7007,14 +7007,14 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-5.3925</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-5.299917929293981</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -7037,22 +7037,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 08:28:40</t>
+          <t>2025-05-14 07:11:52</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:10</t>
+          <t>2025-05-14 07:58:22</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:10</t>
+          <t>2025-05-14 07:58:22</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:53</t>
+          <t>2025-05-15 07:20:05</t>
         </is>
       </c>
       <c r="I87" t="n">

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250670</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>22.65217391304348</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:35:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1563</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,73 +558,78 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-8.350425170069444</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-7.331702898553242</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251594</v>
+        <v>251416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>93.71014492753623</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 08:27:39</t>
+          <t>2025-05-08 10:57:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 08:27:39</t>
+          <t>2025-05-08 10:57:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:21</t>
+          <t>2025-05-08 13:35:58</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6466</v>
+        <v>11222</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,11 +642,14 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
+      <c r="N3" t="n">
+        <v>39755</v>
+      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -650,56 +658,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-5.559761345856481</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-5.417612721412037</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>271.5797101449276</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:01:21</t>
+          <t>2025-05-08 13:35:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:21</t>
+          <t>2025-05-08 14:11:58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 10:36:21</t>
+          <t>2025-05-08 14:11:58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:56</t>
+          <t>2025-05-12 08:35:22</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,31 +716,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -742,46 +746,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250641</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>74.14492753623189</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:07:56</t>
+          <t>2025-05-12 08:35:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:56</t>
+          <t>2025-05-12 09:07:22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:56</t>
+          <t>2025-05-12 09:07:22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:05</t>
+          <t>2025-05-12 10:21:59</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5116</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,69 +798,74 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-15.36771336554398</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-15.36603260869213</v>
+        <v>-5.431934663541667</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251246</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>173.9420289855072</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:47:05</t>
+          <t>2025-05-12 10:21:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:05</t>
+          <t>2025-05-12 10:51:59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:12:05</t>
+          <t>2025-05-12 10:51:59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:01</t>
+          <t>2025-05-12 12:50:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12002</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -865,31 +874,36 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-4.505867552337963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.504186795486111</v>
+        <v>-4.534908059467592</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -897,41 +911,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>245350</v>
+        <v>251225</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>405.3623188405797</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:06:01</t>
+          <t>2025-05-12 12:50:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:01</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 12:51:01</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 11:36:23</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>27970</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -940,73 +954,78 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-4.545324726134259</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>235572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:05:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 13:37:16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 13:37:16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:57:31</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>9958</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1015,78 +1034,73 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251475</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:57:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 08:14:31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 08:14:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 10:16:47</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>8681</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,74 +1113,69 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251561</v>
+        <v>251743</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>89.09836065573771</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 10:16:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-13 10:31:47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:03:31</t>
+          <t>2025-05-13 10:31:47</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-13 13:03:33</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5435</v>
+        <v>10776</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1179,7 +1188,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1192,56 +1201,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.465152550092593</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.564321493622685</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244204</v>
+        <v>244023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>56.91803278688525</v>
+        <v>14.04225352112676</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:37</t>
+          <t>2025-05-13 13:03:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-13 13:22:33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:57:37</t>
+          <t>2025-05-13 13:22:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-13 13:36:36</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3472</v>
+        <v>997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1254,7 +1263,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1267,56 +1276,56 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-4.580293715844907</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.6212090163888889</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251566</v>
+        <v>251245</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>112.9344262295082</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:54:32</t>
+          <t>2025-05-13 13:36:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-13 13:51:36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:32</t>
+          <t>2025-05-13 13:51:36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-13 14:02:13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6889</v>
+        <v>754</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,11 +1334,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1342,56 +1351,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.560940346087963</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.380191256828704</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251424</v>
+        <v>251246</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>158.3934426229508</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:07:28</t>
+          <t>2025-05-13 14:02:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:28</t>
+          <t>2025-05-13 14:17:13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 09:27:28</t>
+          <t>2025-05-13 14:17:13</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 12:05:52</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9662</v>
+        <v>12002</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1400,11 +1409,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1417,56 +1426,56 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-14.50895947177083</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-11.50407559199074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>244355</v>
+        <v>251580</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>70.65573770491804</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:05:52</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:25:52</t>
+          <t>2025-05-14 09:25:16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:25:52</t>
+          <t>2025-05-14 09:25:16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:31</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4310</v>
+        <v>7153</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1492,56 +1501,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-4.571914845173612</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.567030965393519</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251062</v>
+        <v>251260</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>370.8852459016393</v>
+        <v>131.9577464788732</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:36:31</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:06:31</t>
+          <t>2025-05-14 11:25:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:06:31</t>
+          <t>2025-05-14 11:25:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:24</t>
+          <t>2025-05-14 13:36:58</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>22624</v>
+        <v>9369</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1550,7 +1559,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1567,7 +1576,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
@@ -1582,41 +1591,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251485</v>
+        <v>251249</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>78.81967213114754</v>
+        <v>67.01408450704226</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:24</t>
+          <t>2025-05-14 13:36:58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:24</t>
+          <t>2025-05-14 13:51:58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:42:24</t>
+          <t>2025-05-14 13:51:58</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:13</t>
+          <t>2025-05-14 14:58:59</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4808</v>
+        <v>4758</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1625,11 +1634,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1642,56 +1651,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-20.31067850637731</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-19.58418715847222</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251061</v>
+        <v>251795</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>393.3934426229508</v>
+        <v>263.9295774647887</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:13</t>
+          <t>2025-05-14 14:58:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:13</t>
+          <t>2025-05-15 07:13:59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:13</t>
+          <t>2025-05-15 07:13:59</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:37</t>
+          <t>2025-05-15 11:37:54</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>23997</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1717,14 +1726,14 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-9.389824263043982</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-8.541404826956018</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1732,7 +1741,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251795</v>
+        <v>251557</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1743,30 +1752,30 @@
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>307.1967213114754</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-13 12:59:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:37</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:19:37</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:49</t>
+          <t>2025-05-08 09:09:55</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18739</v>
+        <v>6705</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1792,7 +1801,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1807,7 +1816,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251743</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1815,33 +1824,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>176.655737704918</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:49</t>
+          <t>2025-05-08 09:09:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:56:49</t>
+          <t>2025-05-08 09:44:55</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 10:56:49</t>
+          <t>2025-05-08 09:44:55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:28</t>
+          <t>2025-05-08 11:18:35</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10776</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1854,35 +1863,40 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.4712431693981481</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.4712431693981481</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251761</v>
+        <v>251561</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1893,30 +1907,30 @@
         <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>217.6885245901639</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 13:53:28</t>
+          <t>2025-05-08 11:18:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 14:13:28</t>
+          <t>2025-05-08 11:38:35</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 14:13:28</t>
+          <t>2025-05-08 11:38:35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-15 09:51:09</t>
+          <t>2025-05-08 13:07:41</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13279</v>
+        <v>5435</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1929,7 +1943,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1942,7 +1956,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
@@ -1952,12 +1966,12 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251519</v>
+        <v>251742</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1965,33 +1979,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>215.983606557377</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-15 09:51:09</t>
+          <t>2025-05-08 13:07:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:09</t>
+          <t>2025-05-08 13:32:41</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-15 10:21:09</t>
+          <t>2025-05-08 13:32:41</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-15 13:57:08</t>
+          <t>2025-05-09 07:47:32</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>13175</v>
+        <v>8226</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2004,27 +2018,32 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-2.324681238611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0</v>
+        <v>-2.324681238611111</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2032,41 +2051,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251547</v>
+        <v>251229</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>184.9154929577465</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:47:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:17:32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 08:17:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 13:24:44</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13129</v>
+        <v>18739</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2075,17 +2094,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39749</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2093,60 +2114,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250759</v>
+        <v>251259</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>118.2816901408451</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 13:24:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 13:59:44</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 13:59:44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:21:42</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>8398</v>
+        <v>5000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2155,78 +2176,73 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250894</v>
+        <v>251464</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>623.4084507042254</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-12 07:21:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 08:06:42</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-12 08:06:42</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:03:58</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>44262</v>
+        <v>7153</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2235,17 +2251,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2255,7 +2268,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
@@ -2265,46 +2278,46 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>235572</v>
+        <v>251846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>140.2535211267606</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 10:03:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 10:33:58</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:17:36</t>
+          <t>2025-05-12 10:33:58</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 13:40:43</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9958</v>
+        <v>11392</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2313,11 +2326,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2330,56 +2343,56 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-553.4429577464815</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251475</v>
+        <v>244355</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>122.2676056338028</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:37:51</t>
+          <t>2025-05-12 13:40:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 14:10:43</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 10:54:51</t>
+          <t>2025-05-12 14:10:43</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 07:21:22</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8681</v>
+        <v>4310</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2405,14 +2418,14 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-12.53967136150463</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>4</v>
@@ -2420,41 +2433,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251809</v>
+        <v>251424</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>122.2676056338028</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:57:07</t>
+          <t>2025-05-13 07:21:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 07:41:22</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 13:12:07</t>
+          <t>2025-05-13 07:41:22</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 10:19:46</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2480,7 +2493,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
@@ -2495,41 +2508,41 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251259</v>
+        <v>251566</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>70.4225352112676</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:14:23</t>
+          <t>2025-05-13 10:19:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 10:39:46</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 07:39:23</t>
+          <t>2025-05-13 10:39:46</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 12:32:42</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5000</v>
+        <v>6889</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2542,7 +2555,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2555,56 +2568,56 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-7.367928403761574</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251466</v>
+        <v>251485</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>78.40845070422536</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:49</t>
+          <t>2025-05-13 12:32:42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 12:57:42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:49</t>
+          <t>2025-05-13 12:57:42</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 14:16:31</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5567</v>
+        <v>4808</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2617,7 +2630,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2630,56 +2643,56 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-4.441128716747685</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251465</v>
+        <v>251062</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>87.69014084507042</v>
+        <v>370.8852459016393</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:35:13</t>
+          <t>2025-05-13 14:16:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 14:41:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 10:52:13</t>
+          <t>2025-05-13 14:41:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-14 12:52:24</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6226</v>
+        <v>22624</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2688,11 +2701,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2705,14 +2718,14 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-4.513830203437499</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2720,41 +2733,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251557</v>
+        <v>251477</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>94.43661971830986</v>
+        <v>434.768115942029</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:54</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-13 12:34:54</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6705</v>
+        <v>29999</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2763,31 +2776,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>70</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N31" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-5.614422302743056</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -2795,41 +2813,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251846</v>
+        <v>245350</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D32" t="n">
-        <v>160.4507042253521</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:09:21</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:21</t>
+          <t>2025-05-13 07:49:46</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:24:21</t>
+          <t>2025-05-13 07:49:46</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-14 09:04:48</t>
+          <t>2025-05-13 14:35:07</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11392</v>
+        <v>27970</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2838,11 +2856,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2855,7 +2873,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2870,41 +2888,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251260</v>
+        <v>250641</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
-        <v>131.9577464788732</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:04:48</t>
+          <t>2025-05-13 14:35:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:48</t>
+          <t>2025-05-14 07:20:07</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 09:27:48</t>
+          <t>2025-05-14 07:20:07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:45</t>
+          <t>2025-05-14 08:34:16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9369</v>
+        <v>5116</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2913,7 +2931,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2930,7 +2948,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
@@ -2940,46 +2958,46 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251249</v>
+        <v>251463</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>67.01408450704226</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:39:45</t>
+          <t>2025-05-14 08:34:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:45</t>
+          <t>2025-05-14 09:09:16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 11:54:45</t>
+          <t>2025-05-14 09:09:16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 13:01:46</t>
+          <t>2025-05-14 10:50:14</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4758</v>
+        <v>6967</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2988,11 +3006,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3005,7 +3023,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
@@ -3020,41 +3038,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251050</v>
+        <v>251462</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-14 10:50:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 11:25:14</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 11:25:14</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 12:55:28</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3063,78 +3081,73 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
       </c>
-      <c r="N35" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251054</v>
+        <v>251562</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-14 12:55:28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 13:20:28</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-14 13:20:28</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 07:18:28</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8142</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3143,78 +3156,73 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
       </c>
-      <c r="N36" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251081</v>
+        <v>251251</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D37" t="n">
-        <v>42.42253521126761</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-15 07:18:28</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 08:03:28</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-15 08:03:28</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-15 11:53:20</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3012</v>
+        <v>15860</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3223,80 +3231,73 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251109</v>
+        <v>251396</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D38" t="n">
-        <v>266.5915492957747</v>
+        <v>37.08196721311475</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 14:54:25</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>18928</v>
+        <v>2262</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3305,73 +3306,78 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
+      <c r="N38" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-25.47753325508102</v>
+        <v>-1.390755208333333</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-24.47292644756944</v>
+        <v>-2.349362477233796</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251520</v>
+        <v>251651</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>230.1408450704225</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 11:21:00</t>
+          <t>2025-05-09 08:23:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 09:05:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 12:41:00</t>
+          <t>2025-05-09 09:05:04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:09</t>
+          <t>2025-05-12 13:52:47</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3380,14 +3386,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39755</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3401,18 +3410,18 @@
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-2.359575508611111</v>
+        <v>0</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-1.354968701099537</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251346</v>
+        <v>244204</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3420,33 +3429,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>63.26229508196721</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 13:52:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:00</t>
+          <t>2025-05-12 14:34:47</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-09 07:50:00</t>
+          <t>2025-05-12 14:34:47</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-09 08:53:15</t>
+          <t>2025-05-13 07:31:42</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3859</v>
+        <v>3472</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3459,7 +3468,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3472,22 +3481,22 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.31380919854167</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-11.37032103825231</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251467</v>
+        <v>251346</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3495,33 +3504,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0655737704918</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 08:53:15</t>
+          <t>2025-05-13 07:31:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:15</t>
+          <t>2025-05-13 08:04:42</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:15</t>
+          <t>2025-05-13 08:04:42</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:19</t>
+          <t>2025-05-13 09:07:58</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>6226</v>
+        <v>3859</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3534,7 +3543,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3547,22 +3556,22 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.4668943533680556</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.4668943533680556</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>244023</v>
+        <v>251761</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3573,30 +3582,30 @@
         <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>16.34426229508197</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:19</t>
+          <t>2025-05-13 09:07:58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:19</t>
+          <t>2025-05-13 09:40:58</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:45:19</t>
+          <t>2025-05-13 09:40:58</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 12:01:40</t>
+          <t>2025-05-13 13:18:39</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>997</v>
+        <v>13279</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3609,7 +3618,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
@@ -3622,22 +3631,22 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-221.5011612021875</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-221.5011612021875</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251651</v>
+        <v>251374</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3645,33 +3654,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>767.7049180327868</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:01:40</t>
+          <t>2025-05-13 13:18:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:40</t>
+          <t>2025-05-13 13:49:39</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 12:43:40</t>
+          <t>2025-05-13 13:49:39</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:22</t>
+          <t>2025-05-14 13:17:54</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>46830</v>
+        <v>27343</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3680,17 +3689,14 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M43" t="n">
-        <v>76</v>
-      </c>
-      <c r="N43" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3700,22 +3706,22 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.3967896174884259</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-0.3967896174884259</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251283</v>
+        <v>245089</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3723,33 +3729,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D44" t="n">
-        <v>12.36065573770492</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-13 09:31:22</t>
+          <t>2025-05-14 13:17:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:22</t>
+          <t>2025-05-14 14:03:54</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:13:22</t>
+          <t>2025-05-14 14:03:54</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:44</t>
+          <t>2025-05-21 07:34:48</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>754</v>
+        <v>122665</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3775,14 +3781,14 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-56.4345400728588</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-56.4345400728588</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>1</v>
@@ -3790,41 +3796,41 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251464</v>
+        <v>251050</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="D45" t="n">
-        <v>117.2622950819672</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:25:44</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 10:54:44</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>7153</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3833,73 +3839,78 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-4.536111111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-4.536111111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251374</v>
+        <v>251054</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 13:23:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:14</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3908,73 +3919,78 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="N46" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>245089</v>
+        <v>251371</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D47" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:14</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:14</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:14</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-21 07:08:08</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3983,73 +3999,80 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>76</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-15.60902777777778</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251225</v>
+        <v>251081</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 14:37:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:32:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 09:14:25</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4058,17 +4081,19 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M48" t="n">
-        <v>76</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4076,60 +4101,60 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-19.38501564945602</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251227</v>
+        <v>251519</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 09:14:25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:19:25</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 11:19:25</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:24:59</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4138,78 +4163,73 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>76</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251782</v>
+        <v>251594</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D50" t="n">
-        <v>170.0422535211268</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 14:24:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:09:59</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-13 07:09:59</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 08:41:03</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12073</v>
+        <v>6466</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4218,78 +4238,73 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>76</v>
-      </c>
-      <c r="N50" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251340</v>
+        <v>251109</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D51" t="n">
-        <v>461.9718309859155</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-13 08:41:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 10:16:03</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-13 10:16:03</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 14:42:38</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>32800</v>
+        <v>18928</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4298,73 +4313,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L51" t="n">
+        <v>16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2025-04-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
         <v>2</v>
-      </c>
-      <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>-14.31945422534722</v>
-      </c>
-      <c r="S51" s="1" t="n">
-        <v>-14.31945422534722</v>
-      </c>
-      <c r="T51" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>243569</v>
+        <v>251467</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D52" t="n">
-        <v>36.63380281690141</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 14:42:38</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 08:27:38</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-14 08:27:38</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-14 09:55:20</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2601</v>
+        <v>6226</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4390,22 +4405,22 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-238.3566999217477</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>245623</v>
+        <v>251227</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4413,33 +4428,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>372.0985915492957</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>26419</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4452,35 +4467,40 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>152</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-0.5552734375</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-108.3039906103241</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>243335</v>
+        <v>251782</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4488,33 +4508,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>464.8450704225352</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>33004</v>
+        <v>12073</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4523,31 +4543,36 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N54" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-285.306660798125</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="T54" t="n">
         <v>1</v>
@@ -4555,7 +4580,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251750</v>
+        <v>251340</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4566,30 +4591,30 @@
         <v>17</v>
       </c>
       <c r="D55" t="n">
-        <v>54.80281690140845</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-09 07:43:02</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:25:00</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3891</v>
+        <v>32800</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4598,14 +4623,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4615,7 +4640,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
@@ -4625,12 +4650,12 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251987</v>
+        <v>243569</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4638,33 +4663,33 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>2965.154929577465</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-12 07:25:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-12 07:42:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-12 07:42:00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:18:38</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>210526</v>
+        <v>2601</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4673,11 +4698,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M56" t="n">
         <v>76</v>
@@ -4690,7 +4715,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
@@ -4700,12 +4725,12 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>245090</v>
+        <v>245623</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4713,33 +4738,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>7277.718309859155</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:18:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-12 08:50:38</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:51:32</t>
+          <t>2025-05-12 08:50:38</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-06-12 12:09:16</t>
+          <t>2025-05-13 07:02:44</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>516718</v>
+        <v>26419</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4752,10 +4777,10 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4765,7 +4790,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4775,79 +4800,72 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251706</v>
+        <v>243335</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D58" t="n">
-        <v>50.79365079365079</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:02:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:21:44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-13 07:21:44</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-14 07:06:35</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3200</v>
+        <v>33004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4857,46 +4875,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251164</v>
+        <v>251750</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>204.0816326530612</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 07:06:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 07:23:35</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 07:23:35</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:18:23</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>10000</v>
+        <v>3891</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4905,78 +4923,73 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251456</v>
+        <v>251987</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>183.6530612244898</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-14 08:18:23</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 08:54:23</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-14 08:54:23</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-22 10:19:32</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>8999</v>
+        <v>210526</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4985,36 +4998,31 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
         <v>1</v>
@@ -5022,7 +5030,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251416</v>
+        <v>251391</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5030,33 +5038,33 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>229.0204081632653</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:44</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>11222</v>
+        <v>5865</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5069,19 +5077,21 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
       <c r="N61" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5089,18 +5099,18 @@
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251626</v>
+        <v>251456</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5108,33 +5118,33 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>255.1020408163265</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-08 10:34:41</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:45</t>
+          <t>2025-05-08 10:34:41</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-08 13:38:20</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12500</v>
+        <v>8999</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5152,30 +5162,35 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
+      <c r="N62" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-2.568296485266204</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-12.35892857142361</v>
+        <v>-2.568296485266204</v>
       </c>
       <c r="T62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251373</v>
+        <v>251626</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5183,33 +5198,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
-        <v>348.8571428571428</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:36:51</t>
+          <t>2025-05-08 13:38:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-08 14:13:20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:21:51</t>
+          <t>2025-05-08 14:13:20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:10:42</t>
+          <t>2025-05-09 10:28:26</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>17094</v>
+        <v>12500</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5222,7 +5237,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5235,56 +5250,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>0</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-15.2991071428588</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 10:28:26</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 11:18:26</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 11:18:26</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:42:31</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5297,7 +5312,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5315,56 +5330,56 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-2.612868480729166</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-2.612868480729166</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251391</v>
+        <v>251373</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>91.640625</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 14:42:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 07:22:31</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5865</v>
+        <v>17094</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5382,69 +5397,64 @@
       <c r="M65" t="n">
         <v>70</v>
       </c>
-      <c r="N65" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251395</v>
+        <v>251564</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>35.34375</v>
+        <v>55.44897959183673</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 13:56:23</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 13:56:23</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:51:50</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2262</v>
+        <v>2717</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5457,74 +5467,69 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
       </c>
-      <c r="N66" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251371</v>
+        <v>250670</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 14:51:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:33:50</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 07:33:50</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 08:05:44</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5533,80 +5538,73 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>70</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251396</v>
+        <v>251247</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-13 08:05:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:52:44</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-13 08:52:44</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-14 10:02:24</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>26934</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5615,7 +5613,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5624,35 +5622,30 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251548</v>
+        <v>251395</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5660,33 +5653,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5699,7 +5692,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
@@ -5717,14 +5710,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.3321831597222222</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5747,22 +5740,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 07:58:20</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 08:30:20</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 10:19:48</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5801,10 +5794,10 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.4304253472222222</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.4304253472222222</v>
       </c>
       <c r="T70" t="n">
         <v>2</v>
@@ -5812,7 +5805,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5820,33 +5813,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D71" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 10:19:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 10:51:48</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 10:51:48</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-07 14:18:43</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5855,17 +5848,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N71" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -5873,26 +5866,26 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.5963324652777777</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.5963324652777777</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251564</v>
+        <v>251546</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5900,33 +5893,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>42.453125</v>
+        <v>101.03125</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-07 14:18:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-07 14:35:43</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:12</t>
+          <t>2025-05-07 14:35:43</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 08:16:45</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2717</v>
+        <v>6466</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5939,7 +5932,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5952,22 +5945,22 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-2.5025390625</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251546</v>
+        <v>245275</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5975,33 +5968,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D73" t="n">
-        <v>101.03125</v>
+        <v>379.59375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:03:39</t>
+          <t>2025-05-08 08:16:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 08:49:45</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:39</t>
+          <t>2025-05-08 08:49:45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 07:09:20</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6466</v>
+        <v>24294</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6010,11 +6003,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6027,14 +6020,14 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-9.585894097222223</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
         <v>7</v>
@@ -6042,7 +6035,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251397</v>
+        <v>251809</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6050,33 +6043,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>84.921875</v>
+        <v>135.640625</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:03:41</t>
+          <t>2025-05-09 07:09:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 07:44:20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 14:22:41</t>
+          <t>2025-05-09 07:44:20</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:59:59</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5435</v>
+        <v>8681</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6089,7 +6082,7 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6102,14 +6095,14 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-14.48929924241898</v>
+        <v>0</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-14.32472873263889</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
         <v>4</v>
@@ -6117,7 +6110,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251245</v>
+        <v>251283</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6125,29 +6118,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
         <v>11.78125</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:59:59</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:36</t>
+          <t>2025-05-09 10:18:59</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:08:36</t>
+          <t>2025-05-09 10:18:59</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:23</t>
+          <t>2025-05-09 10:30:45</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6177,14 +6170,14 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-46.368359375</v>
+        <v>0</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-45.34749348958334</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
         <v>1</v>
@@ -6192,7 +6185,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251463</v>
+        <v>251061</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6200,33 +6193,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>108.859375</v>
+        <v>374.953125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:23</t>
+          <t>2025-05-09 10:30:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:23</t>
+          <t>2025-05-09 10:45:45</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 08:39:23</t>
+          <t>2025-05-09 10:45:45</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:15</t>
+          <t>2025-05-12 09:00:43</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6967</v>
+        <v>23997</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6235,11 +6228,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6252,14 +6245,14 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-4.457150607638889</v>
+        <v>0</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-3.436284722222222</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
         <v>1</v>
@@ -6267,7 +6260,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251462</v>
+        <v>251252</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6275,33 +6268,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>97.28125</v>
+        <v>235.671875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:28:15</t>
+          <t>2025-05-12 09:00:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:15</t>
+          <t>2025-05-12 09:15:43</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 10:47:15</t>
+          <t>2025-05-12 09:15:43</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:31</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6226</v>
+        <v>15083</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6310,11 +6303,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6327,14 +6320,14 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-4.537901475694444</v>
+        <v>0</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-3.517035590277778</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
         <v>1</v>
@@ -6342,7 +6335,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251562</v>
+        <v>245090</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6350,33 +6343,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
-        <v>127.21875</v>
+        <v>8073.71875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:24:31</t>
+          <t>2025-05-12 13:11:23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:31</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 12:39:31</t>
+          <t>2025-05-12 13:43:23</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:45</t>
+          <t>2025-06-04 12:17:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>8142</v>
+        <v>516718</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6385,14 +6378,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6402,7 +6395,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6417,67 +6410,74 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251580</v>
+        <v>251706</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>111.765625</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-13 07:05:45</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:30</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>7153</v>
+        <v>3200</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6487,46 +6487,46 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251251</v>
+        <v>251284</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D80" t="n">
-        <v>247.8125</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:30</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:30</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:30</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:19</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>15860</v>
+        <v>16340</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6535,31 +6535,36 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M80" t="n">
         <v>70</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
+      <c r="N80" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6567,41 +6572,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251252</v>
+        <v>251505</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D81" t="n">
-        <v>235.671875</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:24:19</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:19</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-13 13:39:19</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-14 09:35:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15083</v>
+        <v>14255</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6610,11 +6615,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6627,7 +6632,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
@@ -6637,12 +6642,12 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251284</v>
+        <v>251397</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6650,33 +6655,33 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40.5</v>
+        <v>34.5</v>
       </c>
       <c r="D82" t="n">
-        <v>297.0909090909091</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>16340</v>
+        <v>5435</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6685,44 +6690,39 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
       </c>
-      <c r="N82" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251505</v>
+        <v>244354</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6730,33 +6730,33 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D83" t="n">
-        <v>259.1818181818182</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>14255</v>
+        <v>4310</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6782,22 +6782,22 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-7.396717171712963</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>244354</v>
+        <v>250819</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6805,33 +6805,33 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D84" t="n">
-        <v>78.36363636363636</v>
+        <v>155.0363636363636</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:46</t>
+          <t>2025-05-12 14:09:57</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:08</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>4310</v>
+        <v>8527</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6857,22 +6857,22 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-4.566287878784722</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-4.473705808078703</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>250819</v>
+        <v>251466</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6880,33 +6880,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D85" t="n">
-        <v>155.0363636363636</v>
+        <v>101.2181818181818</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:22:08</t>
+          <t>2025-05-13 08:44:59</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:56:38</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:56:38</t>
+          <t>2025-05-13 09:21:29</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:40</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>8527</v>
+        <v>5567</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6919,7 +6919,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6932,22 +6932,22 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-25.36457702019676</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-24.60532828282408</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251247</v>
+        <v>251465</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -6955,33 +6955,33 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="D86" t="n">
-        <v>489.7090909090909</v>
+        <v>113.2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:40</t>
+          <t>2025-05-13 11:02:42</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:10</t>
+          <t>2025-05-13 11:35:12</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>26934</v>
+        <v>6226</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6990,11 +6990,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-5.3925</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-5.299917929293981</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>245275</v>
+        <v>251520</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7030,33 +7030,33 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>46.5</v>
+        <v>40.5</v>
       </c>
       <c r="D87" t="n">
-        <v>441.7090909090909</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:52</t>
+          <t>2025-05-13 13:28:24</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:58:22</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 07:58:22</t>
+          <t>2025-05-13 14:08:54</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-15 07:20:05</t>
+          <t>2025-05-14 11:06:00</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>24294</v>
+        <v>16340</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.367087245694445</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>158.056338028169</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:57:54</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,38 +642,40 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-1.505917449143519</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,33 +683,33 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:35:58</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:11:58</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -716,42 +718,44 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.5267507824768519</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -759,33 +763,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>74.6056338028169</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:35:22</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:07:22</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -794,17 +798,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -812,26 +816,26 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-5.431934663541667</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,33 +843,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:21:59</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 10:51:59</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -874,44 +878,42 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-4.534908059467592</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251225</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -919,33 +921,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:50:16</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 12:46:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,39 +956,37 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-4.545324726134259</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1006,22 +1006,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:05:16</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 13:37:16</t>
+          <t>2025-05-12 08:19:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1057,10 +1057,7 @@
       <c r="R8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1081,22 +1078,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:31</t>
+          <t>2025-05-12 10:39:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-13 08:14:31</t>
+          <t>2025-05-12 10:56:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1132,10 +1129,7 @@
       <c r="R9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="S9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1156,22 +1150,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:47</t>
+          <t>2025-05-12 12:59:07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-13 10:31:47</t>
+          <t>2025-05-12 13:14:07</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1207,10 +1201,7 @@
       <c r="R10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="S10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1231,22 +1222,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:03:33</t>
+          <t>2025-05-13 07:45:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:22:33</t>
+          <t>2025-05-13 08:04:54</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1282,10 +1273,7 @@
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,22 +1294,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:36</t>
+          <t>2025-05-13 08:18:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 13:51:36</t>
+          <t>2025-05-13 08:33:56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1357,10 +1345,7 @@
       <c r="R12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
+      <c r="S12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,22 +1366,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:02:13</t>
+          <t>2025-05-13 08:44:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 14:17:13</t>
+          <t>2025-05-13 08:59:33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1432,10 +1417,7 @@
       <c r="R13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,22 +1438,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-13 11:48:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-14 09:25:16</t>
+          <t>2025-05-13 12:07:36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1507,10 +1489,7 @@
       <c r="R14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="S14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,22 +1510,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-13 13:48:21</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:00</t>
+          <t>2025-05-13 14:07:21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1582,10 +1561,7 @@
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="S15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,22 +1582,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:36:58</t>
+          <t>2025-05-14 08:19:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 13:51:58</t>
+          <t>2025-05-14 08:34:18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1657,10 +1633,7 @@
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="S16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1681,22 +1654,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 14:58:59</t>
+          <t>2025-05-14 09:41:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-15 07:13:59</t>
+          <t>2025-05-14 09:56:19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-15 11:37:54</t>
+          <t>2025-05-14 14:20:15</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1732,16 +1705,13 @@
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="S17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251557</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1749,10 +1719,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>109.9180327868852</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1761,21 +1731,21 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:09:55</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6705</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,16 +1758,21 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1805,13 +1780,13 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1824,29 +1799,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
         <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:09:55</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:55</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:55</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:18:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1885,10 +1860,10 @@
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4712431693981481</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4712431693981481</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
@@ -1896,7 +1871,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251561</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1904,33 +1879,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>89.09836065573771</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:18:35</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:38:35</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:38:35</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:41</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1939,24 +1914,31 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
@@ -1966,12 +1948,12 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251742</v>
+        <v>251561</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1982,30 +1964,30 @@
         <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>134.8524590163935</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:41</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:41</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:32:41</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:32</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8226</v>
+        <v>5435</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2018,40 +2000,32 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.324681238611111</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-2.324681238611111</v>
-      </c>
-      <c r="T21" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251566</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2059,33 +2033,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>307.1967213114754</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:32</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:17:32</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 08:17:32</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:44</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>6889</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2094,46 +2068,36 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
+      <c r="S22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251259</v>
+        <v>251846</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2141,33 +2105,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>81.9672131147541</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:24:44</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:44</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:44</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:42</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5000</v>
+        <v>11392</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2180,7 +2144,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2193,22 +2157,19 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2</v>
+      <c r="S23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251464</v>
+        <v>251424</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2216,33 +2177,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>117.2622950819672</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 07:21:42</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:06:42</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:06:42</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:58</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7153</v>
+        <v>9662</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2268,22 +2229,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
+      <c r="S24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251846</v>
+        <v>244355</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2291,33 +2249,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>186.7540983606557</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:03:58</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:33:58</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 10:33:58</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:43</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11392</v>
+        <v>4310</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2330,7 +2288,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2343,22 +2301,19 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>7</v>
+      <c r="S25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>244355</v>
+        <v>251485</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2366,33 +2321,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>70.65573770491804</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:40:43</t>
+          <t>2025-05-12 13:43:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:43</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:10:43</t>
+          <t>2025-05-12 14:08:33</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:22</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4310</v>
+        <v>4808</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2405,7 +2360,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
@@ -2418,22 +2373,19 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>4</v>
+      <c r="S26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251424</v>
+        <v>251259</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2441,33 +2393,33 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>158.3934426229508</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:22</t>
+          <t>2025-05-13 07:27:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:22</t>
+          <t>2025-05-13 08:07:22</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:41:22</t>
+          <t>2025-05-13 08:07:22</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:46</t>
+          <t>2025-05-13 09:29:20</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>9662</v>
+        <v>5000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2480,7 +2432,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2493,22 +2445,19 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4</v>
+      <c r="S27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251566</v>
+        <v>251464</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2516,33 +2465,33 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
-        <v>112.9344262295082</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:19:46</t>
+          <t>2025-05-13 09:29:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:46</t>
+          <t>2025-05-13 10:14:20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:39:46</t>
+          <t>2025-05-13 10:14:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 12:32:42</t>
+          <t>2025-05-13 12:11:36</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>6889</v>
+        <v>7153</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2568,22 +2517,19 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8</v>
+      <c r="S28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251485</v>
+        <v>251557</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2591,33 +2537,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>78.81967213114754</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:32:42</t>
+          <t>2025-05-13 12:11:36</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:57:42</t>
+          <t>2025-05-13 12:41:36</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:57:42</t>
+          <t>2025-05-13 12:41:36</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:31</t>
+          <t>2025-05-13 14:31:31</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4808</v>
+        <v>6705</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2630,7 +2576,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2643,17 +2589,14 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
+      <c r="S29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2666,29 +2609,29 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D30" t="n">
         <v>370.8852459016393</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:16:31</t>
+          <t>2025-05-13 14:31:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:31</t>
+          <t>2025-05-14 07:11:31</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:31</t>
+          <t>2025-05-14 07:11:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-14 12:52:24</t>
+          <t>2025-05-14 13:22:24</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2724,16 +2667,13 @@
       <c r="R30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251477</v>
+        <v>245350</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2741,10 +2681,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>434.768115942029</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2753,21 +2693,21 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:30:00</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>29999</v>
+        <v>27970</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2776,44 +2716,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M31" t="n">
-        <v>76</v>
-      </c>
-      <c r="N31" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S31" s="1" t="n">
-        <v>-5.614422302743056</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>245350</v>
+        <v>250641</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2821,33 +2753,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>405.3623188405797</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:44:46</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:49:46</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>27970</v>
+        <v>5116</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2856,11 +2788,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2873,22 +2805,19 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>7</v>
+      <c r="S32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250641</v>
+        <v>251463</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2896,33 +2825,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
-        <v>74.14492753623189</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 14:35:07</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-14 07:20:07</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5116</v>
+        <v>6967</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2935,7 +2864,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2948,22 +2877,19 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2</v>
+      <c r="S33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251463</v>
+        <v>251462</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2974,30 +2900,30 @@
         <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9710144927536</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:16</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:16</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6967</v>
+        <v>6226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3010,7 +2936,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -3029,16 +2955,13 @@
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251462</v>
+        <v>251562</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3046,33 +2969,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>90.23188405797102</v>
+        <v>118</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 10:50:14</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:25:14</t>
+          <t>2025-05-13 13:35:42</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6226</v>
+        <v>8142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3098,22 +3021,19 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251562</v>
+        <v>251251</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3121,33 +3041,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D36" t="n">
-        <v>118</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:55:28</t>
+          <t>2025-05-14 07:33:42</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 13:20:28</t>
+          <t>2025-05-14 08:18:42</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-14 12:08:33</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8142</v>
+        <v>15860</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3156,11 +3076,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3173,56 +3093,53 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
+      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251251</v>
+        <v>251651</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>229.8550724637681</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-15 07:18:28</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-15 08:03:28</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-15 11:53:20</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>15860</v>
+        <v>46830</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3231,14 +3148,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N37" t="n">
+        <v>39755</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3248,7 +3168,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3258,12 +3178,12 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251396</v>
+        <v>244204</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3271,33 +3191,33 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" t="n">
-        <v>37.08196721311475</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2262</v>
+        <v>3472</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3310,40 +3230,32 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
       </c>
-      <c r="N38" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-1.390755208333333</v>
-      </c>
-      <c r="S38" s="1" t="n">
-        <v>-2.349362477233796</v>
-      </c>
-      <c r="T38" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251651</v>
+        <v>251346</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3351,33 +3263,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>767.7049180327868</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-09 08:23:04</t>
+          <t>2025-05-12 13:55:37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:04</t>
+          <t>2025-05-12 14:28:37</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>46830</v>
+        <v>3859</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3386,17 +3298,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M39" t="n">
-        <v>76</v>
-      </c>
-      <c r="N39" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3406,22 +3315,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4</v>
+      <c r="S39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>244204</v>
+        <v>251761</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3429,33 +3335,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>56.91803278688525</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-12 13:52:47</t>
+          <t>2025-05-13 07:31:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-12 14:34:47</t>
+          <t>2025-05-13 08:04:53</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3472</v>
+        <v>13279</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3481,22 +3387,19 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>4</v>
+      <c r="S40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251346</v>
+        <v>251374</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3504,33 +3407,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
-        <v>63.26229508196721</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:42</t>
+          <t>2025-05-13 11:42:34</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:42</t>
+          <t>2025-05-13 12:13:34</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3859</v>
+        <v>27343</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3539,11 +3442,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
@@ -3556,22 +3459,19 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251761</v>
+        <v>245089</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3579,33 +3479,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>217.6885245901639</v>
+        <v>2010.901639344262</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:07:58</t>
+          <t>2025-05-14 11:41:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-13 09:40:58</t>
+          <t>2025-05-14 12:27:49</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-20 13:58:43</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>13279</v>
+        <v>122665</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3614,14 +3514,14 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3631,56 +3531,53 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2</v>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251374</v>
+        <v>251371</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-13 13:49:39</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3689,73 +3586,80 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245089</v>
+        <v>251050</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D44" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-14 13:17:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-14 14:03:54</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-21 07:34:48</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3764,39 +3668,44 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N44" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251050</v>
+        <v>251054</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3804,29 +3713,29 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3865,10 +3774,10 @@
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T45" t="n">
         <v>2</v>
@@ -3876,7 +3785,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251054</v>
+        <v>251081</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3884,33 +3793,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3923,13 +3832,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="n">
-        <v>39747</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3937,18 +3848,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
@@ -3956,7 +3867,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251371</v>
+        <v>251519</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3964,33 +3875,33 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 08:04:25</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4003,42 +3914,32 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S47" s="1" t="n">
-        <v>-15.60902777777778</v>
-      </c>
-      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251081</v>
+        <v>251594</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4046,33 +3947,33 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D48" t="n">
-        <v>42.42253521126761</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-09 14:37:00</t>
+          <t>2025-05-12 11:09:59</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 08:32:00</t>
+          <t>2025-05-12 11:54:59</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3012</v>
+        <v>6466</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4081,46 +3982,36 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S48" s="1" t="n">
-        <v>-19.38501564945602</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251519</v>
+        <v>251109</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4128,33 +4019,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D49" t="n">
-        <v>185.5633802816901</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 09:14:25</t>
+          <t>2025-05-12 13:26:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-12 11:19:25</t>
+          <t>2025-05-13 07:01:03</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13175</v>
+        <v>18928</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4163,11 +4054,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
@@ -4180,22 +4071,19 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>7</v>
+      <c r="S49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251594</v>
+        <v>251467</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4203,33 +4091,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D50" t="n">
-        <v>91.07042253521126</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-12 14:24:59</t>
+          <t>2025-05-13 11:27:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 07:09:59</t>
+          <t>2025-05-13 13:12:38</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-13 14:40:20</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6466</v>
+        <v>6226</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4242,7 +4130,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4255,56 +4143,53 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251109</v>
+        <v>251782</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>266.5915492957747</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 10:16:03</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>18928</v>
+        <v>12073</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4313,73 +4198,78 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>70</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N51" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251467</v>
+        <v>251340</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>87.69014084507042</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 14:42:38</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-14 08:27:38</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 09:55:20</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>6226</v>
+        <v>32800</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4388,14 +4278,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4405,22 +4295,19 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1</v>
+      <c r="S52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251227</v>
+        <v>243569</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4428,33 +4315,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4467,40 +4354,32 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.5552734375</v>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251782</v>
+        <v>245623</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4508,33 +4387,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>170.0422535211268</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12073</v>
+        <v>26419</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4543,44 +4422,36 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>76</v>
-      </c>
-      <c r="N54" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S54" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251340</v>
+        <v>243335</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4588,33 +4459,33 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D55" t="n">
-        <v>461.9718309859155</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:43:02</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>32800</v>
+        <v>33004</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4623,14 +4494,14 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -4640,22 +4511,19 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" t="n">
-        <v>4</v>
+      <c r="S55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>243569</v>
+        <v>251750</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4666,30 +4534,30 @@
         <v>17</v>
       </c>
       <c r="D56" t="n">
-        <v>36.63380281690141</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:25:00</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:00</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2601</v>
+        <v>3891</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4705,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -4715,22 +4583,19 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2</v>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>245623</v>
+        <v>251987</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4738,33 +4603,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>372.0985915492957</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:18:38</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:50:38</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>26419</v>
+        <v>210526</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4773,14 +4638,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4790,82 +4655,86 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S57" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2</v>
+      <c r="S57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>243335</v>
+        <v>251706</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>464.8450704225352</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:02:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:44</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>33004</v>
+        <v>3200</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>152</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
@@ -4875,46 +4744,46 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251750</v>
+        <v>251391</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>54.80281690140845</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:06:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 07:23:35</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3891</v>
+        <v>5865</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4923,73 +4792,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>152</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251987</v>
+        <v>251164</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
-        <v>2965.154929577465</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:23</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 08:54:23</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-22 10:19:32</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>210526</v>
+        <v>10000</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4998,39 +4872,44 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>76</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N60" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-1.579010770972222</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5041,30 +4920,30 @@
         <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>119.6938775510204</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 09:47:25</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5077,13 +4956,13 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>70</v>
       </c>
       <c r="N61" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5091,26 +4970,26 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>-3.407936507939815</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251456</v>
+        <v>251626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5121,30 +5000,30 @@
         <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>183.6530612244898</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 11:41:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-09 12:26:45</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-08 10:34:41</t>
+          <t>2025-05-09 12:26:45</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-12 08:41:51</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>8999</v>
+        <v>12500</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5162,35 +5041,27 @@
       <c r="M62" t="n">
         <v>70</v>
       </c>
-      <c r="N62" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-2.568296485266204</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>-2.568296485266204</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251626</v>
+        <v>251373</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5198,33 +5069,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>255.1020408163265</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-08 13:38:20</t>
+          <t>2025-05-12 08:41:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 09:26:51</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-08 14:13:20</t>
+          <t>2025-05-12 09:26:51</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-13 07:15:42</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>12500</v>
+        <v>17094</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5237,7 +5108,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5250,22 +5121,19 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>7</v>
+      <c r="S63" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251164</v>
+        <v>250670</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5273,33 +5141,33 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>204.0816326530612</v>
+        <v>31.89795918367347</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:26</t>
+          <t>2025-05-13 07:15:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-13 07:57:42</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-09 11:18:26</t>
+          <t>2025-05-13 07:57:42</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-13 08:29:36</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>10000</v>
+        <v>1563</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5308,44 +5176,36 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
-        <v>70</v>
-      </c>
-      <c r="N64" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-2.612868480729166</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>-2.612868480729166</v>
-      </c>
-      <c r="T64" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251373</v>
+        <v>251247</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5353,33 +5213,33 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
-        <v>348.8571428571428</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-09 14:42:31</t>
+          <t>2025-05-13 08:29:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 09:16:36</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-12 07:22:31</t>
+          <t>2025-05-13 09:16:36</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-14 10:26:17</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>17094</v>
+        <v>26934</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5388,11 +5248,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5405,56 +5265,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" t="n">
-        <v>4</v>
+      <c r="S65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251564</v>
+        <v>251546</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>55.44897959183673</v>
+        <v>101.03125</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:23</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-12 13:56:23</t>
+          <t>2025-05-07 07:21:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:50</t>
+          <t>2025-05-07 09:02:01</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2717</v>
+        <v>6466</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5467,7 +5324,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5480,7 +5337,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
@@ -5490,46 +5347,46 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>250670</v>
+        <v>251477</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
-        <v>31.89795918367347</v>
+        <v>468.734375</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-12 14:51:50</t>
+          <t>2025-05-07 09:02:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:50</t>
+          <t>2025-05-07 09:36:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:50</t>
+          <t>2025-05-07 09:36:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:44</t>
+          <t>2025-05-08 09:24:45</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1563</v>
+        <v>29999</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5538,73 +5395,78 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
         <v>76</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
+      <c r="N67" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-1.392198350694444</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-1.392198350694444</v>
       </c>
       <c r="T67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251247</v>
+        <v>251395</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
-        <v>549.6734693877551</v>
+        <v>35.34375</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:05:44</t>
+          <t>2025-05-08 09:24:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:44</t>
+          <t>2025-05-08 10:00:45</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-13 08:52:44</t>
+          <t>2025-05-08 10:00:45</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-14 10:02:24</t>
+          <t>2025-05-08 10:36:06</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>26934</v>
+        <v>2262</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5613,7 +5475,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -5622,30 +5484,35 @@
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-1.441742621527778</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-1.441742621527778</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251395</v>
+        <v>251396</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5653,29 +5520,29 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
         <v>35.34375</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:36:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 10:51:06</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-08 10:51:06</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-08 11:26:27</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5710,14 +5577,14 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-1.476703559027778</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>-0.3321831597222222</v>
+        <v>-1.476703559027778</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5725,7 +5592,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>250923</v>
+        <v>251227</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5733,33 +5600,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-07 07:58:20</t>
+          <t>2025-05-08 11:26:27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:30:20</t>
+          <t>2025-05-08 12:00:27</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-07 08:30:20</t>
+          <t>2025-05-08 12:00:27</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-07 10:19:48</t>
+          <t>2025-05-08 12:00:27</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5772,13 +5639,13 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
         <v>76</v>
       </c>
       <c r="N70" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5786,21 +5653,21 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-0.4304253472222222</v>
+        <v>-2.500314670138889</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-0.4304253472222222</v>
+        <v>-2.500314670138889</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -5813,29 +5680,29 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
         <v>206.90625</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-07 10:19:48</t>
+          <t>2025-05-08 12:00:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-07 10:51:48</t>
+          <t>2025-05-08 12:30:27</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-07 10:51:48</t>
+          <t>2025-05-08 12:30:27</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-07 14:18:43</t>
+          <t>2025-05-09 07:57:21</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5874,10 +5741,10 @@
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-0.5963324652777777</v>
+        <v>-2.331499565972222</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-0.5963324652777777</v>
+        <v>-2.331499565972222</v>
       </c>
       <c r="T71" t="n">
         <v>7</v>
@@ -5885,7 +5752,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251546</v>
+        <v>250923</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5893,33 +5760,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D72" t="n">
-        <v>101.03125</v>
+        <v>109.46875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:18:43</t>
+          <t>2025-05-09 07:57:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:35:43</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-07 14:35:43</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-08 08:16:45</t>
+          <t>2025-05-09 10:18:49</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6466</v>
+        <v>7006</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5928,39 +5795,44 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>70</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
+        <v>-2.429741753472222</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>0</v>
+        <v>-2.429741753472222</v>
       </c>
       <c r="T72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>245275</v>
+        <v>251564</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5968,33 +5840,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" t="n">
-        <v>379.59375</v>
+        <v>42.453125</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:16:45</t>
+          <t>2025-05-09 10:18:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:49:45</t>
+          <t>2025-05-09 10:52:49</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-08 08:49:45</t>
+          <t>2025-05-09 10:52:49</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:20</t>
+          <t>2025-05-09 11:35:16</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>24294</v>
+        <v>2717</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -6003,11 +5875,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6020,7 +5892,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
@@ -6030,12 +5902,12 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251809</v>
+        <v>245275</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6043,33 +5915,33 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>135.640625</v>
+        <v>379.59375</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:09:20</t>
+          <t>2025-05-09 11:35:16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:20</t>
+          <t>2025-05-09 12:12:16</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 07:44:20</t>
+          <t>2025-05-09 12:12:16</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:59</t>
+          <t>2025-05-12 10:31:52</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>8681</v>
+        <v>24294</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6078,11 +5950,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -6095,7 +5967,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
@@ -6105,12 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251283</v>
+        <v>251809</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6118,33 +5990,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>11.78125</v>
+        <v>135.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-09 09:59:59</t>
+          <t>2025-05-12 10:31:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:59</t>
+          <t>2025-05-12 11:06:52</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:59</t>
+          <t>2025-05-12 11:06:52</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:45</t>
+          <t>2025-05-12 13:22:30</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>754</v>
+        <v>8681</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6153,11 +6025,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6170,7 +6042,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
@@ -6180,12 +6052,12 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251061</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6193,33 +6065,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>374.953125</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:30:45</t>
+          <t>2025-05-12 13:22:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:45</t>
+          <t>2025-05-12 13:41:30</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-09 10:45:45</t>
+          <t>2025-05-12 13:41:30</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:43</t>
+          <t>2025-05-12 13:53:17</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>23997</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6245,7 +6117,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
@@ -6260,7 +6132,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251252</v>
+        <v>251061</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6271,30 +6143,30 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>235.671875</v>
+        <v>374.953125</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:00:43</t>
+          <t>2025-05-12 13:53:17</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:43</t>
+          <t>2025-05-12 14:08:17</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 09:15:43</t>
+          <t>2025-05-12 14:08:17</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 12:23:15</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>15083</v>
+        <v>23997</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6320,7 +6192,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
@@ -6335,7 +6207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251252</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6343,33 +6215,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>8073.71875</v>
+        <v>235.671875</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:11:23</t>
+          <t>2025-05-13 12:23:15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-13 12:38:15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:23</t>
+          <t>2025-05-13 12:38:15</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:06</t>
+          <t>2025-05-14 08:33:55</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>15083</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6378,14 +6250,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6395,7 +6267,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
@@ -6410,74 +6282,67 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251706</v>
+        <v>245090</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>50.79365079365079</v>
+        <v>8073.71875</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 08:33:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:05:55</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-14 09:05:55</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-06 07:39:38</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3200</v>
+        <v>516718</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6487,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6638,10 +6503,7 @@
       <c r="R81" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
+      <c r="S81" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6713,10 +6575,7 @@
       <c r="R82" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
+      <c r="S82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6788,10 +6647,7 @@
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T83" t="n">
+      <c r="S83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6863,10 +6719,7 @@
       <c r="R84" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
+      <c r="S84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6938,10 +6791,7 @@
       <c r="R85" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
+      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,10 +6863,7 @@
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
+      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7088,10 +6935,7 @@
       <c r="R87" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
+      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6056338028169</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.367087245694445</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251547</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9154929577465</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 09:36:08</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:20:04</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13129</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -660,56 +660,56 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.505917449143519</v>
+        <v>-1.51394581056713</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:20:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 12:45:04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 12:45:04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 14:18:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +736,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5267507824768519</v>
+        <v>-0.5963570127546297</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +755,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 14:18:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 14:43:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 14:43:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-09 11:50:57</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,17 +798,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -816,18 +818,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -835,41 +837,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>251561</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-09 09:40:43</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>5435</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,17 +880,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -898,56 +897,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
+      <c r="S6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>158.056338028169</v>
+        <v>112.9344262295082</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:09:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-09 11:34:49</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:16</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>6889</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,14 +956,11 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39755</v>
-      </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
@@ -976,56 +969,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
+      <c r="S7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>235572</v>
+        <v>251846</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>140.2535211267606</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 13:27:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:19:36</t>
+          <t>2025-05-09 13:57:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9958</v>
+        <v>11392</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,11 +1024,11 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
@@ -1051,53 +1041,53 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251475</v>
+        <v>251424</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2676056338028</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:51</t>
+          <t>2025-05-12 09:04:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:51</t>
+          <t>2025-05-12 09:34:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>8681</v>
+        <v>9662</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1123,7 +1113,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
@@ -1135,41 +1125,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251743</v>
+        <v>244204</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>151.7746478873239</v>
+        <v>56.91803278688525</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:59:07</t>
+          <t>2025-05-12 12:12:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:14:07</t>
+          <t>2025-05-12 12:32:54</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-12 13:29:49</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10776</v>
+        <v>3472</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1195,7 +1185,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
@@ -1207,41 +1197,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>244023</v>
+        <v>250819</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>14.04225352112676</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:54</t>
+          <t>2025-05-12 13:29:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-12 13:59:49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:54</t>
+          <t>2025-05-12 13:59:49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:19:36</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>997</v>
+        <v>8527</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1267,53 +1257,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251245</v>
+        <v>251246</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>10.61971830985915</v>
+        <v>196.7540983606557</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:56</t>
+          <t>2025-05-13 08:19:36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:39:36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:33:56</t>
+          <t>2025-05-13 08:39:36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 11:56:21</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>754</v>
+        <v>12002</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1339,7 +1329,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
@@ -1351,41 +1341,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251246</v>
+        <v>251374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>169.0422535211268</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:33</t>
+          <t>2025-05-13 11:56:21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 12:21:21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 08:59:33</t>
+          <t>2025-05-13 12:21:21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-14 11:49:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12002</v>
+        <v>27343</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1398,7 +1388,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
@@ -1411,7 +1401,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
@@ -1423,41 +1413,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251580</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7464788732394</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-13 11:48:36</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-13 12:07:36</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7153</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1466,70 +1456,78 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
+      <c r="N14" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251260</v>
+        <v>251505</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>34.5</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9577464788732</v>
+        <v>259.1818181818182</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-13 13:48:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-13 14:07:21</t>
+          <t>2025-05-09 13:12:05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>9369</v>
+        <v>14255</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1538,11 +1536,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1555,53 +1553,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251249</v>
+        <v>251397</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>67.01408450704226</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:19:18</t>
+          <t>2025-05-12 09:31:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-14 08:34:18</t>
+          <t>2025-05-12 10:05:46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4758</v>
+        <v>5435</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1610,11 +1608,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1627,53 +1625,53 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251795</v>
+        <v>244354</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>32.5</v>
       </c>
       <c r="D17" t="n">
-        <v>263.9295774647887</v>
+        <v>78.36363636363636</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:41:19</t>
+          <t>2025-05-12 11:44:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-14 09:56:19</t>
+          <t>2025-05-12 12:17:05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-14 14:20:15</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1682,11 +1680,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1699,53 +1697,53 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251346</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>70.16363636363636</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 13:35:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-12 14:13:57</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:24:07</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>3859</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1758,74 +1756,66 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="T18" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>251283</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-13 07:24:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 07:58:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-13 07:58:37</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 08:12:19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>754</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1834,78 +1824,70 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251229</v>
+        <v>251247</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>489.7090909090909</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-13 08:12:19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-13 08:42:49</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-13 08:42:49</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-14 08:52:32</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>26934</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1914,7 +1896,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1923,71 +1905,61 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="S20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251561</v>
+        <v>251795</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>30.5</v>
       </c>
       <c r="D21" t="n">
-        <v>89.09836065573771</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-14 08:52:32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-14 09:23:02</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-14 09:23:02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-15 07:03:44</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5435</v>
+        <v>18739</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1996,11 +1968,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
@@ -2013,53 +1985,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251566</v>
+        <v>251564</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>112.9344262295082</v>
+        <v>42.453125</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-07 07:59:27</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6889</v>
+        <v>2717</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2072,7 +2044,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2091,47 +2063,50 @@
       <c r="R22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251846</v>
+        <v>251455</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>186.7540983606557</v>
+        <v>82.765625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-07 07:59:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-07 08:16:27</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-07 08:16:27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-07 09:39:13</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11392</v>
+        <v>5297</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2144,66 +2119,74 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
+        <v>-0.4022352430555556</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>-0.4022352430555556</v>
+      </c>
+      <c r="T23" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251424</v>
+        <v>251371</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>158.3934426229508</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-07 09:39:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-07 09:54:13</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-07 09:54:13</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-07 09:54:13</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>9662</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2221,61 +2204,71 @@
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
+        <v>-13.41265190972222</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-13.41265190972222</v>
+      </c>
+      <c r="T24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>244355</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>70.65573770491804</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-07 09:54:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-07 10:26:13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-07 10:26:13</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-07 12:15:41</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4310</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2284,70 +2277,78 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
+        <v>-0.5108940972222222</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>-0.5108940972222222</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251485</v>
+        <v>251742</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>78.81967213114754</v>
+        <v>128.53125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-12 13:43:33</t>
+          <t>2025-05-07 12:15:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-07 12:47:41</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:33</t>
+          <t>2025-05-07 12:47:41</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-07 14:56:13</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>4808</v>
+        <v>8226</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2360,66 +2361,74 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
+        <v>-0.6223741319444445</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>-0.6223741319444445</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251259</v>
+        <v>251477</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>81.9672131147541</v>
+        <v>468.734375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 07:27:22</t>
+          <t>2025-05-07 14:56:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:22</t>
+          <t>2025-05-08 07:28:13</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:22</t>
+          <t>2025-05-08 07:28:13</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:20</t>
+          <t>2025-05-09 07:16:57</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5000</v>
+        <v>29999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2428,70 +2437,78 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
+        <v>-2.303439670138889</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>-2.303439670138889</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251464</v>
+        <v>251395</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>117.2622950819672</v>
+        <v>35.34375</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 09:29:20</t>
+          <t>2025-05-09 07:16:57</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:14:20</t>
+          <t>2025-05-09 07:52:57</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 10:14:20</t>
+          <t>2025-05-09 07:52:57</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:36</t>
+          <t>2025-05-09 08:28:17</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7153</v>
+        <v>2262</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2504,66 +2521,74 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
+        <v>-2.352983940972222</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>-2.352983940972222</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251557</v>
+        <v>251396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>109.9180327868852</v>
+        <v>35.34375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:11:36</t>
+          <t>2025-05-09 08:28:17</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-09 08:43:17</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-13 12:41:36</t>
+          <t>2025-05-09 08:43:17</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-09 09:18:38</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6705</v>
+        <v>2262</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2576,66 +2601,74 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
+      <c r="N29" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
+        <v>-2.387944878472222</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>-2.387944878472222</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251062</v>
+        <v>251548</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D30" t="n">
-        <v>370.8852459016393</v>
+        <v>206.90625</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-13 14:31:31</t>
+          <t>2025-05-09 09:18:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-09 09:37:38</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-14 07:11:31</t>
+          <t>2025-05-09 09:37:38</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-14 13:22:24</t>
+          <t>2025-05-09 13:04:32</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>22624</v>
+        <v>13242</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2644,70 +2677,78 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
+      <c r="N30" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
+        <v>-2.54482421875</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>-2.54482421875</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>245350</v>
+        <v>251546</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>405.3623188405797</v>
+        <v>101.03125</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:04:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 13:21:32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-09 13:21:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 07:02:34</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>27970</v>
+        <v>6466</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2716,11 +2757,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
@@ -2733,53 +2774,56 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>250641</v>
+        <v>251519</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D32" t="n">
-        <v>74.14492753623189</v>
+        <v>205.859375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-12 07:02:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-12 07:23:34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-12 07:23:34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-12 10:49:26</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>5116</v>
+        <v>13175</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2792,7 +2836,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2805,53 +2849,56 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="n">
-        <v>2</v>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251463</v>
+        <v>251475</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D33" t="n">
-        <v>100.9710144927536</v>
+        <v>135.640625</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-12 10:49:26</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-12 11:08:26</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-12 11:08:26</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-12 13:24:04</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6967</v>
+        <v>8681</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2877,53 +2924,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="n">
-        <v>1</v>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251462</v>
+        <v>244355</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>90.23188405797102</v>
+        <v>67.34375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-12 13:24:04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-12 13:39:04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-12 13:39:04</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-12 14:46:25</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2936,7 +2986,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2949,53 +2999,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S34" t="n">
-        <v>1</v>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251562</v>
+        <v>251485</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>118</v>
+        <v>75.125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-12 14:46:25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-13 07:03:25</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 13:35:42</t>
+          <t>2025-05-13 07:03:25</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-13 08:18:32</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8142</v>
+        <v>4808</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3008,7 +3061,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3021,53 +3074,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S35" t="n">
-        <v>1</v>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251251</v>
+        <v>251761</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>229.8550724637681</v>
+        <v>207.484375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 07:33:42</t>
+          <t>2025-05-13 08:18:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-13 08:35:32</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 08:18:42</t>
+          <t>2025-05-13 08:35:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-14 12:08:33</t>
+          <t>2025-05-13 12:03:01</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>15860</v>
+        <v>13279</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3076,11 +3132,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3093,53 +3149,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S36" t="n">
-        <v>1</v>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251651</v>
+        <v>251462</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>767.7049180327868</v>
+        <v>97.28125</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 12:03:01</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 12:22:01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-13 12:22:01</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 13:59:18</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>46830</v>
+        <v>6226</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3148,17 +3207,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>76</v>
-      </c>
-      <c r="N37" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3168,7 +3224,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
@@ -3178,46 +3234,46 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>244204</v>
+        <v>251557</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>56.91803278688525</v>
+        <v>104.765625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-13 13:59:18</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 14:14:18</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-05-13 14:14:18</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-14 07:59:04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3472</v>
+        <v>6705</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3230,7 +3286,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3243,53 +3299,56 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251346</v>
+        <v>251252</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D39" t="n">
-        <v>63.26229508196721</v>
+        <v>235.671875</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-12 13:55:37</t>
+          <t>2025-05-14 07:59:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-14 08:22:04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-12 14:28:37</t>
+          <t>2025-05-14 08:22:04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-14 12:17:45</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3859</v>
+        <v>15083</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3298,11 +3357,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3315,53 +3374,56 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S39" t="n">
-        <v>2</v>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251761</v>
+        <v>245089</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
-        <v>217.6885245901639</v>
+        <v>1916.640625</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:53</t>
+          <t>2025-05-14 12:17:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-14 12:51:45</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:53</t>
+          <t>2025-05-14 12:51:45</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-20 12:48:23</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>13279</v>
+        <v>122665</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3370,14 +3432,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3387,53 +3449,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S40" t="n">
-        <v>2</v>
+      <c r="S40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251374</v>
+        <v>251050</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="D41" t="n">
-        <v>448.2459016393443</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13 11:42:34</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-13 12:13:34</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>27343</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3442,70 +3507,78 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
+      <c r="N41" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>245089</v>
+        <v>251054</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
-        <v>2010.901639344262</v>
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-14 11:41:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-14 12:27:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-20 13:58:43</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3514,36 +3587,44 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251371</v>
+        <v>251081</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3551,33 +3632,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3586,18 +3667,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3606,26 +3687,26 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39666</v>
+        <v>39750</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-15.32430555555556</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251050</v>
+        <v>245275</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3633,33 +3714,33 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:34:25</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 08:34:25</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 14:16:35</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>24294</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3668,44 +3749,36 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="N44" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S44" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251054</v>
+        <v>251109</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3713,33 +3786,33 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 14:16:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 07:01:35</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 07:01:35</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 11:28:10</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18928</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3752,40 +3825,32 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
       </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S45" s="1" t="n">
-        <v>-1.490972222222222</v>
-      </c>
-      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251081</v>
+        <v>251520</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3793,33 +3858,33 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D46" t="n">
-        <v>42.42253521126761</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-13 11:28:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-13 12:48:10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-13 12:48:10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-14 08:38:19</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3828,80 +3893,70 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S46" s="1" t="n">
-        <v>-16.60723787167824</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251519</v>
+        <v>251562</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>185.5633802816901</v>
+        <v>166.1632653061224</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:25</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-08 10:21:09</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>13175</v>
+        <v>8142</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3927,53 +3982,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S47" t="n">
-        <v>7</v>
+      <c r="S47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251594</v>
+        <v>251456</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D48" t="n">
-        <v>91.07042253521126</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:09:59</t>
+          <t>2025-05-08 10:21:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-08 11:01:09</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 11:54:59</t>
+          <t>2025-05-08 11:01:09</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-08 14:04:48</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>6466</v>
+        <v>8999</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3986,66 +4044,74 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
+      <c r="N48" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
+        <v>-2.586678004537037</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>-2.586678004537037</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251109</v>
+        <v>251416</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D49" t="n">
-        <v>266.5915492957747</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-12 13:26:03</t>
+          <t>2025-05-08 14:04:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-08 14:44:48</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:03</t>
+          <t>2025-05-08 14:44:48</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-09 10:33:50</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>18928</v>
+        <v>11222</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4054,15 +4120,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
+      <c r="N49" t="n">
+        <v>39755</v>
+      </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
@@ -4071,53 +4140,56 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251467</v>
+        <v>251626</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>87.69014084507042</v>
+        <v>255.1020408163265</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 11:27:38</t>
+          <t>2025-05-09 10:33:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-09 11:13:50</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 13:12:38</t>
+          <t>2025-05-09 11:13:50</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 14:40:20</t>
+          <t>2025-05-12 07:28:56</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>6226</v>
+        <v>12500</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4130,7 +4202,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4143,53 +4215,56 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S50" t="n">
-        <v>1</v>
+      <c r="S50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251782</v>
+        <v>251373</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>170.0422535211268</v>
+        <v>348.8571428571428</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 07:28:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-12 08:13:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-12 08:13:56</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-12 14:02:47</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>12073</v>
+        <v>17094</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4198,78 +4273,73 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>76</v>
-      </c>
-      <c r="N51" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251340</v>
+        <v>251259</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D52" t="n">
-        <v>461.9718309859155</v>
+        <v>102.0408163265306</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-12 14:02:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 14:57:47</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 14:57:47</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 08:39:50</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>32800</v>
+        <v>5000</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4278,70 +4348,73 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
+        <v>9</v>
+      </c>
+      <c r="M52" t="n">
+        <v>70</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
         <v>2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R52" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>243569</v>
+        <v>251464</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D53" t="n">
-        <v>36.63380281690141</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-13 08:39:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-13 09:39:50</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-13 09:39:50</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-13 12:05:48</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2601</v>
+        <v>7153</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4350,14 +4423,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4367,53 +4440,56 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S53" t="n">
-        <v>2</v>
+      <c r="S53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>245623</v>
+        <v>251547</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>372.0985915492957</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>26419</v>
+        <v>13129</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4422,70 +4498,78 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>152</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N54" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="T54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>243335</v>
+        <v>251225</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>464.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>33004</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4501,63 +4585,71 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>152</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" t="n">
+        <v>-0.4645246478819445</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>-0.4645246478819445</v>
+      </c>
+      <c r="T55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251750</v>
+        <v>250759</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>54.80281690140845</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3891</v>
+        <v>8398</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4566,70 +4658,78 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>152</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N56" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
+        <v>-0.5570813771527778</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>-0.5570813771527778</v>
+      </c>
+      <c r="T56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251987</v>
+        <v>250894</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D57" t="n">
-        <v>2965.154929577465</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>210526</v>
+        <v>44262</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4638,15 +4738,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>76</v>
       </c>
+      <c r="N57" t="n">
+        <v>39755</v>
+      </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
@@ -4655,135 +4758,128 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
+      <c r="S57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251706</v>
+        <v>235572</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>50.79365079365079</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:04:36</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 08:04:36</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 10:24:51</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3200</v>
+        <v>9958</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>7</v>
+      <c r="S58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251391</v>
+        <v>251594</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>119.6938775510204</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 10:24:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-12 10:41:51</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-12 10:41:51</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 12:12:55</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5865</v>
+        <v>6466</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4796,74 +4892,66 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>-1.4095096371875</v>
-      </c>
-      <c r="T59" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251164</v>
+        <v>251743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>204.0816326530612</v>
+        <v>151.7746478873239</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 12:12:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 12:27:55</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 12:27:55</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-12 14:59:42</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>10000</v>
+        <v>10776</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4876,74 +4964,66 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="N60" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S60" s="1" t="n">
-        <v>-1.579010770972222</v>
-      </c>
-      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>251456</v>
+        <v>250670</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
-        <v>183.6530612244898</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-12 14:59:42</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-13 07:29:42</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-13 07:29:42</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:25</t>
+          <t>2025-05-13 07:51:43</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8999</v>
+        <v>1563</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -4952,78 +5032,70 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
-      </c>
-      <c r="N61" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S61" s="1" t="n">
-        <v>-3.407936507939815</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251626</v>
+        <v>251245</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
-        <v>255.1020408163265</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-09 11:41:45</t>
+          <t>2025-05-13 07:51:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:45</t>
+          <t>2025-05-13 08:25:43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-09 12:26:45</t>
+          <t>2025-05-13 08:25:43</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:51</t>
+          <t>2025-05-13 08:36:20</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12500</v>
+        <v>754</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5032,11 +5104,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5049,53 +5121,53 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251373</v>
+        <v>251466</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
-        <v>348.8571428571428</v>
+        <v>78.40845070422536</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:51</t>
+          <t>2025-05-13 08:36:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:26:51</t>
+          <t>2025-05-13 08:57:20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-12 09:26:51</t>
+          <t>2025-05-13 08:57:20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:42</t>
+          <t>2025-05-13 10:15:44</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>17094</v>
+        <v>5567</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5108,7 +5180,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5121,53 +5193,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>250670</v>
+        <v>251465</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>31.89795918367347</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:15:42</t>
+          <t>2025-05-13 10:15:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:42</t>
+          <t>2025-05-13 10:32:44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 07:57:42</t>
+          <t>2025-05-13 10:32:44</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:36</t>
+          <t>2025-05-13 12:00:26</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1563</v>
+        <v>6226</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5176,14 +5248,14 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5193,53 +5265,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251247</v>
+        <v>251580</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>549.6734693877551</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 08:29:36</t>
+          <t>2025-05-13 12:00:26</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:36</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 09:16:36</t>
+          <t>2025-05-13 12:19:26</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-14 10:26:17</t>
+          <t>2025-05-13 14:00:10</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>26934</v>
+        <v>7153</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5248,11 +5320,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5265,7 +5337,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
@@ -5277,41 +5349,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251546</v>
+        <v>251062</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
-        <v>101.03125</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-13 14:00:10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-13 14:19:10</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-07 07:21:00</t>
+          <t>2025-05-13 14:19:10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-07 09:02:01</t>
+          <t>2025-05-14 11:37:49</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6466</v>
+        <v>22624</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5320,11 +5392,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M66" t="n">
         <v>70</v>
@@ -5337,56 +5409,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>7</v>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251477</v>
+        <v>251651</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>468.734375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-07 09:02:01</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:01</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-07 09:36:01</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-08 09:24:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>29999</v>
+        <v>46830</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5395,78 +5464,76 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M67" t="n">
         <v>76</v>
       </c>
       <c r="N67" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-1.392198350694444</v>
+        <v>0</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>-1.392198350694444</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251395</v>
+        <v>251809</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D68" t="n">
-        <v>35.34375</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-08 09:24:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-08 10:00:45</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-08 10:00:45</t>
+          <t>2025-05-12 12:58:42</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-08 10:36:06</t>
+          <t>2025-05-13 07:21:00</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2262</v>
+        <v>8681</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5479,74 +5546,66 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
       </c>
-      <c r="N68" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>-1.441742621527778</v>
-      </c>
-      <c r="S68" s="1" t="n">
-        <v>-1.441742621527778</v>
-      </c>
-      <c r="T68" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251396</v>
+        <v>244023</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>35.34375</v>
+        <v>16.34426229508197</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-08 10:36:06</t>
+          <t>2025-05-13 07:21:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:06</t>
+          <t>2025-05-13 07:50:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-08 10:51:06</t>
+          <t>2025-05-13 07:50:00</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-08 11:26:27</t>
+          <t>2025-05-13 08:06:21</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2262</v>
+        <v>997</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5564,69 +5623,61 @@
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.476703559027778</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>-1.476703559027778</v>
-      </c>
-      <c r="T69" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251227</v>
+        <v>251061</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-08 11:26:27</t>
+          <t>2025-05-13 08:06:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:27</t>
+          <t>2025-05-13 08:31:21</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:27</t>
+          <t>2025-05-13 08:31:21</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:27</t>
+          <t>2025-05-14 07:04:45</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>23997</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5635,25 +5686,20 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>76</v>
-      </c>
-      <c r="N70" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5661,52 +5707,49 @@
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-2.500314670138889</v>
-      </c>
-      <c r="S70" s="1" t="n">
-        <v>-2.500314670138889</v>
-      </c>
-      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251548</v>
+        <v>251251</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>206.90625</v>
+        <v>260</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:27</t>
+          <t>2025-05-14 07:04:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-08 12:30:27</t>
+          <t>2025-05-14 07:29:45</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-08 12:30:27</t>
+          <t>2025-05-14 07:29:45</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:21</t>
+          <t>2025-05-14 11:49:45</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>13242</v>
+        <v>15860</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5715,78 +5758,70 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="N71" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-2.331499565972222</v>
-      </c>
-      <c r="S71" s="1" t="n">
-        <v>-2.331499565972222</v>
-      </c>
-      <c r="T71" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>250923</v>
+        <v>245350</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D72" t="n">
-        <v>109.46875</v>
+        <v>405.3623188405797</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:21</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:21</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-09 08:29:21</t>
+          <t>2025-05-12 08:05:00</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:49</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>7006</v>
+        <v>27970</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5795,78 +5830,70 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M72" t="n">
-        <v>76</v>
-      </c>
-      <c r="N72" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-2.429741753472222</v>
-      </c>
-      <c r="S72" s="1" t="n">
-        <v>-2.429741753472222</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251564</v>
+        <v>250641</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D73" t="n">
-        <v>42.453125</v>
+        <v>74.14492753623189</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-09 10:18:49</t>
+          <t>2025-05-12 14:50:21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:49</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-09 10:52:49</t>
+          <t>2025-05-13 07:35:21</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:16</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2717</v>
+        <v>5116</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5879,7 +5906,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5892,56 +5919,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>8</v>
+      <c r="S73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>245275</v>
+        <v>251463</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>379.59375</v>
+        <v>100.9710144927536</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-09 11:35:16</t>
+          <t>2025-05-13 08:49:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:16</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-09 12:12:16</t>
+          <t>2025-05-13 09:24:30</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-12 10:31:52</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>24294</v>
+        <v>6967</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5950,11 +5974,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5967,56 +5991,53 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>7</v>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251809</v>
+        <v>251467</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>135.640625</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-12 10:31:52</t>
+          <t>2025-05-13 11:05:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:06:52</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-12 11:06:52</t>
+          <t>2025-05-13 11:40:28</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-12 13:22:30</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8681</v>
+        <v>6226</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6029,7 +6050,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6042,56 +6063,53 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" t="n">
-        <v>4</v>
+      <c r="S75" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251283</v>
+        <v>251260</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>11.78125</v>
+        <v>135.7826086956522</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:22:30</t>
+          <t>2025-05-13 13:10:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:30</t>
+          <t>2025-05-13 13:55:42</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:41:30</t>
+          <t>2025-05-13 13:55:42</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:17</t>
+          <t>2025-05-14 08:11:29</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>754</v>
+        <v>9369</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6100,7 +6118,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6117,56 +6135,53 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
+      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251061</v>
+        <v>251249</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
-        <v>374.953125</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-12 13:53:17</t>
+          <t>2025-05-14 08:11:29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:17</t>
+          <t>2025-05-14 08:36:29</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-12 14:08:17</t>
+          <t>2025-05-14 08:36:29</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:15</t>
+          <t>2025-05-14 09:45:26</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>23997</v>
+        <v>4758</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6192,56 +6207,53 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T77" t="n">
+      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251252</v>
+        <v>245090</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
-        <v>235.671875</v>
+        <v>7488.666666666667</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:23:15</t>
+          <t>2025-05-14 09:45:26</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:15</t>
+          <t>2025-05-14 10:20:26</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:15</t>
+          <t>2025-05-14 10:20:26</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:55</t>
+          <t>2025-06-05 07:09:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>15083</v>
+        <v>516718</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6250,14 +6262,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6267,82 +6279,86 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
+      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>245090</v>
+        <v>251706</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>8073.71875</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-14 09:05:55</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-06-06 07:39:38</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>516718</v>
+        <v>3200</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
@@ -6352,46 +6368,46 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251284</v>
+        <v>251227</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6400,17 +6416,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N80" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6418,18 +6434,18 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6437,41 +6453,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251505</v>
+        <v>251782</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>259.1818181818182</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>14255</v>
+        <v>12073</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6480,70 +6496,78 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>70</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N81" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S81" t="n">
-        <v>7</v>
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>-0.3097515649421296</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251397</v>
+        <v>251340</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>98.81818181818181</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 07:58:02</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>5435</v>
+        <v>32800</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6552,14 +6576,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6581,41 +6605,41 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>244354</v>
+        <v>243569</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D83" t="n">
-        <v>78.36363636363636</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 07:57:00</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4310</v>
+        <v>2601</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6624,14 +6648,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6641,53 +6665,53 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>250819</v>
+        <v>245623</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34.5</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
-        <v>155.0363636363636</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 08:33:38</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:09:57</t>
+          <t>2025-05-12 09:05:38</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8527</v>
+        <v>26419</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6696,14 +6720,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6713,7 +6737,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
@@ -6725,41 +6749,41 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251466</v>
+        <v>243335</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>36.5</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>101.2181818181818</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:44:59</t>
+          <t>2025-05-13 07:17:44</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 09:21:29</t>
+          <t>2025-05-13 07:36:44</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5567</v>
+        <v>33004</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6768,14 +6792,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6785,7 +6809,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
@@ -6797,41 +6821,41 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251465</v>
+        <v>251750</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>113.2</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:42</t>
+          <t>2025-05-14 07:21:35</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 11:35:12</t>
+          <t>2025-05-14 07:38:35</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6226</v>
+        <v>3891</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6840,14 +6864,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6857,7 +6881,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
@@ -6869,41 +6893,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251520</v>
+        <v>251987</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>297.0909090909091</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 13:28:24</t>
+          <t>2025-05-14 08:33:23</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 14:08:54</t>
+          <t>2025-05-14 09:09:23</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-14 11:06:00</t>
+          <t>2025-05-22 10:34:32</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>16340</v>
+        <v>210526</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6912,14 +6936,14 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -6929,7 +6953,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251391</v>
+        <v>251750</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>96.14754098360656</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 12:32:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 12:32:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-08 13:26:48</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5865</v>
+        <v>3891</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.593945618148148</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.382741347905093</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>245623</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>163.9344262295082</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-08 13:26:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-08 13:43:48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:08</t>
+          <t>2025-05-08 13:43:48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:04</t>
+          <t>2025-05-09 11:55:54</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>26419</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,78 +633,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-104.4971537558681</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.51394581056713</v>
+        <v>-104.4971537558681</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251651</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:04</t>
+          <t>2025-05-09 11:55:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:04</t>
+          <t>2025-05-09 12:31:54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:04</t>
+          <t>2025-05-09 12:31:54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:18:45</t>
+          <t>2025-05-13 07:31:28</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>46830</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,78 +708,76 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3135269953009259</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5963570127546297</v>
+        <v>-0.3135269953009259</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251340</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:18:45</t>
+          <t>2025-05-13 07:31:28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:45</t>
+          <t>2025-05-13 07:52:28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:45</t>
+          <t>2025-05-13 07:52:28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:50:57</t>
+          <t>2025-05-14 07:34:27</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>32800</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,80 +786,73 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-16.3155907668287</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-16.3155907668287</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251561</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>89.09836065573771</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-14 07:34:27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-14 07:53:27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 09:40:43</t>
+          <t>2025-05-14 07:53:27</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-14 09:51:43</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5435</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,70 +861,78 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>8</v>
+        <v>-6.410925273865741</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-6.410925273865741</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251566</v>
+        <v>251225</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>112.9344262295082</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:09:49</t>
+          <t>2025-05-14 09:51:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-14 10:06:43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:34:49</t>
+          <t>2025-05-14 10:06:43</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-14 10:06:43</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>6889</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -952,70 +941,78 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>8</v>
+        <v>-6.421341940532407</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-6.421341940532407</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251846</v>
+        <v>245089</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>186.7540983606557</v>
+        <v>1727.676056338028</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:27:45</t>
+          <t>2025-05-14 10:06:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-14 10:21:43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:57:45</t>
+          <t>2025-05-14 10:21:43</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-20 07:09:24</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11392</v>
+        <v>122665</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,14 +1021,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1041,53 +1038,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="n">
-        <v>7</v>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251424</v>
+        <v>251227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3934426229508</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:04:30</t>
+          <t>2025-05-20 07:09:24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-20 07:24:24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-12 09:34:30</t>
+          <t>2025-05-20 07:24:24</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-20 07:24:24</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>9662</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1096,70 +1096,78 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
+        <v>-14.30861697965278</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-14.30861697965278</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244204</v>
+        <v>251987</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>56.91803278688525</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:54</t>
+          <t>2025-05-20 07:24:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-20 07:43:24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:32:54</t>
+          <t>2025-05-20 07:43:24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:49</t>
+          <t>2025-05-28 09:08:33</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3472</v>
+        <v>210526</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1168,14 +1176,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1185,53 +1193,56 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="n">
-        <v>4</v>
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250819</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>139.7868852459016</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:29:49</t>
+          <t>2025-05-28 09:08:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:49</t>
+          <t>2025-05-28 09:25:33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-12 13:59:49</t>
+          <t>2025-05-28 09:25:33</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:36</t>
+          <t>2025-05-28 11:04:14</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8527</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1240,70 +1251,78 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
+        <v>-21.46127738653935</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>-21.46127738653935</v>
+      </c>
+      <c r="T11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251246</v>
+        <v>250894</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>196.7540983606557</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:19:36</t>
+          <t>2025-05-28 11:04:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:36</t>
+          <t>2025-05-28 11:19:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:36</t>
+          <t>2025-05-28 11:19:14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:21</t>
+          <t>2025-05-29 13:42:38</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12002</v>
+        <v>44262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1312,14 +1331,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N12" t="n">
+        <v>39755</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1329,53 +1351,56 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
+        <v>-16.57128325508102</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-16.57128325508102</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251374</v>
+        <v>243569</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>448.2459016393443</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-13 11:56:21</t>
+          <t>2025-05-29 13:42:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:21</t>
+          <t>2025-05-29 14:01:38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:21</t>
+          <t>2025-05-29 14:01:38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:36</t>
+          <t>2025-05-29 14:38:16</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>27343</v>
+        <v>2601</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,14 +1409,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1401,133 +1426,135 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
+        <v>-255.6099178403704</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>-255.6099178403704</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251505</v>
+        <v>251109</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.5</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
-        <v>259.1818181818182</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:05</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14255</v>
+        <v>18928</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1536,11 +1563,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1553,53 +1580,56 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>7</v>
+        <v>-26.35672926447917</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>-21.55110524256945</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251397</v>
+        <v>251564</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.5</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>98.81818181818181</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 09:31:16</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:53:35</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 10:05:46</t>
+          <t>2025-05-09 14:53:35</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:31:51</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5435</v>
+        <v>2717</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1625,53 +1655,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
+        <v>-5.313791079814814</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-5.313791079814814</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>244354</v>
+        <v>251562</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>78.36363636363636</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 11:44:35</t>
+          <t>2025-05-12 07:31:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 08:11:51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:05</t>
+          <t>2025-05-12 08:11:51</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 10:06:32</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4310</v>
+        <v>8142</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1684,7 +1717,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1697,53 +1730,56 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="n">
-        <v>4</v>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251346</v>
+        <v>251561</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>38.5</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>70.16363636363636</v>
+        <v>76.54929577464789</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 13:35:27</t>
+          <t>2025-05-12 10:06:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-12 10:56:32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:13:57</t>
+          <t>2025-05-12 10:56:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:07</t>
+          <t>2025-05-12 12:13:05</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3859</v>
+        <v>5435</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1756,7 +1792,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1769,53 +1805,56 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
+        <v>-5.509086463229167</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>-5.509086463229167</v>
+      </c>
+      <c r="T18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251283</v>
+        <v>245275</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>34.5</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>13.70909090909091</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:24:07</t>
+          <t>2025-05-12 12:13:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:37</t>
+          <t>2025-05-12 13:33:05</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-13 07:58:37</t>
+          <t>2025-05-12 13:33:05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:19</t>
+          <t>2025-05-13 11:15:15</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>754</v>
+        <v>24294</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1824,11 +1863,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1841,53 +1880,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="n">
-        <v>1</v>
+      <c r="S19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251247</v>
+        <v>250670</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30.5</v>
+        <v>87</v>
       </c>
       <c r="D20" t="n">
-        <v>489.7090909090909</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:12:19</t>
+          <t>2025-05-13 11:15:15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:49</t>
+          <t>2025-05-13 12:42:15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 08:42:49</t>
+          <t>2025-05-13 12:42:15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:32</t>
+          <t>2025-05-13 13:04:16</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>26934</v>
+        <v>1563</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1896,14 +1938,14 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1913,53 +1955,56 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1</v>
+        <v>-8.544630281689814</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>-8.544630281689814</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251795</v>
+        <v>251050</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30.5</v>
+        <v>207</v>
       </c>
       <c r="D21" t="n">
-        <v>340.7090909090909</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:52:32</t>
+          <t>2025-05-13 13:04:16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:02</t>
+          <t>2025-05-14 08:31:16</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 09:23:02</t>
+          <t>2025-05-14 08:31:16</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-15 07:03:44</t>
+          <t>2025-05-14 08:31:16</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1968,70 +2013,78 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
+      <c r="N21" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
+        <v>-6.355046948356481</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>-6.355046948356481</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251564</v>
+        <v>251054</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>42.453125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-14 08:31:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:59:27</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2040,73 +2093,78 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
+      <c r="N22" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-6.379352503912037</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-6.379352503912037</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251455</v>
+        <v>251081</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D23" t="n">
-        <v>82.765625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 07:59:27</t>
+          <t>2025-05-14 09:06:16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:16:27</t>
+          <t>2025-05-14 11:11:16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:16:27</t>
+          <t>2025-05-14 11:11:16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 09:39:13</t>
+          <t>2025-05-14 11:53:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5297</v>
+        <v>3012</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2115,17 +2173,19 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39749</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2133,60 +2193,60 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.4022352430555556</v>
+        <v>-21.49561815336806</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.4022352430555556</v>
+        <v>-21.49561815336806</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251371</v>
+        <v>251466</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:39:13</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:13</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:13</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:13</t>
+          <t>2025-05-08 08:56:15</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5567</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2199,76 +2259,69 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-13.41265190972222</v>
+        <v>-5.357912112928241</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-13.41265190972222</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251373</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:13</t>
+          <t>2025-05-08 08:56:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:26:13</t>
+          <t>2025-05-08 09:26:15</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 10:26:13</t>
+          <t>2025-05-08 09:26:15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-07 12:15:41</t>
+          <t>2025-05-08 14:06:29</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>17094</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2277,78 +2330,73 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5108940972222222</v>
+        <v>-10.58784153005787</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.5108940972222222</v>
+        <v>-10.58784153005787</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251742</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>128.53125</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:15:41</t>
+          <t>2025-05-08 14:06:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:41</t>
+          <t>2025-05-08 14:41:29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-07 12:47:41</t>
+          <t>2025-05-08 14:41:29</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-07 14:56:13</t>
+          <t>2025-05-09 09:45:27</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8226</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2361,74 +2409,72 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.6223741319444445</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.6223741319444445</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251477</v>
+        <v>251846</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>468.734375</v>
+        <v>186.7540983606557</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-07 14:56:13</t>
+          <t>2025-05-09 09:45:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:28:13</t>
+          <t>2025-05-09 10:05:27</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:28:13</t>
+          <t>2025-05-09 10:05:27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:57</t>
+          <t>2025-05-09 13:12:12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>29999</v>
+        <v>11392</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2437,78 +2483,73 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-2.303439670138889</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-2.303439670138889</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251395</v>
+        <v>244355</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>35.34375</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:57</t>
+          <t>2025-05-09 13:12:12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:57</t>
+          <t>2025-05-09 13:42:12</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:57</t>
+          <t>2025-05-09 13:42:12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:17</t>
+          <t>2025-05-09 14:52:52</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2262</v>
+        <v>4310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2521,74 +2562,69 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="N28" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.352983940972222</v>
+        <v>-1.620047814212963</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.352983940972222</v>
+        <v>-1.620047814212963</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251396</v>
+        <v>251397</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>35.34375</v>
+        <v>89.09836065573771</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:28:17</t>
+          <t>2025-05-09 14:52:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:43:17</t>
+          <t>2025-05-12 07:17:52</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-09 08:43:17</t>
+          <t>2025-05-12 07:17:52</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:38</t>
+          <t>2025-05-12 08:46:58</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2262</v>
+        <v>5435</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2601,74 +2637,69 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
       </c>
-      <c r="N29" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-2.387944878472222</v>
+        <v>-14.36594945355324</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-2.387944878472222</v>
+        <v>-14.36594945355324</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251548</v>
+        <v>251546</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>206.90625</v>
+        <v>106</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:18:38</t>
+          <t>2025-05-12 08:46:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:38</t>
+          <t>2025-05-12 09:16:58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-09 09:37:38</t>
+          <t>2025-05-12 09:16:58</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:32</t>
+          <t>2025-05-12 11:02:58</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>13242</v>
+        <v>6466</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2681,32 +2712,27 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
       </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-2.54482421875</v>
+        <v>-12.46039389799769</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-2.54482421875</v>
+        <v>-12.46039389799769</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -2714,41 +2740,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251546</v>
+        <v>251229</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>101.03125</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:04:32</t>
+          <t>2025-05-12 11:02:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:21:32</t>
+          <t>2025-05-12 11:27:58</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-09 13:21:32</t>
+          <t>2025-05-12 11:27:58</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-12 07:02:34</t>
+          <t>2025-05-13 08:35:09</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6466</v>
+        <v>18739</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2757,24 +2783,31 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2784,46 +2817,46 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251519</v>
+        <v>251251</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>205.859375</v>
+        <v>260</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:02:34</t>
+          <t>2025-05-13 08:35:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:34</t>
+          <t>2025-05-13 08:55:09</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-12 07:23:34</t>
+          <t>2025-05-13 08:55:09</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:26</t>
+          <t>2025-05-13 13:15:09</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13175</v>
+        <v>15860</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2832,11 +2865,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2849,7 +2882,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
@@ -2859,46 +2892,46 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251475</v>
+        <v>251346</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>135.640625</v>
+        <v>63.26229508196721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-12 10:49:26</t>
+          <t>2025-05-13 13:15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:08:26</t>
+          <t>2025-05-13 13:45:09</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-12 11:08:26</t>
+          <t>2025-05-13 13:45:09</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-12 13:24:04</t>
+          <t>2025-05-13 14:48:25</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>8681</v>
+        <v>3859</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2911,7 +2944,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2924,56 +2957,56 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>-15.616962659375</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0</v>
+        <v>-15.616962659375</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>244355</v>
+        <v>251259</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>67.34375</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:24:04</t>
+          <t>2025-05-13 14:48:25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:04</t>
+          <t>2025-05-14 07:13:25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-12 13:39:04</t>
+          <t>2025-05-14 07:13:25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:25</t>
+          <t>2025-05-14 08:35:23</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4310</v>
+        <v>5000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2986,7 +3019,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
@@ -2999,56 +3032,56 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-8.35791211292824</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0</v>
+        <v>-8.35791211292824</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251485</v>
+        <v>251463</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>75.125</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-12 14:46:25</t>
+          <t>2025-05-14 08:35:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:03:25</t>
+          <t>2025-05-14 09:20:23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-13 07:03:25</t>
+          <t>2025-05-14 09:20:23</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:32</t>
+          <t>2025-05-14 11:14:36</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4808</v>
+        <v>6967</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3061,7 +3094,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3074,56 +3107,56 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0</v>
+        <v>-5.468476775960648</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0</v>
+        <v>-5.468476775960648</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251761</v>
+        <v>251374</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>207.484375</v>
+        <v>448.2459016393443</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:18:32</t>
+          <t>2025-05-14 11:14:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:32</t>
+          <t>2025-05-14 11:49:36</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:32</t>
+          <t>2025-05-14 11:49:36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:01</t>
+          <t>2025-05-15 11:17:51</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>13279</v>
+        <v>27343</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3132,11 +3165,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3149,22 +3182,22 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0</v>
+        <v>-0.4707308743171296</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0</v>
+        <v>-0.4707308743171296</v>
       </c>
       <c r="T36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>251462</v>
+        <v>244354</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3175,30 +3208,30 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>97.28125</v>
+        <v>67.34375</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-13 12:03:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-13 12:22:01</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:18</t>
+          <t>2025-05-07 08:26:20</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3211,7 +3244,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
         <v>70</v>
@@ -3224,22 +3257,22 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0</v>
+        <v>-7.3716796875</v>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251557</v>
+        <v>251464</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3250,30 +3283,30 @@
         <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>104.765625</v>
+        <v>111.765625</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 13:59:18</t>
+          <t>2025-05-07 08:26:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:18</t>
+          <t>2025-05-07 08:41:20</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 14:14:18</t>
+          <t>2025-05-07 08:41:20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:04</t>
+          <t>2025-05-07 10:33:06</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6705</v>
+        <v>7153</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3286,7 +3319,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3299,7 +3332,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
@@ -3314,7 +3347,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251252</v>
+        <v>251626</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3322,33 +3355,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>235.671875</v>
+        <v>195.3125</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-14 07:59:04</t>
+          <t>2025-05-07 10:33:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-14 08:22:04</t>
+          <t>2025-05-07 10:50:06</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-14 08:22:04</t>
+          <t>2025-05-07 10:50:06</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-14 12:17:45</t>
+          <t>2025-05-07 14:05:25</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>15083</v>
+        <v>12500</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3357,11 +3390,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3374,22 +3407,22 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0</v>
+        <v>-7.587098524305556</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0</v>
+        <v>-7.587098524305556</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>245089</v>
+        <v>251485</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3397,33 +3430,33 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>1916.640625</v>
+        <v>75.125</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-14 12:17:45</t>
+          <t>2025-05-07 14:05:25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:45</t>
+          <t>2025-05-07 14:24:25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-14 12:51:45</t>
+          <t>2025-05-07 14:24:25</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-20 12:48:23</t>
+          <t>2025-05-08 07:39:32</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>122665</v>
+        <v>4808</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3432,14 +3465,14 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3449,56 +3482,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>-15.31912977430556</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0</v>
+        <v>-15.31912977430556</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251050</v>
+        <v>251456</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>140.609375</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:39:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:58:32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:58:32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:19:09</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3507,17 +3540,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
         <v>70</v>
       </c>
       <c r="N41" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -3525,60 +3558,60 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.429969618055555</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.429969618055555</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>251054</v>
+        <v>235572</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>155.59375</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:19:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:38:09</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:38:09</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:13:45</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9958</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3587,78 +3620,73 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>70</v>
       </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-549.5512152777778</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-549.5512152777778</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251081</v>
+        <v>251742</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>42.42253521126761</v>
+        <v>128.53125</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 13:13:45</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 13:30:45</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 13:30:45</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:39:16</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3012</v>
+        <v>8226</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3667,19 +3695,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>70</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N43" t="n">
+        <v>39749</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -3687,60 +3713,60 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-2.3189453125</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-2.3189453125</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>245275</v>
+        <v>251455</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1690140845071</v>
+        <v>82.765625</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:39:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:25</t>
+          <t>2025-05-09 07:54:16</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-12 08:34:25</t>
+          <t>2025-05-09 07:54:16</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:35</t>
+          <t>2025-05-09 09:17:02</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>24294</v>
+        <v>5297</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3749,70 +3775,78 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>70</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
+      <c r="N44" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
+        <v>-2.386838107638889</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>-2.386838107638889</v>
+      </c>
+      <c r="T44" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251109</v>
+        <v>245350</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
-        <v>266.5915492957747</v>
+        <v>437.03125</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-12 14:16:35</t>
+          <t>2025-05-09 09:17:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:35</t>
+          <t>2025-05-09 09:44:02</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-13 07:01:35</t>
+          <t>2025-05-09 09:44:02</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:10</t>
+          <t>2025-05-12 09:01:04</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>18928</v>
+        <v>27970</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3821,11 +3855,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M45" t="n">
         <v>70</v>
@@ -3838,53 +3872,56 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S45" t="n">
-        <v>2</v>
+      <c r="S45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251520</v>
+        <v>251164</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>230.1408450704225</v>
+        <v>156.25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-13 11:28:10</t>
+          <t>2025-05-12 09:01:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:10</t>
+          <t>2025-05-12 09:24:04</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-13 12:48:10</t>
+          <t>2025-05-12 09:24:04</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-14 08:38:19</t>
+          <t>2025-05-12 12:00:19</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>16340</v>
+        <v>10000</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3893,70 +3930,78 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>70</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
+      <c r="N46" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
+        <v>-5.500227864583334</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>-5.500227864583334</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251562</v>
+        <v>251840</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>166.1632653061224</v>
+        <v>89.28125</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 12:00:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 12:17:19</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 12:17:19</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-08 10:21:09</t>
+          <t>2025-05-12 13:46:36</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>8142</v>
+        <v>5714</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3969,27 +4014,32 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>70</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
+      <c r="N47" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0</v>
+        <v>-4.574034288194444</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0</v>
+        <v>-4.574034288194444</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -3997,41 +4047,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251456</v>
+        <v>251391</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>183.6530612244898</v>
+        <v>91.640625</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-08 10:21:09</t>
+          <t>2025-05-12 13:46:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-08 11:01:09</t>
+          <t>2025-05-12 14:01:36</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-08 11:01:09</t>
+          <t>2025-05-12 14:01:36</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:48</t>
+          <t>2025-05-13 07:33:15</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>8999</v>
+        <v>5865</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4044,13 +4094,13 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
         <v>70</v>
       </c>
       <c r="N48" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4058,60 +4108,60 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-2.586678004537037</v>
+        <v>-6.314756944444444</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-2.586678004537037</v>
+        <v>-6.314756944444444</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251416</v>
+        <v>251395</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>229.0204081632653</v>
+        <v>35.34375</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:04:48</t>
+          <t>2025-05-13 07:33:15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:48</t>
+          <t>2025-05-13 07:50:15</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:48</t>
+          <t>2025-05-13 07:50:15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:50</t>
+          <t>2025-05-13 08:25:35</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>11222</v>
+        <v>2262</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4124,19 +4174,21 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>70</v>
       </c>
       <c r="N49" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4144,52 +4196,52 @@
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0</v>
+        <v>-6.351106770833334</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0</v>
+        <v>-6.351106770833334</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251626</v>
+        <v>251396</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>255.1020408163265</v>
+        <v>35.34375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-09 10:33:50</t>
+          <t>2025-05-13 08:25:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:13:50</t>
+          <t>2025-05-13 08:40:35</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-09 11:13:50</t>
+          <t>2025-05-13 08:40:35</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-12 07:28:56</t>
+          <t>2025-05-13 09:15:56</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12500</v>
+        <v>2262</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4202,27 +4254,32 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
+      <c r="N50" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-6.386067708333333</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-6.386067708333333</v>
       </c>
       <c r="T50" t="n">
         <v>7</v>
@@ -4230,41 +4287,41 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251373</v>
+        <v>251548</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>348.8571428571428</v>
+        <v>206.90625</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-12 07:28:56</t>
+          <t>2025-05-13 09:15:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-12 08:13:56</t>
+          <t>2025-05-13 09:34:56</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-12 08:13:56</t>
+          <t>2025-05-13 09:34:56</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-12 14:02:47</t>
+          <t>2025-05-13 13:01:50</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17094</v>
+        <v>13242</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4277,69 +4334,74 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
+      <c r="N51" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0</v>
+        <v>-6.542947048611111</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0</v>
+        <v>-6.542947048611111</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251259</v>
+        <v>251477</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>102.0408163265306</v>
+        <v>468.734375</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:02:47</t>
+          <t>2025-05-13 13:01:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:47</t>
+          <t>2025-05-13 13:33:50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-12 14:57:47</t>
+          <t>2025-05-13 13:33:50</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:50</t>
+          <t>2025-05-14 13:22:34</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>5000</v>
+        <v>29999</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4348,73 +4410,78 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>70</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N52" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>-7.557345920138889</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0</v>
+        <v>-7.557345920138889</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251464</v>
+        <v>251782</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>145.9795918367347</v>
+        <v>188.640625</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:39:50</t>
+          <t>2025-05-14 13:22:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:50</t>
+          <t>2025-05-14 13:37:34</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-13 09:39:50</t>
+          <t>2025-05-14 13:37:34</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 12:05:48</t>
+          <t>2025-05-15 08:46:13</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>7153</v>
+        <v>12073</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4423,31 +4490,36 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>70</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N53" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0</v>
+        <v>-6.3654296875</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0</v>
+        <v>-6.3654296875</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -4455,41 +4527,41 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251547</v>
+        <v>251743</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" t="n">
-        <v>184.9154929577465</v>
+        <v>168.375</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-15 08:46:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-15 09:18:13</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-15 09:18:13</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-15 12:06:35</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>13129</v>
+        <v>10776</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4507,69 +4579,64 @@
       <c r="M54" t="n">
         <v>70</v>
       </c>
-      <c r="N54" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251225</v>
+        <v>251519</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>215.983606557377</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:17:59</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4578,78 +4645,73 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>76</v>
-      </c>
-      <c r="N55" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>-0.4645246478819445</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>250759</v>
+        <v>251557</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D56" t="n">
-        <v>118.2816901408451</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 11:17:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-09 11:42:59</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-09 11:42:59</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 13:32:54</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8398</v>
+        <v>6705</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4658,36 +4720,31 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>76</v>
-      </c>
-      <c r="N56" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
         <v>1</v>
@@ -4695,41 +4752,41 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>250894</v>
+        <v>251761</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>623.4084507042254</v>
+        <v>217.6885245901639</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 13:32:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-09 14:01:54</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-09 14:01:54</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-12 09:39:35</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>44262</v>
+        <v>13279</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4738,17 +4795,14 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>76</v>
-      </c>
-      <c r="N57" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4758,7 +4812,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
@@ -4768,46 +4822,46 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>235572</v>
+        <v>251283</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
-        <v>140.2535211267606</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-12 09:39:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:36</t>
+          <t>2025-05-12 10:08:35</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:36</t>
+          <t>2025-05-12 10:08:35</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:51</t>
+          <t>2025-05-12 10:20:57</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>9958</v>
+        <v>754</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4816,11 +4870,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
@@ -4833,53 +4887,56 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
+        <v>-55.43121584699074</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>-55.43121584699074</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251594</v>
+        <v>251247</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>91.07042253521126</v>
+        <v>441.5409836065574</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:24:51</t>
+          <t>2025-05-12 10:20:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:41:51</t>
+          <t>2025-05-12 10:45:57</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:41:51</t>
+          <t>2025-05-12 10:45:57</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:55</t>
+          <t>2025-05-13 10:07:29</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>6466</v>
+        <v>26934</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4888,11 +4945,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
@@ -4905,53 +4962,56 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
+        <v>-4.421869307835649</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>-4.421869307835649</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251743</v>
+        <v>251252</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D60" t="n">
-        <v>151.7746478873239</v>
+        <v>247.2622950819672</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-12 12:12:55</t>
+          <t>2025-05-13 10:07:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:55</t>
+          <t>2025-05-13 10:32:29</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-12 12:27:55</t>
+          <t>2025-05-13 10:32:29</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:42</t>
+          <t>2025-05-13 14:39:45</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>10776</v>
+        <v>15083</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4960,11 +5020,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
@@ -4977,53 +5037,56 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S60" t="n">
-        <v>4</v>
+      <c r="S60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>250670</v>
+        <v>245090</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>22.01408450704225</v>
+        <v>7488.666666666667</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:42</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:42</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:29:42</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:43</t>
+          <t>2025-06-02 12:28:40</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1563</v>
+        <v>516718</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5032,11 +5095,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
         <v>76</v>
@@ -5049,53 +5112,56 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S61" t="n">
-        <v>2</v>
+      <c r="S61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251245</v>
+        <v>251467</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>10.61971830985915</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-13 07:51:43</t>
+          <t>2025-06-02 12:28:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:43</t>
+          <t>2025-06-02 13:13:40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:43</t>
+          <t>2025-06-02 13:13:40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:20</t>
+          <t>2025-06-02 14:43:53</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>754</v>
+        <v>6226</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5104,11 +5170,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5121,53 +5187,56 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
+        <v>-24.61381843799768</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>-24.61381843799768</v>
+      </c>
+      <c r="T62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251466</v>
+        <v>243335</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D63" t="n">
-        <v>78.40845070422536</v>
+        <v>478.3188405797101</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:36:20</t>
+          <t>2025-06-02 14:43:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:20</t>
+          <t>2025-06-03 07:23:53</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-13 08:57:20</t>
+          <t>2025-06-03 07:23:53</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:44</t>
+          <t>2025-06-04 07:22:13</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5567</v>
+        <v>33004</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5176,14 +5245,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5193,53 +5262,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
+        <v>-306.307095410625</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>-306.307095410625</v>
+      </c>
+      <c r="T63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251465</v>
+        <v>250819</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D64" t="n">
-        <v>87.69014084507042</v>
+        <v>123.5797101449275</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:15:44</t>
+          <t>2025-06-04 07:22:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:44</t>
+          <t>2025-06-04 08:02:13</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:44</t>
+          <t>2025-06-04 08:02:13</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:26</t>
+          <t>2025-06-04 10:05:47</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6226</v>
+        <v>8527</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5252,7 +5324,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5265,53 +5337,56 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>1</v>
+        <v>-47.4206924315625</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>-47.4206924315625</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251580</v>
+        <v>251462</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>100.7464788732394</v>
+        <v>90.23188405797102</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:00:26</t>
+          <t>2025-06-04 10:05:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-06-04 10:50:47</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-13 12:19:26</t>
+          <t>2025-06-04 10:50:47</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:10</t>
+          <t>2025-06-04 12:21:01</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5324,7 +5399,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5337,53 +5412,56 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" t="n">
+        <v>-26.51460346215278</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>-26.51460346215278</v>
+      </c>
+      <c r="T65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>251062</v>
+        <v>244023</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D66" t="n">
-        <v>318.6478873239437</v>
+        <v>14.44927536231884</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:00:10</t>
+          <t>2025-06-04 12:21:01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:19:10</t>
+          <t>2025-06-04 13:06:01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-13 14:19:10</t>
+          <t>2025-06-04 13:06:01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-14 11:37:49</t>
+          <t>2025-06-04 13:20:28</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>22624</v>
+        <v>997</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5392,7 +5470,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5409,53 +5487,56 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S66" t="n">
+        <v>-247.5558876811574</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>-247.5558876811574</v>
+      </c>
+      <c r="T66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251651</v>
+        <v>251061</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>767.7049180327868</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 13:20:28</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 13:45:28</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-04 13:45:28</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 11:33:15</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>46830</v>
+        <v>23997</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5464,17 +5545,14 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M67" t="n">
-        <v>76</v>
-      </c>
-      <c r="N67" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -5484,56 +5562,56 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>0</v>
+        <v>-31.4814311594213</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>0</v>
+        <v>-31.4814311594213</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251809</v>
+        <v>251249</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>142.3114754098361</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 11:33:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-05 11:58:15</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-12 12:58:42</t>
+          <t>2025-06-05 11:58:15</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:00</t>
+          <t>2025-06-05 13:07:13</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8681</v>
+        <v>4758</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5542,11 +5620,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>70</v>
@@ -5559,53 +5637,56 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S68" t="n">
-        <v>4</v>
+      <c r="S68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>244023</v>
+        <v>251284</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D69" t="n">
-        <v>16.34426229508197</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>997</v>
+        <v>16340</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5614,28 +5695,33 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S69" t="n">
         <v>1</v>
@@ -5643,41 +5729,41 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251061</v>
+        <v>245275</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>44.5</v>
       </c>
       <c r="D70" t="n">
-        <v>393.3934426229508</v>
+        <v>441.7090909090909</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:06:21</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:21</t>
+          <t>2025-05-09 13:22:05</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 08:31:21</t>
+          <t>2025-05-09 13:22:05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:45</t>
+          <t>2025-05-12 12:43:48</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>23997</v>
+        <v>24294</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5686,11 +5772,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
@@ -5703,53 +5789,53 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251251</v>
+        <v>251485</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>25</v>
+        <v>48.5</v>
       </c>
       <c r="D71" t="n">
-        <v>260</v>
+        <v>87.41818181818182</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:04:45</t>
+          <t>2025-05-12 12:43:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:45</t>
+          <t>2025-05-12 13:32:18</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:29:45</t>
+          <t>2025-05-12 13:32:18</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:45</t>
+          <t>2025-05-12 14:59:43</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>15860</v>
+        <v>4808</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5758,11 +5844,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5775,53 +5861,53 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>0</v>
+        <v>-19.62480429292824</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>245350</v>
+        <v>251761</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>32.5</v>
       </c>
       <c r="D72" t="n">
-        <v>405.3623188405797</v>
+        <v>241.4363636363636</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-12 14:59:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-13 07:32:13</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-12 08:05:00</t>
+          <t>2025-05-13 07:32:13</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-13 11:33:39</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>27970</v>
+        <v>13279</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5830,11 +5916,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5847,53 +5933,53 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>250641</v>
+        <v>251462</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>45</v>
+        <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>74.14492753623189</v>
+        <v>113.2</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-12 14:50:21</t>
+          <t>2025-05-13 11:33:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 12:08:09</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 07:35:21</t>
+          <t>2025-05-13 12:08:09</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 14:01:21</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>5116</v>
+        <v>6226</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5906,7 +5992,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -5919,53 +6005,53 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>-4.584273989895833</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251463</v>
+        <v>251520</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D74" t="n">
-        <v>100.9710144927536</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 08:49:30</t>
+          <t>2025-05-13 14:01:21</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-13 14:41:51</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 09:24:30</t>
+          <t>2025-05-13 14:41:51</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-14 11:38:56</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6967</v>
+        <v>16340</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5974,11 +6060,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
@@ -5991,11 +6077,11 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>0</v>
+        <v>-2.485378787881944</v>
       </c>
       <c r="S74" t="n">
         <v>1</v>
@@ -6003,41 +6089,41 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251467</v>
+        <v>251809</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
-        <v>90.23188405797102</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:05:28</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-13 11:40:28</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-08 09:36:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6226</v>
+        <v>8681</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6050,7 +6136,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
@@ -6063,53 +6149,56 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S75" t="n">
-        <v>1</v>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251260</v>
+        <v>244204</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>135.7826086956522</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:10:42</t>
+          <t>2025-05-08 09:36:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:42</t>
+          <t>2025-05-08 09:51:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-13 13:55:42</t>
+          <t>2025-05-08 09:51:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:29</t>
+          <t>2025-05-08 10:40:10</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>9369</v>
+        <v>3472</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6118,11 +6207,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
@@ -6135,53 +6224,56 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>1</v>
+        <v>-0.4445618153356481</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>-0.4445618153356481</v>
+      </c>
+      <c r="T76" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251249</v>
+        <v>251547</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>68.95652173913044</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:11:29</t>
+          <t>2025-05-08 10:40:10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:29</t>
+          <t>2025-05-08 10:55:10</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-14 08:36:29</t>
+          <t>2025-05-08 10:55:10</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-14 09:45:26</t>
+          <t>2025-05-08 14:00:05</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4758</v>
+        <v>13129</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6190,70 +6282,78 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
+      <c r="N77" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1</v>
+        <v>-1.583392018784722</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>-1.583392018784722</v>
+      </c>
+      <c r="T77" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>245090</v>
+        <v>251566</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>7488.666666666667</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-14 09:45:26</t>
+          <t>2025-05-08 14:00:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:26</t>
+          <t>2025-05-08 14:15:05</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-14 10:20:26</t>
+          <t>2025-05-08 14:15:05</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-06-05 07:09:06</t>
+          <t>2025-05-09 07:52:06</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>516718</v>
+        <v>6889</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6262,14 +6362,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -6279,135 +6379,131 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1</v>
+        <v>-2.327856025034722</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>-2.327856025034722</v>
+      </c>
+      <c r="T78" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251706</v>
+        <v>251424</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>50.79365079365079</v>
+        <v>136.0845070422535</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:52:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 08:07:06</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 08:07:06</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 10:23:11</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3200</v>
+        <v>9662</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>0</v>
+        <v>-11.43277582159722</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>0</v>
+        <v>-11.43277582159722</v>
       </c>
       <c r="T79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251227</v>
+        <v>251246</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>169.0422535211268</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 10:23:11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:42:11</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:42:11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:31:14</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>12002</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6416,36 +6512,31 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>76</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.5633607198726852</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-0.5633607198726852</v>
       </c>
       <c r="T80" t="n">
         <v>1</v>
@@ -6453,41 +6544,41 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251782</v>
+        <v>250641</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>170.0422535211268</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 13:31:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 13:46:14</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-09 13:46:14</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-09 14:58:17</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>12073</v>
+        <v>5116</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6496,78 +6587,73 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
-        <v>76</v>
-      </c>
-      <c r="N81" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-11.62381651017361</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-0.3097515649421296</v>
+        <v>-11.62381651017361</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251340</v>
+        <v>251475</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>461.9718309859155</v>
+        <v>122.2676056338028</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 14:58:17</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 07:17:17</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 07:58:02</t>
+          <t>2025-05-12 07:17:17</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 09:19:33</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>32800</v>
+        <v>8681</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6576,14 +6662,14 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -6593,53 +6679,56 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
+        <v>-12.38858568075232</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>-12.38858568075232</v>
+      </c>
+      <c r="T82" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>243569</v>
+        <v>251245</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>36.63380281690141</v>
+        <v>10.61971830985915</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 09:19:33</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 09:38:33</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:00</t>
+          <t>2025-05-12 09:38:33</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 09:49:10</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2601</v>
+        <v>754</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6648,14 +6737,14 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M83" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -6665,53 +6754,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S83" t="n">
-        <v>2</v>
+        <v>-45.40915492957176</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>-45.40915492957176</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>245623</v>
+        <v>251465</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>372.0985915492957</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 08:33:38</t>
+          <t>2025-05-12 09:49:10</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 10:12:10</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:05:38</t>
+          <t>2025-05-12 10:12:10</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 11:39:52</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>26419</v>
+        <v>6226</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6720,14 +6812,14 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -6737,53 +6829,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
-        <v>2</v>
+        <v>-3.486023082939815</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>-3.486023082939815</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>243335</v>
+        <v>251505</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>464.8450704225352</v>
+        <v>200.7746478873239</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:17:44</t>
+          <t>2025-05-12 11:39:52</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-12 12:00:52</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:36:44</t>
+          <t>2025-05-12 12:00:52</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 07:21:38</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>33004</v>
+        <v>14255</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6792,14 +6887,14 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M85" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -6809,53 +6904,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1</v>
+        <v>-8.306699921747684</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>-8.306699921747684</v>
+      </c>
+      <c r="T85" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251750</v>
+        <v>251580</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>17</v>
       </c>
       <c r="D86" t="n">
-        <v>54.80281690140845</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:21:35</t>
+          <t>2025-05-13 07:21:38</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-13 07:38:38</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:35</t>
+          <t>2025-05-13 07:38:38</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-13 09:19:23</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3891</v>
+        <v>7153</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6864,14 +6962,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -6881,53 +6979,56 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S86" t="n">
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251987</v>
+        <v>251371</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>2965.154929577465</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-14 08:33:23</t>
+          <t>2025-05-13 09:19:23</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-13 09:34:23</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-14 09:09:23</t>
+          <t>2025-05-13 09:34:23</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-22 10:34:32</t>
+          <t>2025-05-13 09:34:23</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>210526</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -6936,30 +7037,772 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
+        <v>4</v>
+      </c>
+      <c r="M87" t="n">
+        <v>70</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>39666</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>2025-04-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>-19.39888497652778</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>-19.39888497652778</v>
+      </c>
+      <c r="T87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>251260</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>19</v>
+      </c>
+      <c r="D88" t="n">
+        <v>131.9577464788732</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:34:23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:53:23</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-05-13 09:53:23</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:05:21</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>9369</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
         <v>6</v>
       </c>
-      <c r="M87" t="n">
+      <c r="M88" t="n">
+        <v>70</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>2025-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>251594</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>19</v>
+      </c>
+      <c r="D89" t="n">
+        <v>91.07042253521126</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:05:21</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:24:21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:24:21</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:55:25</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>6466</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>4</v>
+      </c>
+      <c r="M89" t="n">
+        <v>70</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2025-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>-6.580154538344908</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>-6.580154538344908</v>
+      </c>
+      <c r="T89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>251795</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>19</v>
+      </c>
+      <c r="D90" t="n">
+        <v>263.9295774647887</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025-05-13 13:55:25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:14:25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:14:25</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2025-05-14 10:38:21</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>18739</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>6</v>
+      </c>
+      <c r="M90" t="n">
+        <v>70</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>2025-06-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>35</v>
+      </c>
+      <c r="D91" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:24:01</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>70</v>
+      </c>
+      <c r="N91" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>251561</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>50</v>
+      </c>
+      <c r="D92" t="n">
+        <v>110.9183673469388</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:24:01</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:14:01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:14:01</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:04:56</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>5435</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" t="n">
+        <v>70</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>2025-05-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>-1.586763038553241</v>
+      </c>
+      <c r="S92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>251626</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>45</v>
+      </c>
+      <c r="D93" t="n">
+        <v>255.1020408163265</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:04:56</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:49:56</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:49:56</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:05:02</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>70</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>-9.461833900231481</v>
+      </c>
+      <c r="S93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>251519</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>40</v>
+      </c>
+      <c r="D94" t="n">
+        <v>268.8775510204082</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:05:02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:45:02</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:45:02</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:13:55</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>13175</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>70</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2025-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>251340</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>37</v>
+      </c>
+      <c r="D95" t="n">
+        <v>669.3877551020408</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:13:55</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:55</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-05-12 08:50:55</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:00:18</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>32800</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
         <v>76</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2025-09-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="R87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="n">
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R95" s="1" t="n">
+        <v>-15.50021258503472</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>251467</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>37</v>
+      </c>
+      <c r="D96" t="n">
+        <v>127.0612244897959</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:00:18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:37:18</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-05-13 12:37:18</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:44:22</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>6226</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>70</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R96" s="1" t="n">
+        <v>-4.614143990925927</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>251062</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>55</v>
+      </c>
+      <c r="D97" t="n">
+        <v>461.7142857142857</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025-05-13 14:44:22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:39:22</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-05-14 07:39:22</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2025-05-15 07:21:04</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>22624</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>6</v>
+      </c>
+      <c r="M97" t="n">
+        <v>70</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>2025-05-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251750</v>
+        <v>235572</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>54.80281690140845</v>
+        <v>144.3188405797102</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:32:00</t>
+          <t>2025-05-12 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:48</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3891</v>
+        <v>9958</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,14 +558,14 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -575,56 +575,56 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-3.593945618148148</v>
+        <v>-563.3814714170717</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-553.4196658615161</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>245623</v>
+        <v>250670</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>372.0985915492957</v>
+        <v>22.65217391304348</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:48</t>
+          <t>2025-05-12 10:04:19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:43:48</t>
+          <t>2025-05-12 10:39:19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:43:48</t>
+          <t>2025-05-12 10:39:19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 11:55:54</t>
+          <t>2025-05-12 11:01:58</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>26419</v>
+        <v>1563</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,14 +633,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -650,14 +650,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-104.4971537558681</v>
+        <v>-7.459702093402778</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-104.4971537558681</v>
+        <v>-7.459702093402778</v>
       </c>
       <c r="T3" t="n">
         <v>2</v>
@@ -665,41 +665,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251651</v>
+        <v>251782</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>659.5774647887324</v>
+        <v>174.9710144927536</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:55:54</t>
+          <t>2025-05-12 11:01:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:31:54</t>
+          <t>2025-05-12 11:31:58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:31:54</t>
+          <t>2025-05-12 11:31:58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:28</t>
+          <t>2025-05-12 14:26:56</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>46830</v>
+        <v>12073</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,76 +708,78 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3135269953009259</v>
+        <v>-3.60204307568287</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3135269953009259</v>
+        <v>-3.60204307568287</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251340</v>
+        <v>251561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>461.9718309859155</v>
+        <v>78.76811594202898</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:31:28</t>
+          <t>2025-05-12 14:26:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:28</t>
+          <t>2025-05-13 07:06:56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:52:28</t>
+          <t>2025-05-13 07:06:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:27</t>
+          <t>2025-05-13 08:25:42</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>32800</v>
+        <v>5435</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -786,14 +788,14 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -803,56 +805,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.3155907668287</v>
+        <v>-6.351187600648148</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-16.3155907668287</v>
+        <v>-6.351187600648148</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251245</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>10.92753623188406</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-14 07:34:27</t>
+          <t>2025-05-13 08:25:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-14 07:53:27</t>
+          <t>2025-05-13 08:55:42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-14 07:53:27</t>
+          <t>2025-05-13 08:55:42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-14 09:51:43</t>
+          <t>2025-05-13 09:06:38</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>754</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -861,36 +863,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-6.410925273865741</v>
+        <v>-46.37960950081018</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-6.410925273865741</v>
+        <v>-46.37960950081018</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -898,41 +895,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251225</v>
+        <v>251987</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3051.101449275362</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-14 09:51:43</t>
+          <t>2025-05-13 09:06:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:43</t>
+          <t>2025-05-13 09:36:38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:43</t>
+          <t>2025-05-13 09:36:38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:43</t>
+          <t>2025-05-21 12:27:44</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>210526</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -941,36 +938,31 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>76</v>
       </c>
-      <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-6.421341940532407</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-6.421341940532407</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -978,41 +970,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>245089</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.676056338028</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:06:43</t>
+          <t>2025-05-21 12:27:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:43</t>
+          <t>2025-05-21 12:57:44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-14 10:21:43</t>
+          <t>2025-05-21 12:57:44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-20 07:09:24</t>
+          <t>2025-05-22 09:29:19</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>122665</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1021,31 +1013,38 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-7.395360305960649</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-7.395360305960649</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1053,41 +1052,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>144.9275362318841</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-20 07:09:24</t>
+          <t>2025-05-22 09:29:19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:24</t>
+          <t>2025-05-22 09:54:19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:24</t>
+          <t>2025-05-22 09:54:19</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:24</t>
+          <t>2025-05-22 12:19:14</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1096,78 +1095,78 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>-15.51336553945602</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>-15.51336553945602</v>
+      </c>
+      <c r="T9" t="n">
         <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="n">
-        <v>-14.30861697965278</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-14.30861697965278</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251987</v>
+        <v>244023</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>2965.154929577465</v>
+        <v>14.44927536231884</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-20 07:24:24</t>
+          <t>2025-05-22 12:19:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-20 07:43:24</t>
+          <t>2025-05-22 12:44:14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-20 07:43:24</t>
+          <t>2025-05-22 12:44:14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-28 09:08:33</t>
+          <t>2025-05-22 12:58:41</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>210526</v>
+        <v>997</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,14 +1175,14 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1193,14 +1192,14 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-234.5407608695602</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-234.5407608695602</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1208,41 +1207,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>98.67605633802818</v>
+        <v>347.7826086956522</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-28 09:08:33</t>
+          <t>2025-05-22 12:58:41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-28 09:25:33</t>
+          <t>2025-05-22 13:23:41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-28 09:25:33</t>
+          <t>2025-05-22 13:23:41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-28 11:04:14</t>
+          <t>2025-05-23 11:11:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>23997</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,78 +1250,73 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-21.46127738653935</v>
+        <v>-18.46630434782407</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-21.46127738653935</v>
+        <v>-18.46630434782407</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250894</v>
+        <v>251251</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>623.4084507042254</v>
+        <v>229.8550724637681</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-28 11:04:14</t>
+          <t>2025-05-23 11:11:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-28 11:19:14</t>
+          <t>2025-05-23 11:36:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-28 11:19:14</t>
+          <t>2025-05-23 11:36:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-29 13:42:38</t>
+          <t>2025-05-26 07:26:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>44262</v>
+        <v>15860</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1331,17 +1325,14 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1351,176 +1342,176 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-16.57128325508102</v>
+        <v>-3.309953703703704</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-16.57128325508102</v>
+        <v>-3.309953703703704</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>243569</v>
+        <v>251706</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>36.63380281690141</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-29 13:42:38</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-29 14:01:38</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-29 14:01:38</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-29 14:38:16</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2601</v>
+        <v>3200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-255.6099178403704</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-255.6099178403704</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251706</v>
+        <v>251109</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>50.79365079365079</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 08:47:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3200</v>
+        <v>18928</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7</v>
+        <v>-26.42695618153935</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-21.55110524256945</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251109</v>
+        <v>251259</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1519,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>266.5915492957747</v>
+        <v>70.4225352112676</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 13:13:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 08:47:00</t>
+          <t>2025-05-09 14:23:35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 08:47:00</t>
+          <t>2025-05-09 14:23:35</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:13:35</t>
+          <t>2025-05-12 07:34:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>18928</v>
+        <v>5000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,11 +1554,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1580,14 +1571,14 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-26.35672926447917</v>
+        <v>-6.315287558680556</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-21.55110524256945</v>
+        <v>-6.315287558680556</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1595,7 +1586,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251564</v>
+        <v>251546</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1603,33 +1594,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D16" t="n">
-        <v>38.26760563380282</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:13:35</t>
+          <t>2025-05-12 07:34:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:53:35</t>
+          <t>2025-05-12 08:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 14:53:35</t>
+          <t>2025-05-12 08:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:51</t>
+          <t>2025-05-12 10:00:05</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2717</v>
+        <v>6466</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1642,7 +1633,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1655,22 +1646,22 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-5.313791079814814</v>
+        <v>-12.41672535211806</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-5.313791079814814</v>
+        <v>-12.41672535211806</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251562</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1678,33 +1669,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>114.6760563380282</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:31:51</t>
+          <t>2025-05-12 10:00:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:11:51</t>
+          <t>2025-05-12 10:45:05</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 08:11:51</t>
+          <t>2025-05-12 10:45:05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:32</t>
+          <t>2025-05-12 14:35:13</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8142</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1713,31 +1704,36 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
+      <c r="N17" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-4.607795383414351</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-4.607795383414351</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1745,7 +1741,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251561</v>
+        <v>245275</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1753,33 +1749,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
-        <v>76.54929577464789</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:32</t>
+          <t>2025-05-12 14:35:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:32</t>
+          <t>2025-05-13 07:45:13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 10:56:32</t>
+          <t>2025-05-13 07:45:13</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:05</t>
+          <t>2025-05-13 13:27:23</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5435</v>
+        <v>24294</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,11 +1784,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1805,22 +1801,22 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-5.509086463229167</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-5.509086463229167</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>245275</v>
+        <v>251050</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1828,33 +1824,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="D19" t="n">
-        <v>342.1690140845071</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 12:13:05</t>
+          <t>2025-05-13 13:27:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:05</t>
+          <t>2025-05-14 08:02:23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 13:33:05</t>
+          <t>2025-05-14 08:02:23</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-13 11:15:15</t>
+          <t>2025-05-14 08:02:23</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>24294</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1863,39 +1859,44 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
+      <c r="N19" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-6.334996087638889</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-6.334996087638889</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>250670</v>
+        <v>251054</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1903,33 +1904,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>22.01408450704225</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-13 11:15:15</t>
+          <t>2025-05-14 08:02:23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:15</t>
+          <t>2025-05-14 08:37:23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-13 12:42:15</t>
+          <t>2025-05-14 08:37:23</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:16</t>
+          <t>2025-05-14 08:37:23</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1938,31 +1939,36 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-8.544630281689814</v>
+        <v>-6.359301643194445</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-8.544630281689814</v>
+        <v>-6.359301643194445</v>
       </c>
       <c r="T20" t="n">
         <v>2</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1978,33 +1984,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:16</t>
+          <t>2025-05-14 08:37:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:16</t>
+          <t>2025-05-14 10:42:23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:16</t>
+          <t>2025-05-14 10:42:23</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:16</t>
+          <t>2025-05-14 11:24:49</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2017,13 +2023,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39747</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2031,18 +2039,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-6.355046948356481</v>
+        <v>-21.47556729265046</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-6.355046948356481</v>
+        <v>-21.47556729265046</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
@@ -2050,41 +2058,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251054</v>
+        <v>251249</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>86.50909090909092</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:16</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 09:05:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4758</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2093,78 +2101,73 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-6.379352503912037</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-6.379352503912037</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251081</v>
+        <v>251252</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>125</v>
+        <v>30.5</v>
       </c>
       <c r="D23" t="n">
-        <v>42.42253521126761</v>
+        <v>274.2363636363636</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-14 09:06:16</t>
+          <t>2025-05-09 09:05:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:16</t>
+          <t>2025-05-09 09:35:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:11:16</t>
+          <t>2025-05-09 09:35:30</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-14 11:53:41</t>
+          <t>2025-05-09 14:09:44</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3012</v>
+        <v>15083</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2173,80 +2176,73 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-21.49561815336806</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-21.49561815336806</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251466</v>
+        <v>251467</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>38.5</v>
       </c>
       <c r="D24" t="n">
-        <v>91.26229508196721</v>
+        <v>113.2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 14:09:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-09 14:48:14</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-09 14:48:14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-05-12 08:41:26</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5567</v>
+        <v>6226</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2259,7 +2255,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2276,10 +2272,10 @@
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-5.357912112928241</v>
+        <v>-3.362114898993056</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0</v>
+        <v>-3.362114898993056</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
@@ -2287,41 +2283,41 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251373</v>
+        <v>251062</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="D25" t="n">
-        <v>280.2295081967213</v>
+        <v>411.3454545454546</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:15</t>
+          <t>2025-05-12 08:41:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:26:15</t>
+          <t>2025-05-12 09:19:56</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:26:15</t>
+          <t>2025-05-12 09:19:56</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:29</t>
+          <t>2025-05-13 08:11:17</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17094</v>
+        <v>22624</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2330,11 +2326,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2347,56 +2343,56 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-10.58784153005787</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-10.58784153005787</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251283</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>30.5</v>
       </c>
       <c r="D26" t="n">
-        <v>183.9672131147541</v>
+        <v>13.70909090909091</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:06:29</t>
+          <t>2025-05-13 08:11:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:29</t>
+          <t>2025-05-13 08:41:47</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:29</t>
+          <t>2025-05-13 08:41:47</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 09:45:27</t>
+          <t>2025-05-13 08:55:30</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>754</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2405,18 +2401,15 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39755</v>
-      </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
@@ -2425,56 +2418,56 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-56.371875</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-56.371875</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251846</v>
+        <v>251246</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20</v>
+        <v>30.5</v>
       </c>
       <c r="D27" t="n">
-        <v>186.7540983606557</v>
+        <v>218.2181818181818</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 09:45:27</t>
+          <t>2025-05-13 08:55:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:27</t>
+          <t>2025-05-13 09:26:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:27</t>
+          <t>2025-05-13 09:26:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:12</t>
+          <t>2025-05-13 13:04:13</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11392</v>
+        <v>12002</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2483,11 +2476,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
@@ -2500,56 +2493,56 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-4.544595959594908</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-4.544595959594908</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>244355</v>
+        <v>251520</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="D28" t="n">
-        <v>70.65573770491804</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:12:12</t>
+          <t>2025-05-13 13:04:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:12</t>
+          <t>2025-05-13 13:36:43</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-09 13:42:12</t>
+          <t>2025-05-13 13:36:43</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:52</t>
+          <t>2025-05-14 10:33:48</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4310</v>
+        <v>16340</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2558,11 +2551,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
@@ -2575,22 +2568,22 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-1.620047814212963</v>
+        <v>-2.440145202025463</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-1.620047814212963</v>
+        <v>-2.440145202025463</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251397</v>
+        <v>251462</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2598,33 +2591,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>89.09836065573771</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-09 14:52:52</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:52</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:52</t>
+          <t>2025-05-08 07:20:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-12 08:46:58</t>
+          <t>2025-05-08 09:02:03</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5435</v>
+        <v>6226</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2637,7 +2630,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2650,22 +2643,22 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-14.36594945355324</v>
+        <v>-4.494091530057871</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-14.36594945355324</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251546</v>
+        <v>251564</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2673,33 +2666,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>106</v>
+        <v>44.54098360655738</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-12 08:46:58</t>
+          <t>2025-05-08 09:02:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:58</t>
+          <t>2025-05-08 09:27:03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-12 09:16:58</t>
+          <t>2025-05-08 09:27:03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-12 11:02:58</t>
+          <t>2025-05-08 10:11:36</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6466</v>
+        <v>2717</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2712,7 +2705,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2725,22 +2718,22 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-12.46039389799769</v>
+        <v>-1.424726775960648</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-12.46039389799769</v>
+        <v>-1.424726775960648</v>
       </c>
       <c r="T30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251229</v>
+        <v>251416</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2751,30 +2744,30 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>307.1967213114754</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:02:58</t>
+          <t>2025-05-08 10:11:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:27:58</t>
+          <t>2025-05-08 10:36:36</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-12 11:27:58</t>
+          <t>2025-05-08 10:36:36</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:09</t>
+          <t>2025-05-08 13:40:34</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2783,31 +2776,27 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N31" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
@@ -2817,12 +2806,12 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251251</v>
+        <v>251626</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2830,33 +2819,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
-        <v>260</v>
+        <v>204.9180327868852</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:35:09</t>
+          <t>2025-05-08 13:40:34</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:09</t>
+          <t>2025-05-08 14:05:34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:09</t>
+          <t>2025-05-08 14:05:34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:09</t>
+          <t>2025-05-09 09:30:29</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15860</v>
+        <v>12500</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2865,11 +2854,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2882,22 +2871,22 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0</v>
+        <v>-9.396174863391204</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0</v>
+        <v>-9.396174863391204</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251346</v>
+        <v>251424</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2905,33 +2894,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>63.26229508196721</v>
+        <v>158.3934426229508</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:15:09</t>
+          <t>2025-05-09 09:30:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:09</t>
+          <t>2025-05-09 09:55:29</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-13 13:45:09</t>
+          <t>2025-05-09 09:55:29</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:25</t>
+          <t>2025-05-09 12:33:53</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3859</v>
+        <v>9662</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2944,7 +2933,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2961,18 +2950,18 @@
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-15.616962659375</v>
+        <v>-11.52353142076389</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-15.616962659375</v>
+        <v>-11.52353142076389</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251259</v>
+        <v>251371</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2980,33 +2969,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>81.9672131147541</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-13 14:48:25</t>
+          <t>2025-05-09 12:33:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:25</t>
+          <t>2025-05-09 12:53:53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-14 07:13:25</t>
+          <t>2025-05-09 12:53:53</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:23</t>
+          <t>2025-05-09 12:53:53</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3019,35 +3008,42 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-8.35791211292824</v>
+        <v>-15.53742030965278</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-8.35791211292824</v>
+        <v>-15.53742030965278</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251463</v>
+        <v>251505</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3055,33 +3051,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D35" t="n">
-        <v>114.2131147540984</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-14 08:35:23</t>
+          <t>2025-05-09 12:53:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:23</t>
+          <t>2025-05-09 13:18:53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:23</t>
+          <t>2025-05-09 13:18:53</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:36</t>
+          <t>2025-05-12 09:12:34</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>6967</v>
+        <v>14255</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3094,7 +3090,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3107,22 +3103,22 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-5.468476775960648</v>
+        <v>-7.383731785069444</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-5.468476775960648</v>
+        <v>-7.383731785069444</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251374</v>
+        <v>251373</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3130,33 +3126,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>448.2459016393443</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-14 11:14:36</t>
+          <t>2025-05-12 09:12:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:36</t>
+          <t>2025-05-12 09:32:34</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-14 11:49:36</t>
+          <t>2025-05-12 09:32:34</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-15 11:17:51</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>27343</v>
+        <v>17094</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3165,11 +3161,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3182,17 +3178,17 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.4707308743171296</v>
+        <v>-14.59222449908565</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.4707308743171296</v>
+        <v>-14.59222449908565</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3201,33 +3197,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>67.34375</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-12 14:12:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-12 14:37:48</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-07 08:26:20</t>
+          <t>2025-05-13 07:48:27</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3261,10 +3257,10 @@
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-7.3716796875</v>
+        <v>-5.325318761388889</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-5.325318761388889</v>
       </c>
       <c r="T37" t="n">
         <v>4</v>
@@ -3272,41 +3268,41 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251464</v>
+        <v>251485</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>111.765625</v>
+        <v>78.81967213114754</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-07 08:26:20</t>
+          <t>2025-05-13 07:48:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:20</t>
+          <t>2025-05-13 08:13:27</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:20</t>
+          <t>2025-05-13 08:13:27</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-07 10:33:06</t>
+          <t>2025-05-13 09:32:16</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7153</v>
+        <v>4808</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3319,7 +3315,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
         <v>70</v>
@@ -3332,56 +3328,56 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0</v>
+        <v>-20.39741575591435</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>0</v>
+        <v>-20.39741575591435</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251626</v>
+        <v>251463</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>195.3125</v>
+        <v>114.2131147540984</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-07 10:33:06</t>
+          <t>2025-05-13 09:32:16</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-07 10:50:06</t>
+          <t>2025-05-13 09:57:16</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-07 10:50:06</t>
+          <t>2025-05-13 09:57:16</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:25</t>
+          <t>2025-05-13 11:51:29</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12500</v>
+        <v>6967</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3394,7 +3390,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>70</v>
@@ -3407,56 +3403,56 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-7.587098524305556</v>
+        <v>-4.494091530057871</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-7.587098524305556</v>
+        <v>-4.494091530057871</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251485</v>
+        <v>251557</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>75.125</v>
+        <v>109.9180327868852</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:25</t>
+          <t>2025-05-13 11:51:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:25</t>
+          <t>2025-05-13 12:21:29</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:25</t>
+          <t>2025-05-13 12:21:29</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:32</t>
+          <t>2025-05-13 14:11:24</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4808</v>
+        <v>6705</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3469,7 +3465,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>70</v>
@@ -3482,56 +3478,56 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-15.31912977430556</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-15.31912977430556</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>251456</v>
+        <v>243569</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>140.609375</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:32</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:58:32</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 07:58:32</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-08 10:19:09</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8999</v>
+        <v>2601</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3540,78 +3536,73 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>70</v>
-      </c>
-      <c r="N41" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-2.429969618055555</v>
+        <v>-259.3605242566551</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-2.429969618055555</v>
+        <v>-234.5372456964004</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>235572</v>
+        <v>250759</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>155.59375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 10:19:09</t>
+          <t>2025-05-08 12:53:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:09</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:09</t>
+          <t>2025-05-08 13:10:38</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-08 13:13:45</t>
+          <t>2025-05-09 07:08:54</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>9958</v>
+        <v>8398</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3620,73 +3611,78 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N42" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-549.5512152777778</v>
+        <v>-1.297857981215278</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-549.5512152777778</v>
+        <v>-1.297857981215278</v>
       </c>
       <c r="T42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>251742</v>
+        <v>245090</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>128.53125</v>
+        <v>7277.718309859155</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-08 13:13:45</t>
+          <t>2025-05-09 07:08:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-08 13:30:45</t>
+          <t>2025-05-09 07:25:54</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-08 13:30:45</t>
+          <t>2025-05-09 07:25:54</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:16</t>
+          <t>2025-05-30 08:43:38</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8226</v>
+        <v>516718</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3695,78 +3691,73 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>70</v>
-      </c>
-      <c r="N43" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-2.3189453125</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-2.3189453125</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251455</v>
+        <v>251477</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>82.765625</v>
+        <v>422.5211267605634</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:39:16</t>
+          <t>2025-05-30 08:43:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:54:16</t>
+          <t>2025-05-30 09:02:38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-09 07:54:16</t>
+          <t>2025-05-30 09:02:38</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:02</t>
+          <t>2025-06-02 08:05:09</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5297</v>
+        <v>29999</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3775,17 +3766,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N44" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -3793,60 +3784,60 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-2.386838107638889</v>
+        <v>-26.33691314554398</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-2.386838107638889</v>
+        <v>-26.33691314554398</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>245350</v>
+        <v>251225</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>437.03125</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:02</t>
+          <t>2025-06-02 08:05:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:02</t>
+          <t>2025-06-02 08:22:09</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-05-09 09:44:02</t>
+          <t>2025-06-02 08:22:09</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:04</t>
+          <t>2025-06-02 08:22:09</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>27970</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3855,73 +3846,78 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>70</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N45" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0</v>
+        <v>-25.34871870109954</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0</v>
+        <v>-25.34871870109954</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251164</v>
+        <v>251227</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>156.25</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:01:04</t>
+          <t>2025-06-02 08:22:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:04</t>
+          <t>2025-06-02 08:37:09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-05-12 09:24:04</t>
+          <t>2025-06-02 08:37:09</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:19</t>
+          <t>2025-06-02 08:37:09</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3930,17 +3926,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N46" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3948,60 +3944,60 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-5.500227864583334</v>
+        <v>-27.3591353677662</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-5.500227864583334</v>
+        <v>-27.3591353677662</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>251840</v>
+        <v>243335</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>89.28125</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:19</t>
+          <t>2025-06-02 08:37:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:19</t>
+          <t>2025-06-02 09:07:09</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-05-12 12:17:19</t>
+          <t>2025-06-02 09:07:09</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:36</t>
+          <t>2025-06-03 08:52:00</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5714</v>
+        <v>33004</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4010,36 +4006,31 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>70</v>
-      </c>
-      <c r="N47" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-4.574034288194444</v>
+        <v>-305.3694444444445</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-4.574034288194444</v>
+        <v>-305.3694444444445</v>
       </c>
       <c r="T47" t="n">
         <v>1</v>
@@ -4047,41 +4038,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>251391</v>
+        <v>245623</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" t="n">
-        <v>91.640625</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-12 13:46:36</t>
+          <t>2025-06-03 08:52:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:36</t>
+          <t>2025-06-03 09:11:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-05-12 14:01:36</t>
+          <t>2025-06-03 09:11:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:15</t>
+          <t>2025-06-04 07:23:05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5865</v>
+        <v>26419</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4090,78 +4081,73 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>70</v>
-      </c>
-      <c r="N48" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-6.314756944444444</v>
+        <v>-130.3077073552431</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-6.314756944444444</v>
+        <v>-130.3077073552431</v>
       </c>
       <c r="T48" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251395</v>
+        <v>251750</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>35.34375</v>
+        <v>54.80281690140845</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:33:15</t>
+          <t>2025-06-04 07:23:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:15</t>
+          <t>2025-06-04 07:40:05</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-05-13 07:50:15</t>
+          <t>2025-06-04 07:40:05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:35</t>
+          <t>2025-06-04 08:34:54</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2262</v>
+        <v>3891</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4170,78 +4156,73 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
-        <v>70</v>
-      </c>
-      <c r="N49" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-6.351106770833334</v>
+        <v>-9.357570422534723</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-6.351106770833334</v>
+        <v>-9.357570422534723</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251396</v>
+        <v>251761</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
-        <v>35.34375</v>
+        <v>187.0281690140845</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:40:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-13 08:40:35</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:56</t>
+          <t>2025-05-08 10:41:01</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2262</v>
+        <v>13279</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4254,74 +4235,69 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
       </c>
-      <c r="N50" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-6.386067708333333</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-6.386067708333333</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251548</v>
+        <v>251566</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>206.90625</v>
+        <v>97.02816901408451</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:15:56</t>
+          <t>2025-05-08 10:41:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:56</t>
+          <t>2025-05-08 10:56:01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:56</t>
+          <t>2025-05-08 10:56:01</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-13 13:01:50</t>
+          <t>2025-05-08 12:33:03</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>13242</v>
+        <v>6889</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4339,69 +4315,64 @@
       <c r="M51" t="n">
         <v>70</v>
       </c>
-      <c r="N51" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-6.542947048611111</v>
+        <v>-1.522955790300926</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-6.542947048611111</v>
+        <v>-1.522955790300926</v>
       </c>
       <c r="T51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251477</v>
+        <v>251651</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>32</v>
       </c>
       <c r="D52" t="n">
-        <v>468.734375</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-13 13:01:50</t>
+          <t>2025-05-08 12:33:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:50</t>
+          <t>2025-05-08 13:05:03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-13 13:33:50</t>
+          <t>2025-05-08 13:05:03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-14 13:22:34</t>
+          <t>2025-05-12 08:04:38</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>29999</v>
+        <v>46830</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4410,78 +4381,76 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>76</v>
       </c>
       <c r="N52" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-7.557345920138889</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-7.557345920138889</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251782</v>
+        <v>251340</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D53" t="n">
-        <v>188.640625</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-14 13:22:34</t>
+          <t>2025-05-12 08:04:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:34</t>
+          <t>2025-05-12 08:25:38</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-14 13:37:34</t>
+          <t>2025-05-12 08:25:38</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-15 08:46:13</t>
+          <t>2025-05-13 08:07:36</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>12073</v>
+        <v>32800</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4490,78 +4459,73 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>76</v>
       </c>
-      <c r="N53" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-6.3654296875</v>
+        <v>-15.33861502347222</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-6.3654296875</v>
+        <v>-15.33861502347222</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251743</v>
+        <v>251562</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>168.375</v>
+        <v>114.6760563380282</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-15 08:46:13</t>
+          <t>2025-05-13 08:07:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:13</t>
+          <t>2025-05-13 08:37:36</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-15 09:18:13</t>
+          <t>2025-05-13 08:37:36</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-15 12:06:35</t>
+          <t>2025-05-13 10:32:16</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>10776</v>
+        <v>8142</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4574,7 +4538,7 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4587,7 +4551,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4597,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4606,33 +4570,33 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>215.983606557377</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 10:32:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 10:47:16</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-13 10:47:16</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:59</t>
+          <t>2025-05-13 13:52:50</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4677,41 +4641,41 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>251557</v>
+        <v>244204</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>109.9180327868852</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-09 11:17:59</t>
+          <t>2025-05-13 13:52:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:59</t>
+          <t>2025-05-13 14:11:50</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-09 11:42:59</t>
+          <t>2025-05-13 14:11:50</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:54</t>
+          <t>2025-05-14 07:00:44</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>6705</v>
+        <v>3472</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4724,7 +4688,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4737,56 +4701,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-6.292185054768519</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0</v>
+        <v>-6.292185054768519</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>251761</v>
+        <v>244355</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>217.6885245901639</v>
+        <v>60.70422535211268</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:54</t>
+          <t>2025-05-14 07:00:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:54</t>
+          <t>2025-05-14 07:15:44</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-09 14:01:54</t>
+          <t>2025-05-14 07:15:44</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:35</t>
+          <t>2025-05-14 08:16:27</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>13279</v>
+        <v>4310</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4812,56 +4776,56 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0</v>
+        <v>-6.34475743349537</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0</v>
+        <v>-6.34475743349537</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251283</v>
+        <v>251455</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>12.36065573770492</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-12 09:39:35</t>
+          <t>2025-05-14 08:16:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:35</t>
+          <t>2025-05-14 08:31:27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:35</t>
+          <t>2025-05-14 08:31:27</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:57</t>
+          <t>2025-05-14 09:46:03</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>754</v>
+        <v>5297</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4870,73 +4834,78 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
+      <c r="N58" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-55.43121584699074</v>
+        <v>-7.406983568078704</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-55.43121584699074</v>
+        <v>-7.406983568078704</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251247</v>
+        <v>251742</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>441.5409836065574</v>
+        <v>115.8591549295775</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:20:57</t>
+          <t>2025-05-14 09:46:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:45:57</t>
+          <t>2025-05-14 10:01:03</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-12 10:45:57</t>
+          <t>2025-05-14 10:01:03</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:29</t>
+          <t>2025-05-14 11:56:54</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>26934</v>
+        <v>8226</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4945,73 +4914,78 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
         <v>70</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
+      <c r="N59" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-4.421869307835649</v>
+        <v>-7.497857981215278</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-4.421869307835649</v>
+        <v>-7.497857981215278</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251252</v>
+        <v>251547</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>247.2622950819672</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-13 10:07:29</t>
+          <t>2025-05-14 11:56:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:29</t>
+          <t>2025-05-14 12:11:54</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:29</t>
+          <t>2025-05-14 12:11:54</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-13 14:39:45</t>
+          <t>2025-05-15 07:16:49</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>15083</v>
+        <v>13129</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -5020,73 +4994,78 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
         <v>70</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
+      <c r="N60" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-8.303354851331019</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-8.303354851331019</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>245090</v>
+        <v>250641</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D61" t="n">
-        <v>7488.666666666667</v>
+        <v>72.05633802816901</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 07:16:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-15 07:35:49</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-15 07:35:49</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-06-02 12:28:40</t>
+          <t>2025-05-15 08:47:53</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>516718</v>
+        <v>5116</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5095,14 +5074,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5112,56 +5091,56 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0</v>
+        <v>-17.36658841940972</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0</v>
+        <v>-17.36658841940972</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>251467</v>
+        <v>245350</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>90.23188405797102</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-06-02 12:28:40</t>
+          <t>2025-05-15 08:47:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-06-02 13:13:40</t>
+          <t>2025-05-15 09:10:53</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-06-02 13:13:40</t>
+          <t>2025-05-15 09:10:53</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-06-02 14:43:53</t>
+          <t>2025-05-16 07:44:49</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>6226</v>
+        <v>27970</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5170,11 +5149,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M62" t="n">
         <v>70</v>
@@ -5187,56 +5166,56 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>-24.61381843799768</v>
+        <v>0</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>-24.61381843799768</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>243335</v>
+        <v>251346</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>478.3188405797101</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-06-02 14:43:53</t>
+          <t>2025-05-16 07:44:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-06-03 07:23:53</t>
+          <t>2025-05-16 08:03:49</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-06-03 07:23:53</t>
+          <t>2025-05-16 08:03:49</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-06-04 07:22:13</t>
+          <t>2025-05-16 08:58:10</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>33004</v>
+        <v>3859</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5245,14 +5224,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M63" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5262,56 +5241,56 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-306.307095410625</v>
+        <v>-18.37373826290509</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>-306.307095410625</v>
+        <v>-18.37373826290509</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>250819</v>
+        <v>251464</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
-        <v>123.5797101449275</v>
+        <v>100.7464788732394</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-06-04 07:22:13</t>
+          <t>2025-05-16 08:58:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-06-04 08:02:13</t>
+          <t>2025-05-16 09:21:10</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-06-04 08:02:13</t>
+          <t>2025-05-16 09:21:10</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-04 10:05:47</t>
+          <t>2025-05-16 11:01:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>8527</v>
+        <v>7153</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5324,7 +5303,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>70</v>
@@ -5337,56 +5316,56 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-47.4206924315625</v>
+        <v>-7.459673317685185</v>
       </c>
       <c r="S64" s="1" t="n">
-        <v>-47.4206924315625</v>
+        <v>-7.459673317685185</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251462</v>
+        <v>251374</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D65" t="n">
-        <v>90.23188405797102</v>
+        <v>385.112676056338</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-06-04 10:05:47</t>
+          <t>2025-05-16 11:01:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-06-04 10:50:47</t>
+          <t>2025-05-16 11:22:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-06-04 10:50:47</t>
+          <t>2025-05-16 11:22:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-04 12:21:01</t>
+          <t>2025-05-19 09:48:02</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6226</v>
+        <v>27343</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5395,11 +5374,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5412,14 +5391,14 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-26.51460346215278</v>
+        <v>-4.408362676053241</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>-26.51460346215278</v>
+        <v>-4.408362676053241</v>
       </c>
       <c r="T65" t="n">
         <v>1</v>
@@ -5427,41 +5406,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>244023</v>
+        <v>250819</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>14.44927536231884</v>
+        <v>174.0204081632653</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-06-04 12:21:01</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-06-04 13:06:01</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-06-04 13:06:01</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-04 13:20:28</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>997</v>
+        <v>8527</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5487,56 +5466,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-247.5558876811574</v>
-      </c>
-      <c r="S66" s="1" t="n">
-        <v>-247.5558876811574</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1</v>
+        <v>-20.45070861678241</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251061</v>
+        <v>251247</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
-        <v>347.7826086956522</v>
+        <v>549.6734693877551</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-06-04 13:20:28</t>
+          <t>2025-05-08 10:49:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-06-04 13:45:28</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-06-04 13:45:28</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-06-05 11:33:15</t>
+          <t>2025-05-09 12:33:41</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>23997</v>
+        <v>26934</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5562,56 +5538,53 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-31.4814311594213</v>
-      </c>
-      <c r="S67" s="1" t="n">
-        <v>-31.4814311594213</v>
-      </c>
-      <c r="T67" t="n">
+        <v>-0.5233985260763889</v>
+      </c>
+      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>251249</v>
+        <v>245089</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>68.95652173913044</v>
+        <v>1916.640625</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-06-05 11:33:15</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-06-05 11:58:15</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-06-05 11:58:15</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:13</t>
+          <t>2025-05-13 07:30:38</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4758</v>
+        <v>122665</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5620,14 +5593,14 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -5637,7 +5610,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
@@ -5652,41 +5625,41 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251284</v>
+        <v>251846</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
-        <v>297.0909090909091</v>
+        <v>178</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 07:30:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 08:04:38</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-13 08:04:38</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:02:38</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16340</v>
+        <v>11392</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5695,75 +5668,73 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="N69" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>245275</v>
+        <v>251456</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>44.5</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>441.7090909090909</v>
+        <v>140.609375</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-13 11:02:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:05</t>
+          <t>2025-05-13 11:19:38</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-09 13:22:05</t>
+          <t>2025-05-13 11:19:38</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-12 12:43:48</t>
+          <t>2025-05-13 13:40:15</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>24294</v>
+        <v>8999</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5772,70 +5743,78 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
+      <c r="N70" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
-        <v>7</v>
+        <v>-7.569618055555556</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>-7.569618055555556</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251485</v>
+        <v>251594</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>48.5</v>
+        <v>17</v>
       </c>
       <c r="D71" t="n">
-        <v>87.41818181818182</v>
+        <v>101.03125</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-12 12:43:48</t>
+          <t>2025-05-13 13:40:15</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-12 13:32:18</t>
+          <t>2025-05-13 13:57:15</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-12 13:32:18</t>
+          <t>2025-05-13 13:57:15</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:43</t>
+          <t>2025-05-14 07:38:16</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4808</v>
+        <v>6466</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5848,7 +5827,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
@@ -5861,53 +5840,56 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-19.62480429292824</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2</v>
+        <v>-7.318250868055555</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>-7.318250868055555</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251761</v>
+        <v>251397</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
-        <v>241.4363636363636</v>
+        <v>84.921875</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-12 14:59:43</t>
+          <t>2025-05-14 07:38:16</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:13</t>
+          <t>2025-05-14 07:55:16</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-13 07:32:13</t>
+          <t>2025-05-14 07:55:16</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-13 11:33:39</t>
+          <t>2025-05-14 09:20:12</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>13279</v>
+        <v>5435</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5920,7 +5902,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
@@ -5933,53 +5915,56 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2</v>
+        <v>-16.38902994791667</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>-16.38902994791667</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251462</v>
+        <v>251475</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>113.2</v>
+        <v>135.640625</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-13 11:33:39</t>
+          <t>2025-05-14 09:20:12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:09</t>
+          <t>2025-05-14 09:37:12</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-13 12:08:09</t>
+          <t>2025-05-14 09:37:12</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:21</t>
+          <t>2025-05-14 11:52:50</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>6226</v>
+        <v>8681</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5992,7 +5977,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M73" t="n">
         <v>70</v>
@@ -6005,53 +5990,56 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-4.584273989895833</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1</v>
+        <v>-14.49503038194444</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>-14.49503038194444</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251520</v>
+        <v>251840</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>297.0909090909091</v>
+        <v>89.28125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-13 14:01:21</t>
+          <t>2025-05-14 11:52:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:51</t>
+          <t>2025-05-14 12:09:50</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-13 14:41:51</t>
+          <t>2025-05-14 12:09:50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:38:56</t>
+          <t>2025-05-14 13:39:07</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>16340</v>
+        <v>5714</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6060,70 +6048,78 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
+      <c r="N74" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-2.485378787881944</v>
-      </c>
-      <c r="S74" t="n">
+        <v>-6.568836805555556</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>-6.568836805555556</v>
+      </c>
+      <c r="T74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251809</v>
+        <v>251391</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>122.2676056338028</v>
+        <v>91.640625</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 13:39:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 13:54:07</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-14 13:54:07</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:16</t>
+          <t>2025-05-15 07:25:45</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>8681</v>
+        <v>5865</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6136,69 +6132,74 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
+      <c r="N75" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>0</v>
+        <v>-8.309559461805556</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>0</v>
+        <v>-8.309559461805556</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>244204</v>
+        <v>251395</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>48.90140845070422</v>
+        <v>35.34375</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-08 09:36:16</t>
+          <t>2025-05-15 07:25:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-08 09:51:16</t>
+          <t>2025-05-15 07:42:45</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-08 09:51:16</t>
+          <t>2025-05-15 07:42:45</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-08 10:40:10</t>
+          <t>2025-05-15 08:18:06</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3472</v>
+        <v>2262</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6211,69 +6212,74 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
+      <c r="N76" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-0.4445618153356481</v>
+        <v>-8.345909288194445</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-0.4445618153356481</v>
+        <v>-8.345909288194445</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251547</v>
+        <v>251396</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>184.9154929577465</v>
+        <v>35.34375</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:40:10</t>
+          <t>2025-05-15 08:18:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:55:10</t>
+          <t>2025-05-15 08:33:06</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-08 10:55:10</t>
+          <t>2025-05-15 08:33:06</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:05</t>
+          <t>2025-05-15 09:08:27</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>13129</v>
+        <v>2262</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6286,7 +6292,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
@@ -6304,14 +6310,14 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-1.583392018784722</v>
+        <v>-8.380870225694444</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-1.583392018784722</v>
+        <v>-8.380870225694444</v>
       </c>
       <c r="T77" t="n">
         <v>7</v>
@@ -6319,41 +6325,41 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251566</v>
+        <v>251548</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>97.02816901408451</v>
+        <v>206.90625</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-08 14:00:05</t>
+          <t>2025-05-15 09:08:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-08 14:15:05</t>
+          <t>2025-05-15 09:27:27</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-08 14:15:05</t>
+          <t>2025-05-15 09:27:27</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:06</t>
+          <t>2025-05-15 12:54:21</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>6889</v>
+        <v>13242</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6371,64 +6377,69 @@
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
+      <c r="N78" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-2.327856025034722</v>
+        <v>-8.537749565972222</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-2.327856025034722</v>
+        <v>-8.537749565972222</v>
       </c>
       <c r="T78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>251424</v>
+        <v>250894</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
-        <v>136.0845070422535</v>
+        <v>691.59375</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-09 07:52:06</t>
+          <t>2025-05-15 12:54:21</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-09 08:07:06</t>
+          <t>2025-05-15 13:26:21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-09 08:07:06</t>
+          <t>2025-05-15 13:26:21</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-09 10:23:11</t>
+          <t>2025-05-19 08:57:57</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9662</v>
+        <v>44262</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6437,14 +6448,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N79" t="n">
+        <v>39755</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6454,14 +6468,14 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-11.43277582159722</v>
+        <v>-6.373578559027778</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-11.43277582159722</v>
+        <v>-6.373578559027778</v>
       </c>
       <c r="T79" t="n">
         <v>4</v>
@@ -6469,41 +6483,41 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>251246</v>
+        <v>250923</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>169.0422535211268</v>
+        <v>109.46875</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:23:11</t>
+          <t>2025-05-19 08:57:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:11</t>
+          <t>2025-05-19 09:12:57</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-09 10:42:11</t>
+          <t>2025-05-19 09:12:57</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-09 13:31:14</t>
+          <t>2025-05-19 11:02:25</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>12002</v>
+        <v>7006</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6512,73 +6526,78 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>70</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-0.5633607198726852</v>
+        <v>-12.46001519097222</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-0.5633607198726852</v>
+        <v>-12.46001519097222</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>250641</v>
+        <v>251795</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>72.05633802816901</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:31:14</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:46:14</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 13:46:14</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:17</t>
+          <t>2025-05-09 12:53:11</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>5116</v>
+        <v>18739</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6587,7 +6606,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -6604,56 +6623,56 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>-11.62381651017361</v>
+        <v>0</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>-11.62381651017361</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251475</v>
+        <v>251260</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D82" t="n">
-        <v>122.2676056338028</v>
+        <v>153.5901639344262</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 14:58:17</t>
+          <t>2025-05-09 12:53:11</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:17</t>
+          <t>2025-05-09 13:18:11</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-12 07:17:17</t>
+          <t>2025-05-09 13:18:11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:33</t>
+          <t>2025-05-12 07:51:47</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>8681</v>
+        <v>9369</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6662,11 +6681,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6679,56 +6698,56 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>-12.38858568075232</v>
+        <v>0</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>-12.38858568075232</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251245</v>
+        <v>251743</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
-        <v>10.61971830985915</v>
+        <v>176.655737704918</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:33</t>
+          <t>2025-05-12 07:51:47</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:33</t>
+          <t>2025-05-12 08:20:47</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:38:33</t>
+          <t>2025-05-12 08:20:47</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:10</t>
+          <t>2025-05-12 11:17:26</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>754</v>
+        <v>10776</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6737,11 +6756,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
         <v>70</v>
@@ -6754,56 +6773,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>-45.40915492957176</v>
+        <v>0</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>-45.40915492957176</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251465</v>
+        <v>251809</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>87.69014084507042</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 09:49:10</t>
+          <t>2025-05-12 11:17:26</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:10</t>
+          <t>2025-05-12 11:42:26</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 10:12:10</t>
+          <t>2025-05-12 11:42:26</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:52</t>
+          <t>2025-05-12 14:04:45</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>6226</v>
+        <v>8681</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6816,7 +6835,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
         <v>70</v>
@@ -6829,56 +6848,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>-3.486023082939815</v>
+        <v>0</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>-3.486023082939815</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251505</v>
+        <v>251466</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D85" t="n">
-        <v>200.7746478873239</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 11:39:52</t>
+          <t>2025-05-12 14:04:45</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:52</t>
+          <t>2025-05-12 14:31:45</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 12:00:52</t>
+          <t>2025-05-12 14:31:45</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:38</t>
+          <t>2025-05-13 08:03:00</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>14255</v>
+        <v>5567</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6891,7 +6910,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6904,56 +6923,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-8.306699921747684</v>
+        <v>-4.335428051006944</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-8.306699921747684</v>
+        <v>-4.335428051006944</v>
       </c>
       <c r="T85" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251580</v>
+        <v>251465</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>100.7464788732394</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:21:38</t>
+          <t>2025-05-13 08:03:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:38</t>
+          <t>2025-05-13 08:30:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 07:38:38</t>
+          <t>2025-05-13 08:30:00</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:23</t>
+          <t>2025-05-13 10:12:04</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>7153</v>
+        <v>6226</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6966,7 +6985,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6979,14 +6998,14 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>0</v>
+        <v>-4.425056921678241</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>0</v>
+        <v>-4.425056921678241</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -6994,41 +7013,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251371</v>
+        <v>251580</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>117.2622950819672</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:19:23</t>
+          <t>2025-05-13 10:12:04</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:23</t>
+          <t>2025-05-13 10:41:04</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:23</t>
+          <t>2025-05-13 10:41:04</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 09:34:23</t>
+          <t>2025-05-13 12:38:20</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>7153</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7046,763 +7065,24 @@
       <c r="M87" t="n">
         <v>70</v>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">
-        <v>-19.39888497652778</v>
+        <v>0</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>-19.39888497652778</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>251260</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>19</v>
-      </c>
-      <c r="D88" t="n">
-        <v>131.9577464788732</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2025-05-13 09:34:23</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2025-05-13 09:53:23</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2025-05-13 09:53:23</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:05:21</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>9369</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>6</v>
-      </c>
-      <c r="M88" t="n">
-        <v>70</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>2025-05-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>251594</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>19</v>
-      </c>
-      <c r="D89" t="n">
-        <v>91.07042253521126</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:05:21</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:24:21</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:24:21</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:55:25</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>6466</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>4</v>
-      </c>
-      <c r="M89" t="n">
-        <v>70</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="R89" s="1" t="n">
-        <v>-6.580154538344908</v>
-      </c>
-      <c r="S89" s="1" t="n">
-        <v>-6.580154538344908</v>
-      </c>
-      <c r="T89" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>251795</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>19</v>
-      </c>
-      <c r="D90" t="n">
-        <v>263.9295774647887</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2025-05-13 13:55:25</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:14:25</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:14:25</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2025-05-14 10:38:21</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>18739</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>6</v>
-      </c>
-      <c r="M90" t="n">
-        <v>70</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>2025-06-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="R90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>35</v>
-      </c>
-      <c r="D91" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" t="n">
-        <v>70</v>
-      </c>
-      <c r="N91" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>251561</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>50</v>
-      </c>
-      <c r="D92" t="n">
-        <v>110.9183673469388</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:14:01</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:14:01</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:04:56</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>5</v>
-      </c>
-      <c r="M92" t="n">
-        <v>70</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>2025-05-07 00:00:00</t>
-        </is>
-      </c>
-      <c r="R92" s="1" t="n">
-        <v>-1.586763038553241</v>
-      </c>
-      <c r="S92" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>251626</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>45</v>
-      </c>
-      <c r="D93" t="n">
-        <v>255.1020408163265</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:04:56</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:49:56</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2025-05-08 14:49:56</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:05:02</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>12500</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>3</v>
-      </c>
-      <c r="M93" t="n">
-        <v>70</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R93" s="1" t="n">
-        <v>-9.461833900231481</v>
-      </c>
-      <c r="S93" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>251519</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>40</v>
-      </c>
-      <c r="D94" t="n">
-        <v>268.8775510204082</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:05:02</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:45:02</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:45:02</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:13:55</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>13175</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>2</v>
-      </c>
-      <c r="M94" t="n">
-        <v>70</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R94" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S94" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>251340</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>37</v>
-      </c>
-      <c r="D95" t="n">
-        <v>669.3877551020408</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:13:55</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:50:55</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2025-05-12 08:50:55</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:00:18</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>32800</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>2</v>
-      </c>
-      <c r="M95" t="n">
-        <v>76</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R95" s="1" t="n">
-        <v>-15.50021258503472</v>
-      </c>
-      <c r="S95" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>251467</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>37</v>
-      </c>
-      <c r="D96" t="n">
-        <v>127.0612244897959</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:00:18</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:37:18</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2025-05-13 12:37:18</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:44:22</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>6226</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>2</v>
-      </c>
-      <c r="M96" t="n">
-        <v>70</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R96" s="1" t="n">
-        <v>-4.614143990925927</v>
-      </c>
-      <c r="S96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>251062</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>55</v>
-      </c>
-      <c r="D97" t="n">
-        <v>461.7142857142857</v>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2025-05-13 14:44:22</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:39:22</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2025-05-14 07:39:22</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2025-05-15 07:21:04</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>22624</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>6</v>
-      </c>
-      <c r="M97" t="n">
-        <v>70</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>2025-05-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>235572</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>144.3188405797102</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,96 +535,100 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>9958</v>
+        <v>3200</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-563.3814714170717</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-553.4196658615161</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250670</v>
+        <v>251782</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>22.65217391304348</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:04:19</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:19</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 10:39:19</t>
+          <t>2025-05-09 07:42:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:58</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1563</v>
+        <v>12073</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -633,73 +637,75 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>76</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
+      <c r="N3" t="n">
+        <v>39754</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-7.459702093402778</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-7.459702093402778</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
+        <v>-0.4389182316087963</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251782</v>
+        <v>251546</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>174.9710144927536</v>
+        <v>91.07042253521126</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:58</t>
+          <t>2025-05-09 10:32:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:58</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-12 11:31:58</t>
+          <t>2025-05-09 11:19:02</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:56</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>12073</v>
+        <v>6466</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -708,78 +714,70 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-3.60204307568287</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-3.60204307568287</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+        <v>-9.534800469479167</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251561</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>78.76811594202898</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 14:26:56</t>
+          <t>2025-05-09 12:50:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:56</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-13 07:06:56</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:42</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5435</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -788,73 +786,75 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-6.351187600648148</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-6.351187600648148</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8</v>
+        <v>-4.340356025034722</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251245</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>10.92753623188406</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:25:42</t>
+          <t>2025-05-12 08:10:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:42</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:42</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:38</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -863,73 +863,75 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
+      <c r="N6" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-46.37960950081018</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-46.37960950081018</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
+        <v>-4.364661580590278</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251987</v>
+        <v>251081</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>3051.101449275362</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:06:38</t>
+          <t>2025-05-12 08:45:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:38</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-13 09:36:38</t>
+          <t>2025-05-12 10:50:06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-21 12:27:44</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>210526</v>
+        <v>3012</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -938,73 +940,77 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-09-01 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
+        <v>-19.4809272300463</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>271.5797101449276</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-21 12:27:44</t>
+          <t>2025-05-12 11:32:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-21 12:57:44</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-21 12:57:44</t>
+          <t>2025-05-12 13:12:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-22 09:29:19</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>16340</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1013,19 +1019,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1033,60 +1037,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-7.395360305960649</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-7.395360305960649</v>
-      </c>
-      <c r="T8" t="n">
+        <v>-5.376858372453704</v>
+      </c>
+      <c r="S8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>251109</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>144.9275362318841</v>
+        <v>266.5915492957747</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:29:19</t>
+          <t>2025-05-13 09:02:40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:54:19</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-22 09:54:19</t>
+          <t>2025-05-13 10:22:40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-22 12:19:14</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>18928</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1095,78 +1096,70 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-15.51336553945602</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-15.51336553945602</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
+        <v>-25.61754694835648</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>244023</v>
+        <v>245275</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44927536231884</v>
+        <v>342.1690140845071</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:19:14</t>
+          <t>2025-05-13 14:49:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:44:14</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:44:14</t>
+          <t>2025-05-14 07:34:16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-22 12:58:41</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>997</v>
+        <v>24294</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1175,11 +1168,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
@@ -1192,56 +1185,53 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-234.5407608695602</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-234.5407608695602</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251061</v>
+        <v>251520</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>347.7826086956522</v>
+        <v>230.1408450704225</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-22 12:58:41</t>
+          <t>2025-05-14 13:16:26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-22 13:23:41</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-22 13:23:41</t>
+          <t>2025-05-14 14:26:26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-23 11:11:28</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>23997</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1250,11 +1240,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
@@ -1267,56 +1257,53 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-18.46630434782407</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-18.46630434782407</v>
-      </c>
-      <c r="T11" t="n">
+        <v>-3.428178794988426</v>
+      </c>
+      <c r="S11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251251</v>
+        <v>251846</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>229.8550724637681</v>
+        <v>160.4507042253521</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-23 11:11:28</t>
+          <t>2025-05-15 10:16:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-23 11:36:28</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-23 11:36:28</t>
+          <t>2025-05-15 11:16:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-26 07:26:20</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15860</v>
+        <v>11392</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1325,11 +1312,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
@@ -1342,101 +1329,91 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-3.309953703703704</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-3.309953703703704</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251706</v>
+        <v>251340</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>50.79365079365079</v>
+        <v>461.9718309859155</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 13:57:01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-15 14:34:01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3200</v>
+        <v>32800</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-18.59444444444444</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251109</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1444,33 +1421,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>266.5915492957747</v>
+        <v>659.5774647887324</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-16 14:16:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 08:47:00</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 08:47:00</t>
+          <t>2025-05-19 07:06:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 13:13:35</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18928</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1479,14 +1456,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39755</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1496,22 +1476,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-26.42695618153935</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-21.55110524256945</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2</v>
+        <v>-7.420539906099537</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251259</v>
+        <v>251519</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1519,33 +1496,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>70.4225352112676</v>
+        <v>185.5633802816901</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:13:35</t>
+          <t>2025-05-20 10:05:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:23:35</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:23:35</t>
+          <t>2025-05-20 10:57:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:00</t>
+          <t>2025-05-20 14:03:08</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>13175</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1558,7 +1535,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
@@ -1571,56 +1548,53 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-6.315287558680556</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-6.315287558680556</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251546</v>
+        <v>251260</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="D16" t="n">
-        <v>91.07042253521126</v>
+        <v>170.3454545454545</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:29:00</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:29:00</t>
+          <t>2025-05-09 07:38:30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 10:00:05</t>
+          <t>2025-05-09 10:28:50</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6466</v>
+        <v>9369</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1629,11 +1603,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
@@ -1646,56 +1620,56 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-12.41672535211806</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-12.41672535211806</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251467</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>38.5</v>
       </c>
       <c r="D17" t="n">
-        <v>230.1408450704225</v>
+        <v>113.2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:00:05</t>
+          <t>2025-05-09 10:28:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:45:05</t>
+          <t>2025-05-09 11:07:20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 10:45:05</t>
+          <t>2025-05-09 11:07:20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:13</t>
+          <t>2025-05-09 13:00:32</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>6226</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1704,36 +1678,31 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-4.607795383414351</v>
+        <v>-0.5420454545486111</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-4.607795383414351</v>
+        <v>-0.5420454545486111</v>
       </c>
       <c r="T17" t="n">
         <v>1</v>
@@ -1741,41 +1710,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>245275</v>
+        <v>251229</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>70</v>
+        <v>38.5</v>
       </c>
       <c r="D18" t="n">
-        <v>342.1690140845071</v>
+        <v>340.7090909090909</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 14:35:13</t>
+          <t>2025-05-09 13:00:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:13</t>
+          <t>2025-05-09 13:39:02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-13 07:45:13</t>
+          <t>2025-05-09 13:39:02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:23</t>
+          <t>2025-05-12 11:19:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24294</v>
+        <v>18739</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1784,24 +1753,31 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
@@ -1811,46 +1787,46 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251050</v>
+        <v>251456</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>155</v>
+        <v>36.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>163.6181818181818</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-13 13:27:23</t>
+          <t>2025-05-12 11:19:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:23</t>
+          <t>2025-05-12 11:56:15</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:23</t>
+          <t>2025-05-12 11:56:15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:23</t>
+          <t>2025-05-12 14:39:52</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1859,17 +1835,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1877,60 +1853,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-6.334996087638889</v>
+        <v>-6.611022727268518</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-6.334996087638889</v>
+        <v>-6.611022727268518</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251054</v>
+        <v>251424</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>32.5</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>175.6727272727273</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:02:23</t>
+          <t>2025-05-12 14:39:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:23</t>
+          <t>2025-05-13 07:12:22</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:23</t>
+          <t>2025-05-13 07:12:22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:23</t>
+          <t>2025-05-13 10:08:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9662</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1939,78 +1915,73 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-6.359301643194445</v>
+        <v>-15.42225378788194</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-6.359301643194445</v>
+        <v>-15.42225378788194</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251081</v>
+        <v>251397</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>125</v>
+        <v>32.5</v>
       </c>
       <c r="D21" t="n">
-        <v>42.42253521126761</v>
+        <v>98.81818181818181</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-14 08:37:23</t>
+          <t>2025-05-13 10:08:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:42:23</t>
+          <t>2025-05-13 10:40:32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14 10:42:23</t>
+          <t>2025-05-13 10:40:32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-14 11:24:49</t>
+          <t>2025-05-13 12:19:21</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3012</v>
+        <v>5435</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2019,46 +1990,39 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-21.47556729265046</v>
+        <v>-15.51344696969907</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-21.47556729265046</v>
+        <v>-15.51344696969907</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251249</v>
+        <v>251743</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2066,33 +2030,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38.5</v>
+        <v>32.5</v>
       </c>
       <c r="D22" t="n">
-        <v>86.50909090909092</v>
+        <v>195.9272727272727</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-13 12:19:21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:38:30</t>
+          <t>2025-05-13 12:51:51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:38:30</t>
+          <t>2025-05-13 12:51:51</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:00</t>
+          <t>2025-05-14 08:07:47</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4758</v>
+        <v>10776</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2101,11 +2065,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
@@ -2118,7 +2082,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
@@ -2128,12 +2092,12 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251252</v>
+        <v>251742</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2144,30 +2108,30 @@
         <v>30.5</v>
       </c>
       <c r="D23" t="n">
-        <v>274.2363636363636</v>
+        <v>149.5636363636364</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:05:00</t>
+          <t>2025-05-14 08:07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:30</t>
+          <t>2025-05-14 08:38:17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 09:35:30</t>
+          <t>2025-05-14 08:38:17</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:44</t>
+          <t>2025-05-14 11:07:51</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15083</v>
+        <v>8226</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2176,73 +2140,78 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-7.463787878784721</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-7.463787878784721</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251467</v>
+        <v>244355</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>113.2</v>
+        <v>70.65573770491804</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:09:44</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:48:14</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 14:48:14</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:26</t>
+          <t>2025-05-08 08:40:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>6226</v>
+        <v>4310</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2255,7 +2224,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
@@ -2268,56 +2237,56 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-3.362114898993056</v>
+        <v>-0.5032103825115741</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-3.362114898993056</v>
+        <v>-0.3615664845138889</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251062</v>
+        <v>251475</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38.5</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>411.3454545454546</v>
+        <v>142.3114754098361</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 08:41:26</t>
+          <t>2025-05-08 08:40:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:56</t>
+          <t>2025-05-08 09:00:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 09:19:56</t>
+          <t>2025-05-08 09:00:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-13 08:11:17</t>
+          <t>2025-05-08 11:22:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>22624</v>
+        <v>8681</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2326,11 +2295,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
@@ -2343,56 +2312,56 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-8.474282786886574</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-8.474282786886574</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251283</v>
+        <v>251164</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>13.70909090909091</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:11:17</t>
+          <t>2025-05-08 11:22:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:47</t>
+          <t>2025-05-08 11:52:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:41:47</t>
+          <t>2025-05-08 11:52:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:30</t>
+          <t>2025-05-08 14:36:54</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>754</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2401,7 +2370,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -2410,64 +2379,69 @@
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
+      <c r="N26" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-03-18 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-56.371875</v>
+        <v>-1.608959471770834</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-56.371875</v>
+        <v>-1.608959471770834</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251246</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>218.2181818181818</v>
+        <v>183.9672131147541</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13 08:55:30</t>
+          <t>2025-05-08 14:36:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:00</t>
+          <t>2025-05-09 07:16:54</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-13 09:26:00</t>
+          <t>2025-05-09 07:16:54</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:13</t>
+          <t>2025-05-09 10:20:52</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12002</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2476,15 +2450,18 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
+      <c r="N27" t="n">
+        <v>39755</v>
+      </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
@@ -2493,56 +2470,56 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-4.544595959594908</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-4.544595959594908</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>251520</v>
+        <v>251840</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>297.0909090909091</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-05-13 13:04:13</t>
+          <t>2025-05-09 10:20:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:43</t>
+          <t>2025-05-09 10:55:52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-13 13:36:43</t>
+          <t>2025-05-09 10:55:52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-05-14 10:33:48</t>
+          <t>2025-05-09 12:29:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16340</v>
+        <v>5714</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2551,31 +2528,36 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>70</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
+      <c r="N28" t="n">
+        <v>39758</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-2.440145202025463</v>
+        <v>-1.520514571944445</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-2.440145202025463</v>
+        <v>-1.520514571944445</v>
       </c>
       <c r="T28" t="n">
         <v>1</v>
@@ -2583,7 +2565,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>251462</v>
+        <v>251594</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2591,33 +2573,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" t="n">
-        <v>102.0655737704918</v>
+        <v>106</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 12:29:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-09 12:54:32</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-08 07:20:00</t>
+          <t>2025-05-09 12:54:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-05-08 09:02:03</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6226</v>
+        <v>6466</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2630,7 +2612,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
         <v>70</v>
@@ -2643,22 +2625,22 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-4.494091530057871</v>
+        <v>-2.611486794166667</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-2.611486794166667</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>251564</v>
+        <v>250819</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2666,33 +2648,33 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>44.54098360655738</v>
+        <v>139.7868852459016</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:02:03</t>
+          <t>2025-05-09 14:40:32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:03</t>
+          <t>2025-05-12 07:10:32</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-05-08 09:27:03</t>
+          <t>2025-05-12 07:10:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-05-08 10:11:36</t>
+          <t>2025-05-12 09:30:19</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2717</v>
+        <v>8527</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2705,7 +2687,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
         <v>70</v>
@@ -2718,22 +2700,22 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-18 00:00:00</t>
         </is>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-1.424726775960648</v>
+        <v>-24.39606102003472</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-1.424726775960648</v>
+        <v>-24.39606102003472</v>
       </c>
       <c r="T30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>251416</v>
+        <v>251373</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2744,30 +2726,30 @@
         <v>25</v>
       </c>
       <c r="D31" t="n">
-        <v>183.9672131147541</v>
+        <v>280.2295081967213</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-08 10:11:36</t>
+          <t>2025-05-12 09:30:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-08 10:36:36</t>
+          <t>2025-05-12 09:55:19</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-08 10:36:36</t>
+          <t>2025-05-12 09:55:19</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-08 13:40:34</t>
+          <t>2025-05-12 14:35:33</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>11222</v>
+        <v>17094</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2780,14 +2762,11 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
         <v>70</v>
       </c>
-      <c r="N31" t="n">
-        <v>39755</v>
-      </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
@@ -2796,22 +2775,22 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0</v>
+        <v>-14.60802595628472</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0</v>
+        <v>-14.60802595628472</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>251626</v>
+        <v>251505</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2819,33 +2798,33 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>204.9180327868852</v>
+        <v>233.6885245901639</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-05-08 13:40:34</t>
+          <t>2025-05-12 14:35:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-08 14:05:34</t>
+          <t>2025-05-12 14:55:33</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-08 14:05:34</t>
+          <t>2025-05-12 14:55:33</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:29</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12500</v>
+        <v>14255</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2858,7 +2837,7 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>70</v>
@@ -2871,14 +2850,14 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-9.396174863391204</v>
+        <v>-8.450865209467592</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-9.396174863391204</v>
+        <v>-8.450865209467592</v>
       </c>
       <c r="T32" t="n">
         <v>7</v>
@@ -2886,7 +2865,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>251424</v>
+        <v>251466</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2894,33 +2873,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>158.3934426229508</v>
+        <v>91.26229508196721</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:30:29</t>
+          <t>2025-05-13 10:49:14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:29</t>
+          <t>2025-05-13 11:19:14</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:29</t>
+          <t>2025-05-13 11:19:14</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-09 12:33:53</t>
+          <t>2025-05-13 12:50:30</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>9662</v>
+        <v>5567</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2933,7 +2912,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>70</v>
@@ -2946,22 +2925,22 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-11.52353142076389</v>
+        <v>-4.535075136608796</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-11.52353142076389</v>
+        <v>-4.535075136608796</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>251371</v>
+        <v>251465</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2969,33 +2948,33 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.0655737704918</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:33:53</t>
+          <t>2025-05-13 12:50:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:53</t>
+          <t>2025-05-13 13:15:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:53</t>
+          <t>2025-05-13 13:15:30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:53</t>
+          <t>2025-05-13 14:57:34</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6226</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -3008,42 +2987,35 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>39666</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-15.53742030965278</v>
+        <v>-4.623315118402777</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-15.53742030965278</v>
+        <v>-4.623315118402777</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>251505</v>
+        <v>251562</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3051,33 +3023,33 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>233.6885245901639</v>
+        <v>133.4754098360656</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:53</t>
+          <t>2025-05-13 14:57:34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:53</t>
+          <t>2025-05-14 07:17:34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:53</t>
+          <t>2025-05-14 07:17:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-05-12 09:12:34</t>
+          <t>2025-05-14 09:31:02</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>14255</v>
+        <v>8142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -3090,7 +3062,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>70</v>
@@ -3103,22 +3075,22 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-7.383731785069444</v>
+        <v>0</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-7.383731785069444</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251373</v>
+        <v>251251</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3126,33 +3098,33 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>280.2295081967213</v>
+        <v>260</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:12:34</t>
+          <t>2025-05-14 09:31:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:34</t>
+          <t>2025-05-14 10:11:02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:34</t>
+          <t>2025-05-14 10:11:02</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-14 14:31:02</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17094</v>
+        <v>15860</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -3161,11 +3133,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="n">
         <v>70</v>
@@ -3178,56 +3150,56 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-14.59222449908565</v>
+        <v>0</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-14.59222449908565</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>244354</v>
+        <v>250670</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>70.65573770491804</v>
+        <v>22.01408450704225</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:12:48</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-05-12 14:37:48</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:27</t>
+          <t>2025-05-08 12:41:00</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>4310</v>
+        <v>1563</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3236,14 +3208,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3253,56 +3225,56 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-5.325318761388889</v>
+        <v>-3.610201486701389</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-5.325318761388889</v>
+        <v>-3.528482003125</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>251485</v>
+        <v>251225</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>78.81967213114754</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13 07:48:27</t>
+          <t>2025-05-08 12:41:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:27</t>
+          <t>2025-05-08 12:56:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-05-13 08:13:27</t>
+          <t>2025-05-08 12:56:00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:16</t>
+          <t>2025-05-08 12:56:00</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3311,73 +3283,78 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>70</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N38" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-20.39741575591435</v>
+        <v>-0.5388986697916667</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-20.39741575591435</v>
+        <v>-0.5388986697916667</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>251463</v>
+        <v>250923</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
-        <v>114.2131147540984</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:32:16</t>
+          <t>2025-05-08 12:56:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:57:16</t>
+          <t>2025-05-08 13:13:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-05-13 09:57:16</t>
+          <t>2025-05-08 13:13:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-05-13 11:51:29</t>
+          <t>2025-05-08 14:51:41</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6967</v>
+        <v>7006</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3386,73 +3363,78 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>70</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N39" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-4.494091530057871</v>
+        <v>-1.619229264479167</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-4.494091530057871</v>
+        <v>-1.619229264479167</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>251557</v>
+        <v>243569</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9180327868852</v>
+        <v>36.63380281690141</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-13 11:51:29</t>
+          <t>2025-05-08 14:51:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:29</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-05-13 12:21:29</t>
+          <t>2025-05-09 07:10:41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-05-13 14:11:24</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6705</v>
+        <v>2601</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3461,39 +3443,39 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>-235.3245305164352</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>-235.3245305164352</v>
+      </c>
+      <c r="T40" t="n">
         <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>70</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>243569</v>
+        <v>245623</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3501,33 +3483,33 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D41" t="n">
-        <v>36.63380281690141</v>
+        <v>372.0985915492957</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:47:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 08:19:19</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2601</v>
+        <v>26419</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3540,10 +3522,10 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3553,14 +3535,14 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2024-09-16 00:00:00</t>
+          <t>2025-01-25 00:00:00</t>
         </is>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-259.3605242566551</v>
+        <v>-104.6051545383449</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-234.5372456964004</v>
+        <v>-104.6051545383449</v>
       </c>
       <c r="T41" t="n">
         <v>2</v>
@@ -3568,7 +3550,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>250759</v>
+        <v>243335</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3576,33 +3558,33 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>118.2816901408451</v>
+        <v>464.8450704225352</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:38</t>
+          <t>2025-05-09 14:31:25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-05-08 13:10:38</t>
+          <t>2025-05-09 14:50:25</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:54</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8398</v>
+        <v>33004</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -3611,36 +3593,31 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>76</v>
-      </c>
-      <c r="N42" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-1.297857981215278</v>
+        <v>-283.6078247261343</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-1.297857981215278</v>
+        <v>-283.6078247261343</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3648,7 +3625,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>245090</v>
+        <v>251987</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3656,33 +3633,33 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>7277.718309859155</v>
+        <v>2965.154929577465</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:54</t>
+          <t>2025-05-12 14:35:16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:25:54</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-09 07:25:54</t>
+          <t>2025-05-13 07:09:16</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-05-30 08:43:38</t>
+          <t>2025-05-21 08:34:25</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>516718</v>
+        <v>210526</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -3691,11 +3668,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M43" t="n">
         <v>76</v>
@@ -3708,7 +3685,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-09-01 00:00:00</t>
         </is>
       </c>
       <c r="R43" s="1" t="n">
@@ -3723,41 +3700,41 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>251477</v>
+        <v>251564</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D44" t="n">
-        <v>422.5211267605634</v>
+        <v>38.26760563380282</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-05-30 08:43:38</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-30 09:02:38</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-05-30 09:02:38</t>
+          <t>2025-05-08 07:32:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-06-02 08:05:09</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>29999</v>
+        <v>2717</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -3766,78 +3743,73 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>76</v>
-      </c>
-      <c r="N44" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-26.33691314554398</v>
+        <v>-1.340463615023148</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-26.33691314554398</v>
+        <v>-1.340463615023148</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>251225</v>
+        <v>251346</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>54.35211267605634</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:05:09</t>
+          <t>2025-05-08 08:10:16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:22:09</t>
+          <t>2025-05-08 08:35:16</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:22:09</t>
+          <t>2025-05-08 08:35:16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2025-06-02 08:22:09</t>
+          <t>2025-05-08 09:29:37</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3859</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -3846,78 +3818,73 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
-        <v>76</v>
-      </c>
-      <c r="N45" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-25.34871870109954</v>
+        <v>-10.39556924883102</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-25.34871870109954</v>
+        <v>-10.39556924883102</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>251227</v>
+        <v>251455</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:22:09</t>
+          <t>2025-05-08 09:29:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:37:09</t>
+          <t>2025-05-08 09:52:37</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:37:09</t>
+          <t>2025-05-08 09:52:37</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-06-02 08:37:09</t>
+          <t>2025-05-08 11:07:13</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3926,17 +3893,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L46" t="n">
         <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N46" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3944,60 +3911,60 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-27.3591353677662</v>
+        <v>-1.463350938969907</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-27.3591353677662</v>
+        <v>-1.463350938969907</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>243335</v>
+        <v>244204</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>464.8450704225352</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-06-02 08:37:09</t>
+          <t>2025-05-08 11:07:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:07:09</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-06-02 09:07:09</t>
+          <t>2025-05-08 11:22:13</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-06-03 08:52:00</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>33004</v>
+        <v>3472</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4006,14 +3973,14 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4023,56 +3990,56 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-305.3694444444445</v>
+        <v>-0.5077269170601851</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-305.3694444444445</v>
+        <v>-0.5077269170601851</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>245623</v>
+        <v>251547</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>372.0985915492957</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-06-03 08:52:00</t>
+          <t>2025-05-08 12:11:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:11:00</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-06-03 09:11:00</t>
+          <t>2025-05-08 12:26:07</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-06-04 07:23:05</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>26419</v>
+        <v>13129</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4081,73 +4048,78 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>152</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N48" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2025-01-25 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-130.3077073552431</v>
+        <v>-2.313223787164352</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-130.3077073552431</v>
+        <v>-2.313223787164352</v>
       </c>
       <c r="T48" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>251750</v>
+        <v>250759</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>54.80281690140845</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:23:05</t>
+          <t>2025-05-09 07:31:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:05</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:05</t>
+          <t>2025-05-09 08:01:02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-06-04 08:34:54</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3891</v>
+        <v>8398</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4156,31 +4128,36 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>152</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N49" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-9.357570422534723</v>
+        <v>-1.416197183101852</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-9.357570422534723</v>
+        <v>-1.416197183101852</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
@@ -4188,7 +4165,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>251761</v>
+        <v>235572</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4196,33 +4173,33 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>187.0281690140845</v>
+        <v>140.2535211267606</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:59:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:31:19</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-05-08 10:41:01</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>13279</v>
+        <v>9958</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -4231,11 +4208,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>70</v>
@@ -4248,22 +4225,22 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2025-05-19 00:00:00</t>
+          <t>2023-11-06 00:00:00</t>
         </is>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0</v>
+        <v>-550.5358176838773</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0</v>
+        <v>-550.5358176838773</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>251566</v>
+        <v>251462</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4271,33 +4248,33 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D51" t="n">
-        <v>97.02816901408451</v>
+        <v>87.69014084507042</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-08 10:41:01</t>
+          <t>2025-05-09 12:51:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:01</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:01</t>
+          <t>2025-05-09 13:12:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:03</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6889</v>
+        <v>6226</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -4310,7 +4287,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>70</v>
@@ -4323,22 +4300,22 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-1.522955790300926</v>
+        <v>-0.6112969483564815</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-1.522955790300926</v>
+        <v>-0.6112969483564815</v>
       </c>
       <c r="T51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>251651</v>
+        <v>245350</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4346,33 +4323,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>659.5774647887324</v>
+        <v>393.943661971831</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:03</t>
+          <t>2025-05-09 14:40:16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:03</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-05-08 13:05:03</t>
+          <t>2025-05-12 07:11:16</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:38</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>46830</v>
+        <v>27970</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4381,17 +4358,14 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M52" t="n">
-        <v>76</v>
-      </c>
-      <c r="N52" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4401,7 +4375,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R52" s="1" t="n">
@@ -4411,12 +4385,12 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>251340</v>
+        <v>251557</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4424,33 +4398,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>461.9718309859155</v>
+        <v>94.43661971830986</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:04:38</t>
+          <t>2025-05-12 13:45:12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:38</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-05-12 08:25:38</t>
+          <t>2025-05-12 14:16:12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:36</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>32800</v>
+        <v>6705</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -4459,14 +4433,14 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4476,22 +4450,22 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-15.33861502347222</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-15.33861502347222</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>251562</v>
+        <v>251062</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4499,33 +4473,33 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>114.6760563380282</v>
+        <v>318.6478873239437</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:07:36</t>
+          <t>2025-05-13 07:50:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:36</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-05-13 08:37:36</t>
+          <t>2025-05-13 08:13:38</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:16</t>
+          <t>2025-05-13 13:32:17</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8142</v>
+        <v>22624</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -4534,11 +4508,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -4551,7 +4525,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R54" s="1" t="n">
@@ -4566,41 +4540,41 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>251519</v>
+        <v>251245</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>185.5633802816901</v>
+        <v>12.36065573770492</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:32:16</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:16</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-05-13 10:47:16</t>
+          <t>2025-05-09 07:46:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:50</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>13175</v>
+        <v>754</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -4609,11 +4583,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M55" t="n">
         <v>70</v>
@@ -4626,56 +4600,56 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0</v>
+        <v>-42.33219489981482</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0</v>
+        <v>-42.33219489981482</v>
       </c>
       <c r="T55" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>244204</v>
+        <v>251259</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>48.90140845070422</v>
+        <v>81.9672131147541</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-05-13 13:52:50</t>
+          <t>2025-05-09 07:58:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-13 14:11:50</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-05-13 14:11:50</t>
+          <t>2025-05-09 08:29:21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:44</t>
+          <t>2025-05-09 09:51:19</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3472</v>
+        <v>5000</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -4688,7 +4662,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M56" t="n">
         <v>70</v>
@@ -4701,56 +4675,56 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-6.292185054768519</v>
+        <v>-3.410644353368056</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-6.292185054768519</v>
+        <v>-3.410644353368056</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>244355</v>
+        <v>251391</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>60.70422535211268</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:00:44</t>
+          <t>2025-05-09 09:51:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:15:44</t>
+          <t>2025-05-09 10:24:19</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-05-14 07:15:44</t>
+          <t>2025-05-09 10:24:19</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-05-14 08:16:27</t>
+          <t>2025-05-09 12:00:28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4310</v>
+        <v>5865</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4763,69 +4737,74 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
         <v>70</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
+      <c r="N57" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-6.34475743349537</v>
+        <v>-2.500330145717593</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-6.34475743349537</v>
+        <v>-2.500330145717593</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>251455</v>
+        <v>251061</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
-        <v>74.6056338028169</v>
+        <v>393.3934426229508</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:16:27</t>
+          <t>2025-05-09 12:00:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:27</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-05-14 08:31:27</t>
+          <t>2025-05-09 12:27:28</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:03</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>5297</v>
+        <v>23997</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -4834,78 +4813,73 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>70</v>
       </c>
-      <c r="N58" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-7.406983568078704</v>
+        <v>-7.458936703101852</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-7.406983568078704</v>
+        <v>-7.458936703101852</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>251742</v>
+        <v>250894</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D59" t="n">
-        <v>115.8591549295775</v>
+        <v>725.6065573770492</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025-05-14 09:46:03</t>
+          <t>2025-05-12 11:00:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:01:03</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-05-14 10:01:03</t>
+          <t>2025-05-12 11:42:52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:54</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>8226</v>
+        <v>44262</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -4914,78 +4888,76 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>76</v>
+      </c>
+      <c r="N59" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>-1.325330145717593</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>-1.325330145717593</v>
+      </c>
+      <c r="T59" t="n">
         <v>4</v>
-      </c>
-      <c r="M59" t="n">
-        <v>70</v>
-      </c>
-      <c r="N59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2025-05-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R59" s="1" t="n">
-        <v>-7.497857981215278</v>
-      </c>
-      <c r="S59" s="1" t="n">
-        <v>-7.497857981215278</v>
-      </c>
-      <c r="T59" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>251547</v>
+        <v>251750</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D60" t="n">
-        <v>184.9154929577465</v>
+        <v>63.78688524590164</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025-05-14 11:56:54</t>
+          <t>2025-05-14 07:48:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:54</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-05-14 12:11:54</t>
+          <t>2025-05-14 08:32:28</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-15 07:16:49</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>13129</v>
+        <v>3891</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -4994,78 +4966,73 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>70</v>
-      </c>
-      <c r="N60" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>152</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-8.303354851331019</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-8.303354851331019</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>250641</v>
+        <v>245090</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D61" t="n">
-        <v>72.05633802816901</v>
+        <v>8470.786885245901</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:16:49</t>
+          <t>2025-05-14 09:36:15</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:35:49</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-05-15 07:35:49</t>
+          <t>2025-05-14 10:20:15</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-05-15 08:47:53</t>
+          <t>2025-06-09 07:31:02</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>5116</v>
+        <v>516718</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -5074,14 +5041,14 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5091,56 +5058,56 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-17.36658841940972</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-17.36658841940972</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>245350</v>
+        <v>251477</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>393.943661971831</v>
+        <v>434.768115942029</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025-05-15 08:47:53</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:10:53</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-05-15 09:10:53</t>
+          <t>2025-05-12 07:30:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-05-16 07:44:49</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>27970</v>
+        <v>29999</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -5149,73 +5116,75 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>70</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="N62" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>7</v>
+        <v>-5.614422302743056</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>251346</v>
+        <v>251247</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D63" t="n">
-        <v>54.35211267605634</v>
+        <v>390.3478260869565</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025-05-16 07:44:49</t>
+          <t>2025-05-12 14:44:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-16 08:03:49</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-05-16 08:03:49</t>
+          <t>2025-05-13 07:29:46</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-05-16 08:58:10</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3859</v>
+        <v>26934</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5224,11 +5193,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M63" t="n">
         <v>70</v>
@@ -5241,56 +5210,53 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R63" s="1" t="n">
-        <v>-18.37373826290509</v>
-      </c>
-      <c r="S63" s="1" t="n">
-        <v>-18.37373826290509</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2</v>
+        <v>-4.58341384863426</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>251464</v>
+        <v>251809</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
-        <v>100.7464788732394</v>
+        <v>125.8115942028985</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025-05-16 08:58:10</t>
+          <t>2025-05-13 14:00:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:21:10</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-05-16 09:21:10</t>
+          <t>2025-05-13 14:35:06</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-05-16 11:01:55</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>7153</v>
+        <v>8681</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5316,56 +5282,53 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-22 00:00:00</t>
         </is>
       </c>
       <c r="R64" s="1" t="n">
-        <v>-7.459673317685185</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>-7.459673317685185</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>251374</v>
+        <v>251249</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
-        <v>385.112676056338</v>
+        <v>68.95652173913044</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:01:55</t>
+          <t>2025-05-14 08:40:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:22:55</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-05-16 11:22:55</t>
+          <t>2025-05-14 09:15:55</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-05-19 09:48:02</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>27343</v>
+        <v>4758</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5378,7 +5341,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M65" t="n">
         <v>70</v>
@@ -5391,56 +5354,53 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R65" s="1" t="n">
-        <v>-4.408362676053241</v>
-      </c>
-      <c r="S65" s="1" t="n">
-        <v>-4.408362676053241</v>
-      </c>
-      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>250819</v>
+        <v>251795</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D66" t="n">
-        <v>174.0204081632653</v>
+        <v>271.5797101449276</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-14 10:24:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-14 10:49:53</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-15 07:21:27</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>8527</v>
+        <v>18739</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5449,7 +5409,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -5466,53 +5426,53 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2025-04-18 00:00:00</t>
+          <t>2025-06-19 00:00:00</t>
         </is>
       </c>
       <c r="R66" s="1" t="n">
-        <v>-20.45070861678241</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>251247</v>
+        <v>244023</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
-        <v>549.6734693877551</v>
+        <v>15.578125</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025-05-08 10:49:01</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-05-09 12:33:41</t>
+          <t>2025-05-07 07:38:34</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>26934</v>
+        <v>997</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5521,7 +5481,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -5538,19 +5498,22 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
       <c r="R67" s="1" t="n">
-        <v>-0.5233985260763889</v>
-      </c>
-      <c r="S67" t="n">
+        <v>-219.31845703125</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>-219.31845703125</v>
+      </c>
+      <c r="T67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>245089</v>
+        <v>251227</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5561,30 +5524,30 @@
         <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>1916.640625</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 07:38:34</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:38</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>122665</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5602,22 +5565,27 @@
       <c r="M68" t="n">
         <v>76</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
+      <c r="N68" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2025-12-31 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R68" s="1" t="n">
-        <v>0</v>
+        <v>-1.342068142361111</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>0</v>
+        <v>-1.342068142361111</v>
       </c>
       <c r="T68" t="n">
         <v>1</v>
@@ -5625,7 +5593,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>251846</v>
+        <v>251371</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5633,33 +5601,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2025-05-13 07:30:38</t>
+          <t>2025-05-07 08:12:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:38</t>
+          <t>2025-05-07 08:42:34</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-05-13 08:04:38</t>
+          <t>2025-05-07 08:42:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:38</t>
+          <t>2025-05-07 08:42:34</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>11392</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5672,27 +5640,34 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2025-05-30 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R69" s="1" t="n">
-        <v>0</v>
+        <v>-13.36290147569444</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>0</v>
+        <v>-13.36290147569444</v>
       </c>
       <c r="T69" t="n">
         <v>7</v>
@@ -5700,7 +5675,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>251456</v>
+        <v>251396</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5708,33 +5683,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>140.609375</v>
+        <v>35.34375</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:02:38</t>
+          <t>2025-05-07 08:42:34</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:19:38</t>
+          <t>2025-05-07 09:01:34</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-05-13 11:19:38</t>
+          <t>2025-05-07 09:01:34</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-05-13 13:40:15</t>
+          <t>2025-05-07 09:36:55</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -5747,13 +5722,13 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
         <v>70</v>
       </c>
       <c r="N70" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5761,26 +5736,26 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R70" s="1" t="n">
-        <v>-7.569618055555556</v>
+        <v>-0.4006401909722222</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>-7.569618055555556</v>
+        <v>-0.4006401909722222</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>251594</v>
+        <v>251395</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5788,33 +5763,33 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>101.03125</v>
+        <v>35.34375</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:40:15</t>
+          <t>2025-05-07 09:36:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:15</t>
+          <t>2025-05-07 09:51:55</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-05-13 13:57:15</t>
+          <t>2025-05-07 09:51:55</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:16</t>
+          <t>2025-05-07 10:27:15</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>6466</v>
+        <v>2262</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -5827,35 +5802,40 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>70</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
+      <c r="N71" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2025-05-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R71" s="1" t="n">
-        <v>-7.318250868055555</v>
+        <v>-0.4356011284722222</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>-7.318250868055555</v>
+        <v>-0.4356011284722222</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>251397</v>
+        <v>251548</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5863,33 +5843,33 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" t="n">
-        <v>84.921875</v>
+        <v>206.90625</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2025-05-14 07:38:16</t>
+          <t>2025-05-07 10:27:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-14 07:55:16</t>
+          <t>2025-05-07 10:46:15</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-05-14 07:55:16</t>
+          <t>2025-05-07 10:46:15</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:12</t>
+          <t>2025-05-07 14:13:10</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5435</v>
+        <v>13242</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -5902,35 +5882,40 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M72" t="n">
         <v>70</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
+      <c r="N72" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R72" s="1" t="n">
-        <v>-16.38902994791667</v>
+        <v>-0.59248046875</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>-16.38902994791667</v>
+        <v>-0.59248046875</v>
       </c>
       <c r="T72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>251475</v>
+        <v>251463</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5938,33 +5923,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>135.640625</v>
+        <v>108.859375</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:20:12</t>
+          <t>2025-05-07 14:13:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:37:12</t>
+          <t>2025-05-07 14:28:10</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-05-14 09:37:12</t>
+          <t>2025-05-07 14:28:10</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:50</t>
+          <t>2025-05-08 08:17:01</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>8681</v>
+        <v>6967</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5990,22 +5975,22 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R73" s="1" t="n">
-        <v>-14.49503038194444</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>-14.49503038194444</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>251840</v>
+        <v>251626</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6016,30 +6001,30 @@
         <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>89.28125</v>
+        <v>195.3125</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2025-05-14 11:52:50</t>
+          <t>2025-05-08 08:17:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:50</t>
+          <t>2025-05-08 08:34:01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-05-14 12:09:50</t>
+          <t>2025-05-08 08:34:01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-05-14 13:39:07</t>
+          <t>2025-05-08 11:49:20</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>5714</v>
+        <v>12500</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -6052,40 +6037,35 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
         <v>70</v>
       </c>
-      <c r="N74" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R74" s="1" t="n">
-        <v>-6.568836805555556</v>
+        <v>-8.492599826388888</v>
       </c>
       <c r="S74" s="1" t="n">
-        <v>-6.568836805555556</v>
+        <v>-8.492599826388888</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>251391</v>
+        <v>250641</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6093,33 +6073,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>91.640625</v>
+        <v>79.9375</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2025-05-14 13:39:07</t>
+          <t>2025-05-08 11:49:20</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:07</t>
+          <t>2025-05-08 12:10:20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-05-14 13:54:07</t>
+          <t>2025-05-08 12:10:20</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-05-15 07:25:45</t>
+          <t>2025-05-08 13:30:16</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>5865</v>
+        <v>5116</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -6132,40 +6112,35 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
         <v>70</v>
       </c>
-      <c r="N75" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R75" s="1" t="n">
-        <v>-8.309559461805556</v>
+        <v>-10.5626953125</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>-8.309559461805556</v>
+        <v>-10.5626953125</v>
       </c>
       <c r="T75" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>251395</v>
+        <v>251283</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6173,33 +6148,33 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>35.34375</v>
+        <v>11.78125</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2025-05-15 07:25:45</t>
+          <t>2025-05-08 13:30:16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-15 07:42:45</t>
+          <t>2025-05-08 13:45:16</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-05-15 07:42:45</t>
+          <t>2025-05-08 13:45:16</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-05-15 08:18:06</t>
+          <t>2025-05-08 13:57:03</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2262</v>
+        <v>754</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -6208,7 +6183,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -6217,35 +6192,30 @@
       <c r="M76" t="n">
         <v>70</v>
       </c>
-      <c r="N76" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-18 00:00:00</t>
         </is>
       </c>
       <c r="R76" s="1" t="n">
-        <v>-8.345909288194445</v>
+        <v>-51.58129340277777</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>-8.345909288194445</v>
+        <v>-51.58129340277777</v>
       </c>
       <c r="T76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>251396</v>
+        <v>251561</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6253,33 +6223,33 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>35.34375</v>
+        <v>84.921875</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2025-05-15 08:18:06</t>
+          <t>2025-05-08 13:57:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-15 08:33:06</t>
+          <t>2025-05-08 14:14:03</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-05-15 08:33:06</t>
+          <t>2025-05-08 14:14:03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-05-15 09:08:27</t>
+          <t>2025-05-09 07:38:59</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2262</v>
+        <v>5435</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -6292,40 +6262,35 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
         <v>70</v>
       </c>
-      <c r="N77" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R77" s="1" t="n">
-        <v>-8.380870225694444</v>
+        <v>-2.318739149305555</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>-8.380870225694444</v>
+        <v>-2.318739149305555</v>
       </c>
       <c r="T77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>251548</v>
+        <v>251246</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6333,33 +6298,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>206.90625</v>
+        <v>187.53125</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2025-05-15 09:08:27</t>
+          <t>2025-05-09 07:38:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-15 09:27:27</t>
+          <t>2025-05-09 07:55:59</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-05-15 09:27:27</t>
+          <t>2025-05-09 07:55:59</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-05-15 12:54:21</t>
+          <t>2025-05-09 11:03:30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>13242</v>
+        <v>12002</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6368,44 +6333,39 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M78" t="n">
         <v>70</v>
       </c>
-      <c r="N78" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R78" s="1" t="n">
-        <v>-8.537749565972222</v>
+        <v>-0.4607747395833333</v>
       </c>
       <c r="S78" s="1" t="n">
-        <v>-8.537749565972222</v>
+        <v>-0.4607747395833333</v>
       </c>
       <c r="T78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>250894</v>
+        <v>251374</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6413,33 +6373,33 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>691.59375</v>
+        <v>427.234375</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2025-05-15 12:54:21</t>
+          <t>2025-05-09 11:03:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-15 13:26:21</t>
+          <t>2025-05-09 11:20:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-05-15 13:26:21</t>
+          <t>2025-05-09 11:20:30</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-05-19 08:57:57</t>
+          <t>2025-05-12 10:27:45</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>44262</v>
+        <v>27343</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -6448,17 +6408,14 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>76</v>
-      </c>
-      <c r="N79" t="n">
-        <v>39755</v>
+        <v>70</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -6468,22 +6425,22 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R79" s="1" t="n">
-        <v>-6.373578559027778</v>
+        <v>0</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>-6.373578559027778</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>250923</v>
+        <v>245089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6491,33 +6448,33 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>109.46875</v>
+        <v>1916.640625</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2025-05-19 08:57:57</t>
+          <t>2025-05-12 10:27:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:57</t>
+          <t>2025-05-12 11:03:45</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-05-19 09:12:57</t>
+          <t>2025-05-12 11:03:45</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-19 11:02:25</t>
+          <t>2025-05-16 11:00:23</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>7006</v>
+        <v>122665</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -6530,74 +6487,69 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>76</v>
       </c>
-      <c r="N80" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-12-31 00:00:00</t>
         </is>
       </c>
       <c r="R80" s="1" t="n">
-        <v>-12.46001519097222</v>
+        <v>0</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>-12.46001519097222</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>251795</v>
+        <v>244354</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" t="n">
-        <v>307.1967213114754</v>
+        <v>87.95918367346938</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-05-09 07:46:00</t>
+          <t>2025-05-08 07:45:00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-08 09:12:57</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>18739</v>
+        <v>4310</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -6606,11 +6558,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
         <v>70</v>
@@ -6623,56 +6575,56 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R81" s="1" t="n">
-        <v>0</v>
+        <v>-0.5059382086111111</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>0</v>
+        <v>-0.3839994331018519</v>
       </c>
       <c r="T81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>251260</v>
+        <v>251485</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>153.5901639344262</v>
+        <v>98.12244897959184</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:11</t>
+          <t>2025-05-08 09:12:57</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:11</t>
+          <t>2025-05-08 09:52:57</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-05-09 13:18:11</t>
+          <t>2025-05-08 09:52:57</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:47</t>
+          <t>2025-05-08 11:31:04</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>9369</v>
+        <v>4808</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6681,11 +6633,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
         <v>70</v>
@@ -6698,56 +6650,56 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R82" s="1" t="n">
-        <v>0</v>
+        <v>-15.47991780045139</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>0</v>
+        <v>-15.47991780045139</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>251743</v>
+        <v>251566</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D83" t="n">
-        <v>176.655737704918</v>
+        <v>140.5918367346939</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2025-05-12 07:51:47</t>
+          <t>2025-05-08 11:31:04</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:47</t>
+          <t>2025-05-08 12:11:04</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-05-12 08:20:47</t>
+          <t>2025-05-08 12:11:04</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:26</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>10776</v>
+        <v>6889</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6773,56 +6725,56 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-07 00:00:00</t>
         </is>
       </c>
       <c r="R83" s="1" t="n">
-        <v>0</v>
+        <v>-1.60532879818287</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>0</v>
+        <v>-1.60532879818287</v>
       </c>
       <c r="T83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>251809</v>
+        <v>251464</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>142.3114754098361</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:17:26</t>
+          <t>2025-05-08 14:31:40</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:26</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-05-12 11:42:26</t>
+          <t>2025-05-09 07:06:40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2025-05-12 14:04:45</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>8681</v>
+        <v>7153</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6848,56 +6800,56 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2025-05-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R84" s="1" t="n">
-        <v>0</v>
+        <v>-0.3976757369560185</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>0</v>
+        <v>-0.3976757369560185</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>251466</v>
+        <v>251761</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>91.26229508196721</v>
+        <v>271</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:04:45</t>
+          <t>2025-05-09 09:32:39</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:45</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-05-12 14:31:45</t>
+          <t>2025-05-09 10:07:39</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:00</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5567</v>
+        <v>13279</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -6910,7 +6862,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
         <v>70</v>
@@ -6923,56 +6875,56 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-19 00:00:00</t>
         </is>
       </c>
       <c r="R85" s="1" t="n">
-        <v>-4.335428051006944</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>-4.335428051006944</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>251465</v>
+        <v>251580</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
-        <v>102.0655737704918</v>
+        <v>145.9795918367347</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2025-05-13 08:03:00</t>
+          <t>2025-05-09 14:38:39</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:00</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-05-13 08:30:00</t>
+          <t>2025-05-12 07:13:39</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-13 10:12:04</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6226</v>
+        <v>7153</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6985,7 +6937,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>70</v>
@@ -6998,14 +6950,14 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R86" s="1" t="n">
-        <v>-4.425056921678241</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>-4.425056921678241</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
         <v>1</v>
@@ -7013,41 +6965,41 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>251580</v>
+        <v>251252</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D87" t="n">
-        <v>117.2622950819672</v>
+        <v>307.8163265306122</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:12:04</t>
+          <t>2025-05-12 09:39:37</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:41:04</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-05-13 10:41:04</t>
+          <t>2025-05-12 10:24:37</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-05-13 12:38:20</t>
+          <t>2025-05-13 07:32:26</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>7153</v>
+        <v>15083</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -7056,11 +7008,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R9</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M87" t="n">
         <v>70</v>
@@ -7073,7 +7025,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-23 00:00:00</t>
         </is>
       </c>
       <c r="R87" s="1" t="n">

--- a/PS-VRP/Dati_output/sequenza_post.xlsx
+++ b/PS-VRP/Dati_output/sequenza_post.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>50.79365079365079</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>12073</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39754</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,60 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39754</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v>7</v>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251782</v>
+        <v>244204</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>170.0422535211268</v>
+        <v>48.90140845070422</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:42:00</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:27:56</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12073</v>
+        <v>3472</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,75 +638,73 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-08 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4389182316087963</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
+        <v>-0.4777386541435185</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-0.4777386541435185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251546</v>
+        <v>251164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>91.07042253521126</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:32:02</t>
+          <t>2025-05-08 11:27:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 11:46:56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:19:02</t>
+          <t>2025-05-08 11:46:56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 12:50:06</t>
+          <t>2025-05-08 14:07:47</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6466</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,66 +717,74 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-9.534800469479167</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7</v>
+        <v>-1.588742175277778</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>-1.588742175277778</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
+        <v>23<